--- a/afar_project/csv_path/excel_files/asset_sales_register.xlsx
+++ b/afar_project/csv_path/excel_files/asset_sales_register.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z300"/>
+  <dimension ref="A1:Z301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -624,11 +624,15 @@
       <c r="N2" t="n">
         <v>0</v>
       </c>
-      <c r="O2" t="n">
-        <v>0</v>
-      </c>
-      <c r="P2" t="n">
-        <v>0</v>
+      <c r="O2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
@@ -728,11 +732,15 @@
       <c r="N3" t="n">
         <v>0</v>
       </c>
-      <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="n">
-        <v>0</v>
+      <c r="O3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P3" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -832,11 +840,15 @@
       <c r="N4" t="n">
         <v>0</v>
       </c>
-      <c r="O4" t="n">
-        <v>0</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
+      <c r="O4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P4" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -936,11 +948,15 @@
       <c r="N5" t="n">
         <v>0</v>
       </c>
-      <c r="O5" t="n">
-        <v>0</v>
-      </c>
-      <c r="P5" t="n">
-        <v>0</v>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -1040,11 +1056,15 @@
       <c r="N6" t="n">
         <v>0</v>
       </c>
-      <c r="O6" t="n">
-        <v>0</v>
-      </c>
-      <c r="P6" t="n">
-        <v>0</v>
+      <c r="O6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q6" t="n">
         <v>0</v>
@@ -1144,11 +1164,15 @@
       <c r="N7" t="n">
         <v>0</v>
       </c>
-      <c r="O7" t="n">
-        <v>0</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
+      <c r="O7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1248,11 +1272,15 @@
       <c r="N8" t="n">
         <v>0</v>
       </c>
-      <c r="O8" t="n">
-        <v>0</v>
-      </c>
-      <c r="P8" t="n">
-        <v>0</v>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -1352,11 +1380,15 @@
       <c r="N9" t="n">
         <v>0</v>
       </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -1456,11 +1488,15 @@
       <c r="N10" t="n">
         <v>0</v>
       </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>0</v>
+      <c r="O10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1560,11 +1596,15 @@
       <c r="N11" t="n">
         <v>0</v>
       </c>
-      <c r="O11" t="n">
-        <v>0</v>
-      </c>
-      <c r="P11" t="n">
-        <v>0</v>
+      <c r="O11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q11" t="n">
         <v>0</v>
@@ -1664,11 +1704,15 @@
       <c r="N12" t="n">
         <v>0</v>
       </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
+      <c r="O12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -1768,11 +1812,15 @@
       <c r="N13" t="n">
         <v>0</v>
       </c>
-      <c r="O13" t="n">
-        <v>0</v>
-      </c>
-      <c r="P13" t="n">
-        <v>0</v>
+      <c r="O13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -1872,11 +1920,15 @@
       <c r="N14" t="n">
         <v>0</v>
       </c>
-      <c r="O14" t="n">
-        <v>0</v>
-      </c>
-      <c r="P14" t="n">
-        <v>0</v>
+      <c r="O14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -1976,11 +2028,15 @@
       <c r="N15" t="n">
         <v>0</v>
       </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
+      <c r="O15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -2080,11 +2136,15 @@
       <c r="N16" t="n">
         <v>0</v>
       </c>
-      <c r="O16" t="n">
-        <v>0</v>
-      </c>
-      <c r="P16" t="n">
-        <v>0</v>
+      <c r="O16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -2184,11 +2244,15 @@
       <c r="N17" t="n">
         <v>0</v>
       </c>
-      <c r="O17" t="n">
-        <v>0</v>
-      </c>
-      <c r="P17" t="n">
-        <v>0</v>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q17" t="n">
         <v>0</v>
@@ -2288,11 +2352,15 @@
       <c r="N18" t="n">
         <v>0</v>
       </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
@@ -2392,11 +2460,15 @@
       <c r="N19" t="n">
         <v>0</v>
       </c>
-      <c r="O19" t="n">
-        <v>0</v>
-      </c>
-      <c r="P19" t="n">
-        <v>0</v>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -2496,11 +2568,15 @@
       <c r="N20" t="n">
         <v>0</v>
       </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -2600,11 +2676,15 @@
       <c r="N21" t="n">
         <v>0</v>
       </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -2704,11 +2784,15 @@
       <c r="N22" t="n">
         <v>0</v>
       </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -2808,11 +2892,15 @@
       <c r="N23" t="n">
         <v>0</v>
       </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q23" t="n">
         <v>0</v>
@@ -2912,11 +3000,15 @@
       <c r="N24" t="n">
         <v>0</v>
       </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -3016,11 +3108,15 @@
       <c r="N25" t="n">
         <v>0</v>
       </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -3120,11 +3216,15 @@
       <c r="N26" t="n">
         <v>0</v>
       </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
@@ -3224,11 +3324,15 @@
       <c r="N27" t="n">
         <v>0</v>
       </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -3328,11 +3432,15 @@
       <c r="N28" t="n">
         <v>0</v>
       </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -3432,11 +3540,15 @@
       <c r="N29" t="n">
         <v>0</v>
       </c>
-      <c r="O29" t="n">
-        <v>0</v>
-      </c>
-      <c r="P29" t="n">
-        <v>0</v>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -3536,11 +3648,15 @@
       <c r="N30" t="n">
         <v>0</v>
       </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -3640,11 +3756,15 @@
       <c r="N31" t="n">
         <v>0</v>
       </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -3744,11 +3864,15 @@
       <c r="N32" t="n">
         <v>0</v>
       </c>
-      <c r="O32" t="n">
-        <v>0</v>
-      </c>
-      <c r="P32" t="n">
-        <v>0</v>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -3848,11 +3972,15 @@
       <c r="N33" t="n">
         <v>0</v>
       </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -3952,11 +4080,15 @@
       <c r="N34" t="n">
         <v>0</v>
       </c>
-      <c r="O34" t="n">
-        <v>0</v>
-      </c>
-      <c r="P34" t="n">
-        <v>0</v>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -4056,11 +4188,15 @@
       <c r="N35" t="n">
         <v>0</v>
       </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>0</v>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -4160,11 +4296,15 @@
       <c r="N36" t="n">
         <v>0</v>
       </c>
-      <c r="O36" t="n">
-        <v>0</v>
-      </c>
-      <c r="P36" t="n">
-        <v>0</v>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -4264,11 +4404,15 @@
       <c r="N37" t="n">
         <v>0</v>
       </c>
-      <c r="O37" t="n">
-        <v>0</v>
-      </c>
-      <c r="P37" t="n">
-        <v>0</v>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q37" t="n">
         <v>0</v>
@@ -4368,11 +4512,15 @@
       <c r="N38" t="n">
         <v>0</v>
       </c>
-      <c r="O38" t="n">
-        <v>0</v>
-      </c>
-      <c r="P38" t="n">
-        <v>0</v>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
@@ -4472,11 +4620,15 @@
       <c r="N39" t="n">
         <v>0</v>
       </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
-      <c r="P39" t="n">
-        <v>0</v>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -4576,11 +4728,15 @@
       <c r="N40" t="n">
         <v>0</v>
       </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q40" t="n">
         <v>0</v>
@@ -4680,11 +4836,15 @@
       <c r="N41" t="n">
         <v>0</v>
       </c>
-      <c r="O41" t="n">
-        <v>0</v>
-      </c>
-      <c r="P41" t="n">
-        <v>0</v>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -4784,11 +4944,15 @@
       <c r="N42" t="n">
         <v>0</v>
       </c>
-      <c r="O42" t="n">
-        <v>0</v>
-      </c>
-      <c r="P42" t="n">
-        <v>0</v>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -4888,11 +5052,15 @@
       <c r="N43" t="n">
         <v>0</v>
       </c>
-      <c r="O43" t="n">
-        <v>0</v>
-      </c>
-      <c r="P43" t="n">
-        <v>0</v>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -4992,11 +5160,15 @@
       <c r="N44" t="n">
         <v>0</v>
       </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q44" t="n">
         <v>0</v>
@@ -5096,11 +5268,15 @@
       <c r="N45" t="n">
         <v>0</v>
       </c>
-      <c r="O45" t="n">
-        <v>0</v>
-      </c>
-      <c r="P45" t="n">
-        <v>0</v>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -5200,11 +5376,15 @@
       <c r="N46" t="n">
         <v>0</v>
       </c>
-      <c r="O46" t="n">
-        <v>0</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -5304,11 +5484,15 @@
       <c r="N47" t="n">
         <v>0</v>
       </c>
-      <c r="O47" t="n">
-        <v>0</v>
-      </c>
-      <c r="P47" t="n">
-        <v>0</v>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q47" t="n">
         <v>0</v>
@@ -5408,11 +5592,15 @@
       <c r="N48" t="n">
         <v>0</v>
       </c>
-      <c r="O48" t="n">
-        <v>0</v>
-      </c>
-      <c r="P48" t="n">
-        <v>0</v>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q48" t="n">
         <v>0</v>
@@ -5512,11 +5700,15 @@
       <c r="N49" t="n">
         <v>0</v>
       </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q49" t="n">
         <v>0</v>
@@ -5616,11 +5808,15 @@
       <c r="N50" t="n">
         <v>0</v>
       </c>
-      <c r="O50" t="n">
-        <v>0</v>
-      </c>
-      <c r="P50" t="n">
-        <v>0</v>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q50" t="n">
         <v>0</v>
@@ -5720,11 +5916,15 @@
       <c r="N51" t="n">
         <v>0</v>
       </c>
-      <c r="O51" t="n">
-        <v>0</v>
-      </c>
-      <c r="P51" t="n">
-        <v>0</v>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q51" t="n">
         <v>0</v>
@@ -5824,11 +6024,15 @@
       <c r="N52" t="n">
         <v>0</v>
       </c>
-      <c r="O52" t="n">
-        <v>0</v>
-      </c>
-      <c r="P52" t="n">
-        <v>0</v>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q52" t="n">
         <v>0</v>
@@ -5928,11 +6132,15 @@
       <c r="N53" t="n">
         <v>0</v>
       </c>
-      <c r="O53" t="n">
-        <v>0</v>
-      </c>
-      <c r="P53" t="n">
-        <v>0</v>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q53" t="n">
         <v>0</v>
@@ -6032,11 +6240,15 @@
       <c r="N54" t="n">
         <v>0</v>
       </c>
-      <c r="O54" t="n">
-        <v>0</v>
-      </c>
-      <c r="P54" t="n">
-        <v>0</v>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q54" t="n">
         <v>0</v>
@@ -6136,11 +6348,15 @@
       <c r="N55" t="n">
         <v>0</v>
       </c>
-      <c r="O55" t="n">
-        <v>0</v>
-      </c>
-      <c r="P55" t="n">
-        <v>0</v>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q55" t="n">
         <v>0</v>
@@ -6240,11 +6456,15 @@
       <c r="N56" t="n">
         <v>0</v>
       </c>
-      <c r="O56" t="n">
-        <v>0</v>
-      </c>
-      <c r="P56" t="n">
-        <v>0</v>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q56" t="n">
         <v>0</v>
@@ -6344,11 +6564,15 @@
       <c r="N57" t="n">
         <v>0</v>
       </c>
-      <c r="O57" t="n">
-        <v>0</v>
-      </c>
-      <c r="P57" t="n">
-        <v>0</v>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q57" t="n">
         <v>0</v>
@@ -6448,11 +6672,15 @@
       <c r="N58" t="n">
         <v>0</v>
       </c>
-      <c r="O58" t="n">
-        <v>0</v>
-      </c>
-      <c r="P58" t="n">
-        <v>0</v>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q58" t="n">
         <v>0</v>
@@ -6552,11 +6780,15 @@
       <c r="N59" t="n">
         <v>0</v>
       </c>
-      <c r="O59" t="n">
-        <v>0</v>
-      </c>
-      <c r="P59" t="n">
-        <v>0</v>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q59" t="n">
         <v>0</v>
@@ -6656,11 +6888,15 @@
       <c r="N60" t="n">
         <v>0</v>
       </c>
-      <c r="O60" t="n">
-        <v>0</v>
-      </c>
-      <c r="P60" t="n">
-        <v>0</v>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q60" t="n">
         <v>0</v>
@@ -6760,11 +6996,15 @@
       <c r="N61" t="n">
         <v>0</v>
       </c>
-      <c r="O61" t="n">
-        <v>0</v>
-      </c>
-      <c r="P61" t="n">
-        <v>0</v>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q61" t="n">
         <v>0</v>
@@ -6864,11 +7104,15 @@
       <c r="N62" t="n">
         <v>0</v>
       </c>
-      <c r="O62" t="n">
-        <v>0</v>
-      </c>
-      <c r="P62" t="n">
-        <v>0</v>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q62" t="n">
         <v>0</v>
@@ -6968,11 +7212,15 @@
       <c r="N63" t="n">
         <v>0</v>
       </c>
-      <c r="O63" t="n">
-        <v>0</v>
-      </c>
-      <c r="P63" t="n">
-        <v>0</v>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q63" t="n">
         <v>0</v>
@@ -7072,11 +7320,15 @@
       <c r="N64" t="n">
         <v>0</v>
       </c>
-      <c r="O64" t="n">
-        <v>0</v>
-      </c>
-      <c r="P64" t="n">
-        <v>0</v>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q64" t="n">
         <v>0</v>
@@ -7176,11 +7428,15 @@
       <c r="N65" t="n">
         <v>0</v>
       </c>
-      <c r="O65" t="n">
-        <v>0</v>
-      </c>
-      <c r="P65" t="n">
-        <v>0</v>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q65" t="n">
         <v>0</v>
@@ -7280,11 +7536,15 @@
       <c r="N66" t="n">
         <v>0</v>
       </c>
-      <c r="O66" t="n">
-        <v>0</v>
-      </c>
-      <c r="P66" t="n">
-        <v>0</v>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q66" t="n">
         <v>0</v>
@@ -7384,11 +7644,15 @@
       <c r="N67" t="n">
         <v>0</v>
       </c>
-      <c r="O67" t="n">
-        <v>0</v>
-      </c>
-      <c r="P67" t="n">
-        <v>0</v>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q67" t="n">
         <v>0</v>
@@ -7488,11 +7752,15 @@
       <c r="N68" t="n">
         <v>0</v>
       </c>
-      <c r="O68" t="n">
-        <v>0</v>
-      </c>
-      <c r="P68" t="n">
-        <v>0</v>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q68" t="n">
         <v>0</v>
@@ -7592,11 +7860,15 @@
       <c r="N69" t="n">
         <v>0</v>
       </c>
-      <c r="O69" t="n">
-        <v>0</v>
-      </c>
-      <c r="P69" t="n">
-        <v>0</v>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q69" t="n">
         <v>0</v>
@@ -7696,11 +7968,15 @@
       <c r="N70" t="n">
         <v>0</v>
       </c>
-      <c r="O70" t="n">
-        <v>0</v>
-      </c>
-      <c r="P70" t="n">
-        <v>0</v>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q70" t="n">
         <v>0</v>
@@ -7800,11 +8076,15 @@
       <c r="N71" t="n">
         <v>0</v>
       </c>
-      <c r="O71" t="n">
-        <v>0</v>
-      </c>
-      <c r="P71" t="n">
-        <v>0</v>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q71" t="n">
         <v>0</v>
@@ -7904,11 +8184,15 @@
       <c r="N72" t="n">
         <v>0</v>
       </c>
-      <c r="O72" t="n">
-        <v>0</v>
-      </c>
-      <c r="P72" t="n">
-        <v>0</v>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q72" t="n">
         <v>0</v>
@@ -8008,11 +8292,15 @@
       <c r="N73" t="n">
         <v>0</v>
       </c>
-      <c r="O73" t="n">
-        <v>0</v>
-      </c>
-      <c r="P73" t="n">
-        <v>0</v>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q73" t="n">
         <v>0</v>
@@ -8112,11 +8400,15 @@
       <c r="N74" t="n">
         <v>0</v>
       </c>
-      <c r="O74" t="n">
-        <v>0</v>
-      </c>
-      <c r="P74" t="n">
-        <v>0</v>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q74" t="n">
         <v>0</v>
@@ -8216,11 +8508,15 @@
       <c r="N75" t="n">
         <v>0</v>
       </c>
-      <c r="O75" t="n">
-        <v>0</v>
-      </c>
-      <c r="P75" t="n">
-        <v>0</v>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q75" t="n">
         <v>0</v>
@@ -8320,11 +8616,15 @@
       <c r="N76" t="n">
         <v>0</v>
       </c>
-      <c r="O76" t="n">
-        <v>0</v>
-      </c>
-      <c r="P76" t="n">
-        <v>0</v>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q76" t="n">
         <v>0</v>
@@ -8424,11 +8724,15 @@
       <c r="N77" t="n">
         <v>0</v>
       </c>
-      <c r="O77" t="n">
-        <v>0</v>
-      </c>
-      <c r="P77" t="n">
-        <v>0</v>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q77" t="n">
         <v>0</v>
@@ -8528,11 +8832,15 @@
       <c r="N78" t="n">
         <v>0</v>
       </c>
-      <c r="O78" t="n">
-        <v>0</v>
-      </c>
-      <c r="P78" t="n">
-        <v>0</v>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q78" t="n">
         <v>0</v>
@@ -8632,11 +8940,15 @@
       <c r="N79" t="n">
         <v>0</v>
       </c>
-      <c r="O79" t="n">
-        <v>0</v>
-      </c>
-      <c r="P79" t="n">
-        <v>0</v>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q79" t="n">
         <v>0</v>
@@ -8736,11 +9048,15 @@
       <c r="N80" t="n">
         <v>0</v>
       </c>
-      <c r="O80" t="n">
-        <v>0</v>
-      </c>
-      <c r="P80" t="n">
-        <v>0</v>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q80" t="n">
         <v>0</v>
@@ -8840,11 +9156,15 @@
       <c r="N81" t="n">
         <v>0</v>
       </c>
-      <c r="O81" t="n">
-        <v>0</v>
-      </c>
-      <c r="P81" t="n">
-        <v>0</v>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q81" t="n">
         <v>0</v>
@@ -8944,11 +9264,15 @@
       <c r="N82" t="n">
         <v>0</v>
       </c>
-      <c r="O82" t="n">
-        <v>0</v>
-      </c>
-      <c r="P82" t="n">
-        <v>0</v>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q82" t="n">
         <v>0</v>
@@ -9048,11 +9372,15 @@
       <c r="N83" t="n">
         <v>0</v>
       </c>
-      <c r="O83" t="n">
-        <v>0</v>
-      </c>
-      <c r="P83" t="n">
-        <v>0</v>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q83" t="n">
         <v>0</v>
@@ -9152,11 +9480,15 @@
       <c r="N84" t="n">
         <v>0</v>
       </c>
-      <c r="O84" t="n">
-        <v>0</v>
-      </c>
-      <c r="P84" t="n">
-        <v>0</v>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q84" t="n">
         <v>0</v>
@@ -9256,11 +9588,15 @@
       <c r="N85" t="n">
         <v>0</v>
       </c>
-      <c r="O85" t="n">
-        <v>0</v>
-      </c>
-      <c r="P85" t="n">
-        <v>0</v>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q85" t="n">
         <v>0</v>
@@ -9360,11 +9696,15 @@
       <c r="N86" t="n">
         <v>0</v>
       </c>
-      <c r="O86" t="n">
-        <v>0</v>
-      </c>
-      <c r="P86" t="n">
-        <v>0</v>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q86" t="n">
         <v>0</v>
@@ -9464,11 +9804,15 @@
       <c r="N87" t="n">
         <v>0</v>
       </c>
-      <c r="O87" t="n">
-        <v>0</v>
-      </c>
-      <c r="P87" t="n">
-        <v>0</v>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q87" t="n">
         <v>0</v>
@@ -9568,11 +9912,15 @@
       <c r="N88" t="n">
         <v>0</v>
       </c>
-      <c r="O88" t="n">
-        <v>0</v>
-      </c>
-      <c r="P88" t="n">
-        <v>0</v>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q88" t="n">
         <v>0</v>
@@ -9672,11 +10020,15 @@
       <c r="N89" t="n">
         <v>0</v>
       </c>
-      <c r="O89" t="n">
-        <v>0</v>
-      </c>
-      <c r="P89" t="n">
-        <v>0</v>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q89" t="n">
         <v>0</v>
@@ -9776,11 +10128,15 @@
       <c r="N90" t="n">
         <v>0</v>
       </c>
-      <c r="O90" t="n">
-        <v>0</v>
-      </c>
-      <c r="P90" t="n">
-        <v>0</v>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q90" t="n">
         <v>0</v>
@@ -9880,11 +10236,15 @@
       <c r="N91" t="n">
         <v>0</v>
       </c>
-      <c r="O91" t="n">
-        <v>0</v>
-      </c>
-      <c r="P91" t="n">
-        <v>0</v>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q91" t="n">
         <v>0</v>
@@ -9984,11 +10344,15 @@
       <c r="N92" t="n">
         <v>0</v>
       </c>
-      <c r="O92" t="n">
-        <v>0</v>
-      </c>
-      <c r="P92" t="n">
-        <v>0</v>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q92" t="n">
         <v>0</v>
@@ -10088,11 +10452,15 @@
       <c r="N93" t="n">
         <v>0</v>
       </c>
-      <c r="O93" t="n">
-        <v>0</v>
-      </c>
-      <c r="P93" t="n">
-        <v>0</v>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q93" t="n">
         <v>0</v>
@@ -10192,11 +10560,15 @@
       <c r="N94" t="n">
         <v>0</v>
       </c>
-      <c r="O94" t="n">
-        <v>0</v>
-      </c>
-      <c r="P94" t="n">
-        <v>0</v>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q94" t="n">
         <v>0</v>
@@ -10296,11 +10668,15 @@
       <c r="N95" t="n">
         <v>0</v>
       </c>
-      <c r="O95" t="n">
-        <v>0</v>
-      </c>
-      <c r="P95" t="n">
-        <v>0</v>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q95" t="n">
         <v>0</v>
@@ -10400,11 +10776,15 @@
       <c r="N96" t="n">
         <v>0</v>
       </c>
-      <c r="O96" t="n">
-        <v>0</v>
-      </c>
-      <c r="P96" t="n">
-        <v>0</v>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q96" t="n">
         <v>0</v>
@@ -10504,11 +10884,15 @@
       <c r="N97" t="n">
         <v>0</v>
       </c>
-      <c r="O97" t="n">
-        <v>0</v>
-      </c>
-      <c r="P97" t="n">
-        <v>0</v>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q97" t="n">
         <v>0</v>
@@ -10608,11 +10992,15 @@
       <c r="N98" t="n">
         <v>0</v>
       </c>
-      <c r="O98" t="n">
-        <v>0</v>
-      </c>
-      <c r="P98" t="n">
-        <v>0</v>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q98" t="n">
         <v>0</v>
@@ -10712,11 +11100,15 @@
       <c r="N99" t="n">
         <v>0</v>
       </c>
-      <c r="O99" t="n">
-        <v>0</v>
-      </c>
-      <c r="P99" t="n">
-        <v>0</v>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q99" t="n">
         <v>0</v>
@@ -10816,11 +11208,15 @@
       <c r="N100" t="n">
         <v>0</v>
       </c>
-      <c r="O100" t="n">
-        <v>0</v>
-      </c>
-      <c r="P100" t="n">
-        <v>0</v>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q100" t="n">
         <v>0</v>
@@ -10920,11 +11316,15 @@
       <c r="N101" t="n">
         <v>0</v>
       </c>
-      <c r="O101" t="n">
-        <v>0</v>
-      </c>
-      <c r="P101" t="n">
-        <v>0</v>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q101" t="n">
         <v>0</v>
@@ -11024,11 +11424,15 @@
       <c r="N102" t="n">
         <v>0</v>
       </c>
-      <c r="O102" t="n">
-        <v>0</v>
-      </c>
-      <c r="P102" t="n">
-        <v>0</v>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q102" t="n">
         <v>0</v>
@@ -11128,11 +11532,15 @@
       <c r="N103" t="n">
         <v>0</v>
       </c>
-      <c r="O103" t="n">
-        <v>0</v>
-      </c>
-      <c r="P103" t="n">
-        <v>0</v>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q103" t="n">
         <v>0</v>
@@ -11232,11 +11640,15 @@
       <c r="N104" t="n">
         <v>0</v>
       </c>
-      <c r="O104" t="n">
-        <v>0</v>
-      </c>
-      <c r="P104" t="n">
-        <v>0</v>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q104" t="n">
         <v>0</v>
@@ -11336,11 +11748,15 @@
       <c r="N105" t="n">
         <v>0</v>
       </c>
-      <c r="O105" t="n">
-        <v>0</v>
-      </c>
-      <c r="P105" t="n">
-        <v>0</v>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q105" t="n">
         <v>0</v>
@@ -11440,11 +11856,15 @@
       <c r="N106" t="n">
         <v>0</v>
       </c>
-      <c r="O106" t="n">
-        <v>0</v>
-      </c>
-      <c r="P106" t="n">
-        <v>0</v>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q106" t="n">
         <v>0</v>
@@ -11544,11 +11964,15 @@
       <c r="N107" t="n">
         <v>0</v>
       </c>
-      <c r="O107" t="n">
-        <v>0</v>
-      </c>
-      <c r="P107" t="n">
-        <v>0</v>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q107" t="n">
         <v>0</v>
@@ -11648,11 +12072,15 @@
       <c r="N108" t="n">
         <v>0</v>
       </c>
-      <c r="O108" t="n">
-        <v>0</v>
-      </c>
-      <c r="P108" t="n">
-        <v>0</v>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q108" t="n">
         <v>0</v>
@@ -11752,11 +12180,15 @@
       <c r="N109" t="n">
         <v>0</v>
       </c>
-      <c r="O109" t="n">
-        <v>0</v>
-      </c>
-      <c r="P109" t="n">
-        <v>0</v>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q109" t="n">
         <v>0</v>
@@ -11856,11 +12288,15 @@
       <c r="N110" t="n">
         <v>0</v>
       </c>
-      <c r="O110" t="n">
-        <v>0</v>
-      </c>
-      <c r="P110" t="n">
-        <v>0</v>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q110" t="n">
         <v>0</v>
@@ -11960,11 +12396,15 @@
       <c r="N111" t="n">
         <v>0</v>
       </c>
-      <c r="O111" t="n">
-        <v>0</v>
-      </c>
-      <c r="P111" t="n">
-        <v>0</v>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q111" t="n">
         <v>0</v>
@@ -12064,11 +12504,15 @@
       <c r="N112" t="n">
         <v>0</v>
       </c>
-      <c r="O112" t="n">
-        <v>0</v>
-      </c>
-      <c r="P112" t="n">
-        <v>0</v>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q112" t="n">
         <v>0</v>
@@ -12168,11 +12612,15 @@
       <c r="N113" t="n">
         <v>0</v>
       </c>
-      <c r="O113" t="n">
-        <v>0</v>
-      </c>
-      <c r="P113" t="n">
-        <v>0</v>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P113" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q113" t="n">
         <v>0</v>
@@ -12272,11 +12720,15 @@
       <c r="N114" t="n">
         <v>0</v>
       </c>
-      <c r="O114" t="n">
-        <v>0</v>
-      </c>
-      <c r="P114" t="n">
-        <v>0</v>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P114" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q114" t="n">
         <v>0</v>
@@ -12376,11 +12828,15 @@
       <c r="N115" t="n">
         <v>0</v>
       </c>
-      <c r="O115" t="n">
-        <v>0</v>
-      </c>
-      <c r="P115" t="n">
-        <v>0</v>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P115" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q115" t="n">
         <v>0</v>
@@ -12480,11 +12936,15 @@
       <c r="N116" t="n">
         <v>0</v>
       </c>
-      <c r="O116" t="n">
-        <v>0</v>
-      </c>
-      <c r="P116" t="n">
-        <v>0</v>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q116" t="n">
         <v>0</v>
@@ -12584,11 +13044,15 @@
       <c r="N117" t="n">
         <v>0</v>
       </c>
-      <c r="O117" t="n">
-        <v>0</v>
-      </c>
-      <c r="P117" t="n">
-        <v>0</v>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q117" t="n">
         <v>0</v>
@@ -12688,11 +13152,15 @@
       <c r="N118" t="n">
         <v>0</v>
       </c>
-      <c r="O118" t="n">
-        <v>0</v>
-      </c>
-      <c r="P118" t="n">
-        <v>0</v>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q118" t="n">
         <v>0</v>
@@ -12792,11 +13260,15 @@
       <c r="N119" t="n">
         <v>0</v>
       </c>
-      <c r="O119" t="n">
-        <v>0</v>
-      </c>
-      <c r="P119" t="n">
-        <v>0</v>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q119" t="n">
         <v>0</v>
@@ -12896,11 +13368,15 @@
       <c r="N120" t="n">
         <v>0</v>
       </c>
-      <c r="O120" t="n">
-        <v>0</v>
-      </c>
-      <c r="P120" t="n">
-        <v>0</v>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q120" t="n">
         <v>0</v>
@@ -13000,11 +13476,15 @@
       <c r="N121" t="n">
         <v>0</v>
       </c>
-      <c r="O121" t="n">
-        <v>0</v>
-      </c>
-      <c r="P121" t="n">
-        <v>0</v>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P121" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q121" t="n">
         <v>0</v>
@@ -13104,11 +13584,15 @@
       <c r="N122" t="n">
         <v>0</v>
       </c>
-      <c r="O122" t="n">
-        <v>0</v>
-      </c>
-      <c r="P122" t="n">
-        <v>0</v>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P122" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q122" t="n">
         <v>0</v>
@@ -13208,11 +13692,15 @@
       <c r="N123" t="n">
         <v>0</v>
       </c>
-      <c r="O123" t="n">
-        <v>0</v>
-      </c>
-      <c r="P123" t="n">
-        <v>0</v>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P123" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q123" t="n">
         <v>0</v>
@@ -13312,11 +13800,15 @@
       <c r="N124" t="n">
         <v>0</v>
       </c>
-      <c r="O124" t="n">
-        <v>0</v>
-      </c>
-      <c r="P124" t="n">
-        <v>0</v>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P124" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q124" t="n">
         <v>0</v>
@@ -13416,11 +13908,15 @@
       <c r="N125" t="n">
         <v>0</v>
       </c>
-      <c r="O125" t="n">
-        <v>0</v>
-      </c>
-      <c r="P125" t="n">
-        <v>0</v>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q125" t="n">
         <v>0</v>
@@ -13520,11 +14016,15 @@
       <c r="N126" t="n">
         <v>0</v>
       </c>
-      <c r="O126" t="n">
-        <v>0</v>
-      </c>
-      <c r="P126" t="n">
-        <v>0</v>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P126" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q126" t="n">
         <v>0</v>
@@ -13624,11 +14124,15 @@
       <c r="N127" t="n">
         <v>0</v>
       </c>
-      <c r="O127" t="n">
-        <v>0</v>
-      </c>
-      <c r="P127" t="n">
-        <v>0</v>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P127" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q127" t="n">
         <v>0</v>
@@ -13728,11 +14232,15 @@
       <c r="N128" t="n">
         <v>0</v>
       </c>
-      <c r="O128" t="n">
-        <v>0</v>
-      </c>
-      <c r="P128" t="n">
-        <v>0</v>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P128" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q128" t="n">
         <v>0</v>
@@ -13832,11 +14340,15 @@
       <c r="N129" t="n">
         <v>0</v>
       </c>
-      <c r="O129" t="n">
-        <v>0</v>
-      </c>
-      <c r="P129" t="n">
-        <v>0</v>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P129" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q129" t="n">
         <v>0</v>
@@ -13936,11 +14448,15 @@
       <c r="N130" t="n">
         <v>0</v>
       </c>
-      <c r="O130" t="n">
-        <v>0</v>
-      </c>
-      <c r="P130" t="n">
-        <v>0</v>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P130" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q130" t="n">
         <v>0</v>
@@ -14040,11 +14556,15 @@
       <c r="N131" t="n">
         <v>0</v>
       </c>
-      <c r="O131" t="n">
-        <v>0</v>
-      </c>
-      <c r="P131" t="n">
-        <v>0</v>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P131" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q131" t="n">
         <v>0</v>
@@ -14144,11 +14664,15 @@
       <c r="N132" t="n">
         <v>0</v>
       </c>
-      <c r="O132" t="n">
-        <v>0</v>
-      </c>
-      <c r="P132" t="n">
-        <v>0</v>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P132" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q132" t="n">
         <v>0</v>
@@ -14248,11 +14772,15 @@
       <c r="N133" t="n">
         <v>0</v>
       </c>
-      <c r="O133" t="n">
-        <v>0</v>
-      </c>
-      <c r="P133" t="n">
-        <v>0</v>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P133" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q133" t="n">
         <v>0</v>
@@ -14352,11 +14880,15 @@
       <c r="N134" t="n">
         <v>0</v>
       </c>
-      <c r="O134" t="n">
-        <v>0</v>
-      </c>
-      <c r="P134" t="n">
-        <v>0</v>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P134" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q134" t="n">
         <v>0</v>
@@ -14456,11 +14988,15 @@
       <c r="N135" t="n">
         <v>0</v>
       </c>
-      <c r="O135" t="n">
-        <v>0</v>
-      </c>
-      <c r="P135" t="n">
-        <v>0</v>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P135" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q135" t="n">
         <v>0</v>
@@ -14560,11 +15096,15 @@
       <c r="N136" t="n">
         <v>0</v>
       </c>
-      <c r="O136" t="n">
-        <v>0</v>
-      </c>
-      <c r="P136" t="n">
-        <v>0</v>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P136" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q136" t="n">
         <v>0</v>
@@ -14664,11 +15204,15 @@
       <c r="N137" t="n">
         <v>0</v>
       </c>
-      <c r="O137" t="n">
-        <v>0</v>
-      </c>
-      <c r="P137" t="n">
-        <v>0</v>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P137" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q137" t="n">
         <v>0</v>
@@ -14768,11 +15312,15 @@
       <c r="N138" t="n">
         <v>0</v>
       </c>
-      <c r="O138" t="n">
-        <v>0</v>
-      </c>
-      <c r="P138" t="n">
-        <v>0</v>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P138" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q138" t="n">
         <v>0</v>
@@ -14872,11 +15420,15 @@
       <c r="N139" t="n">
         <v>0</v>
       </c>
-      <c r="O139" t="n">
-        <v>0</v>
-      </c>
-      <c r="P139" t="n">
-        <v>0</v>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P139" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q139" t="n">
         <v>0</v>
@@ -14976,11 +15528,15 @@
       <c r="N140" t="n">
         <v>0</v>
       </c>
-      <c r="O140" t="n">
-        <v>0</v>
-      </c>
-      <c r="P140" t="n">
-        <v>0</v>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P140" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q140" t="n">
         <v>0</v>
@@ -15080,11 +15636,15 @@
       <c r="N141" t="n">
         <v>0</v>
       </c>
-      <c r="O141" t="n">
-        <v>0</v>
-      </c>
-      <c r="P141" t="n">
-        <v>0</v>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q141" t="n">
         <v>0</v>
@@ -15184,11 +15744,15 @@
       <c r="N142" t="n">
         <v>0</v>
       </c>
-      <c r="O142" t="n">
-        <v>0</v>
-      </c>
-      <c r="P142" t="n">
-        <v>0</v>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P142" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q142" t="n">
         <v>0</v>
@@ -15288,11 +15852,15 @@
       <c r="N143" t="n">
         <v>0</v>
       </c>
-      <c r="O143" t="n">
-        <v>0</v>
-      </c>
-      <c r="P143" t="n">
-        <v>0</v>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P143" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q143" t="n">
         <v>0</v>
@@ -15392,11 +15960,15 @@
       <c r="N144" t="n">
         <v>0</v>
       </c>
-      <c r="O144" t="n">
-        <v>0</v>
-      </c>
-      <c r="P144" t="n">
-        <v>0</v>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P144" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q144" t="n">
         <v>0</v>
@@ -15496,11 +16068,15 @@
       <c r="N145" t="n">
         <v>0</v>
       </c>
-      <c r="O145" t="n">
-        <v>0</v>
-      </c>
-      <c r="P145" t="n">
-        <v>0</v>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P145" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q145" t="n">
         <v>0</v>
@@ -15600,11 +16176,15 @@
       <c r="N146" t="n">
         <v>0</v>
       </c>
-      <c r="O146" t="n">
-        <v>0</v>
-      </c>
-      <c r="P146" t="n">
-        <v>0</v>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q146" t="n">
         <v>0</v>
@@ -15704,11 +16284,15 @@
       <c r="N147" t="n">
         <v>0</v>
       </c>
-      <c r="O147" t="n">
-        <v>0</v>
-      </c>
-      <c r="P147" t="n">
-        <v>0</v>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P147" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q147" t="n">
         <v>0</v>
@@ -15808,11 +16392,15 @@
       <c r="N148" t="n">
         <v>0</v>
       </c>
-      <c r="O148" t="n">
-        <v>0</v>
-      </c>
-      <c r="P148" t="n">
-        <v>0</v>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P148" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q148" t="n">
         <v>0</v>
@@ -15912,11 +16500,15 @@
       <c r="N149" t="n">
         <v>0</v>
       </c>
-      <c r="O149" t="n">
-        <v>0</v>
-      </c>
-      <c r="P149" t="n">
-        <v>0</v>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P149" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q149" t="n">
         <v>0</v>
@@ -16016,11 +16608,15 @@
       <c r="N150" t="n">
         <v>0</v>
       </c>
-      <c r="O150" t="n">
-        <v>0</v>
-      </c>
-      <c r="P150" t="n">
-        <v>0</v>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P150" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q150" t="n">
         <v>0</v>
@@ -16120,11 +16716,15 @@
       <c r="N151" t="n">
         <v>0</v>
       </c>
-      <c r="O151" t="n">
-        <v>0</v>
-      </c>
-      <c r="P151" t="n">
-        <v>0</v>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q151" t="n">
         <v>0</v>
@@ -16224,11 +16824,15 @@
       <c r="N152" t="n">
         <v>0</v>
       </c>
-      <c r="O152" t="n">
-        <v>0</v>
-      </c>
-      <c r="P152" t="n">
-        <v>0</v>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P152" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q152" t="n">
         <v>0</v>
@@ -16328,11 +16932,15 @@
       <c r="N153" t="n">
         <v>0</v>
       </c>
-      <c r="O153" t="n">
-        <v>0</v>
-      </c>
-      <c r="P153" t="n">
-        <v>0</v>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P153" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q153" t="n">
         <v>0</v>
@@ -16432,11 +17040,15 @@
       <c r="N154" t="n">
         <v>0</v>
       </c>
-      <c r="O154" t="n">
-        <v>0</v>
-      </c>
-      <c r="P154" t="n">
-        <v>0</v>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P154" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q154" t="n">
         <v>0</v>
@@ -16536,11 +17148,15 @@
       <c r="N155" t="n">
         <v>0</v>
       </c>
-      <c r="O155" t="n">
-        <v>0</v>
-      </c>
-      <c r="P155" t="n">
-        <v>0</v>
+      <c r="O155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P155" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q155" t="n">
         <v>0</v>
@@ -16640,11 +17256,15 @@
       <c r="N156" t="n">
         <v>0</v>
       </c>
-      <c r="O156" t="n">
-        <v>0</v>
-      </c>
-      <c r="P156" t="n">
-        <v>0</v>
+      <c r="O156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P156" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q156" t="n">
         <v>0</v>
@@ -16744,11 +17364,15 @@
       <c r="N157" t="n">
         <v>0</v>
       </c>
-      <c r="O157" t="n">
-        <v>0</v>
-      </c>
-      <c r="P157" t="n">
-        <v>0</v>
+      <c r="O157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P157" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q157" t="n">
         <v>0</v>
@@ -16848,11 +17472,15 @@
       <c r="N158" t="n">
         <v>0</v>
       </c>
-      <c r="O158" t="n">
-        <v>0</v>
-      </c>
-      <c r="P158" t="n">
-        <v>0</v>
+      <c r="O158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P158" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q158" t="n">
         <v>0</v>
@@ -16952,11 +17580,15 @@
       <c r="N159" t="n">
         <v>0</v>
       </c>
-      <c r="O159" t="n">
-        <v>0</v>
-      </c>
-      <c r="P159" t="n">
-        <v>0</v>
+      <c r="O159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P159" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q159" t="n">
         <v>0</v>
@@ -17056,11 +17688,15 @@
       <c r="N160" t="n">
         <v>0</v>
       </c>
-      <c r="O160" t="n">
-        <v>0</v>
-      </c>
-      <c r="P160" t="n">
-        <v>0</v>
+      <c r="O160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P160" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q160" t="n">
         <v>0</v>
@@ -17160,11 +17796,15 @@
       <c r="N161" t="n">
         <v>0</v>
       </c>
-      <c r="O161" t="n">
-        <v>0</v>
-      </c>
-      <c r="P161" t="n">
-        <v>0</v>
+      <c r="O161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P161" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q161" t="n">
         <v>0</v>
@@ -17264,11 +17904,15 @@
       <c r="N162" t="n">
         <v>0</v>
       </c>
-      <c r="O162" t="n">
-        <v>0</v>
-      </c>
-      <c r="P162" t="n">
-        <v>0</v>
+      <c r="O162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P162" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q162" t="n">
         <v>0</v>
@@ -17368,11 +18012,15 @@
       <c r="N163" t="n">
         <v>0</v>
       </c>
-      <c r="O163" t="n">
-        <v>0</v>
-      </c>
-      <c r="P163" t="n">
-        <v>0</v>
+      <c r="O163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P163" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q163" t="n">
         <v>0</v>
@@ -17472,11 +18120,15 @@
       <c r="N164" t="n">
         <v>0</v>
       </c>
-      <c r="O164" t="n">
-        <v>0</v>
-      </c>
-      <c r="P164" t="n">
-        <v>0</v>
+      <c r="O164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P164" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q164" t="n">
         <v>0</v>
@@ -17576,11 +18228,15 @@
       <c r="N165" t="n">
         <v>0</v>
       </c>
-      <c r="O165" t="n">
-        <v>0</v>
-      </c>
-      <c r="P165" t="n">
-        <v>0</v>
+      <c r="O165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P165" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q165" t="n">
         <v>0</v>
@@ -17680,11 +18336,15 @@
       <c r="N166" t="n">
         <v>0</v>
       </c>
-      <c r="O166" t="n">
-        <v>0</v>
-      </c>
-      <c r="P166" t="n">
-        <v>0</v>
+      <c r="O166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P166" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q166" t="n">
         <v>0</v>
@@ -17784,11 +18444,15 @@
       <c r="N167" t="n">
         <v>0</v>
       </c>
-      <c r="O167" t="n">
-        <v>0</v>
-      </c>
-      <c r="P167" t="n">
-        <v>0</v>
+      <c r="O167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P167" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q167" t="n">
         <v>0</v>
@@ -17889,11 +18553,15 @@
       <c r="N168" t="n">
         <v>0</v>
       </c>
-      <c r="O168" t="n">
-        <v>0</v>
-      </c>
-      <c r="P168" t="n">
-        <v>0</v>
+      <c r="O168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P168" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q168" t="n">
         <v>0</v>
@@ -17993,11 +18661,15 @@
       <c r="N169" t="n">
         <v>0</v>
       </c>
-      <c r="O169" t="n">
-        <v>0</v>
-      </c>
-      <c r="P169" t="n">
-        <v>0</v>
+      <c r="O169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P169" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q169" t="n">
         <v>0</v>
@@ -18097,11 +18769,15 @@
       <c r="N170" t="n">
         <v>0</v>
       </c>
-      <c r="O170" t="n">
-        <v>0</v>
-      </c>
-      <c r="P170" t="n">
-        <v>0</v>
+      <c r="O170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P170" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q170" t="n">
         <v>0</v>
@@ -18201,11 +18877,15 @@
       <c r="N171" t="n">
         <v>0</v>
       </c>
-      <c r="O171" t="n">
-        <v>0</v>
-      </c>
-      <c r="P171" t="n">
-        <v>0</v>
+      <c r="O171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P171" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q171" t="n">
         <v>0</v>
@@ -18305,11 +18985,15 @@
       <c r="N172" t="n">
         <v>0</v>
       </c>
-      <c r="O172" t="n">
-        <v>0</v>
-      </c>
-      <c r="P172" t="n">
-        <v>0</v>
+      <c r="O172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P172" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q172" t="n">
         <v>0</v>
@@ -18409,11 +19093,15 @@
       <c r="N173" t="n">
         <v>0</v>
       </c>
-      <c r="O173" t="n">
-        <v>0</v>
-      </c>
-      <c r="P173" t="n">
-        <v>0</v>
+      <c r="O173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P173" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q173" t="n">
         <v>0</v>
@@ -18513,11 +19201,15 @@
       <c r="N174" t="n">
         <v>0</v>
       </c>
-      <c r="O174" t="n">
-        <v>0</v>
-      </c>
-      <c r="P174" t="n">
-        <v>0</v>
+      <c r="O174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P174" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q174" t="n">
         <v>0</v>
@@ -18617,11 +19309,15 @@
       <c r="N175" t="n">
         <v>0</v>
       </c>
-      <c r="O175" t="n">
-        <v>0</v>
-      </c>
-      <c r="P175" t="n">
-        <v>0</v>
+      <c r="O175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P175" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q175" t="n">
         <v>0</v>
@@ -18721,11 +19417,15 @@
       <c r="N176" t="n">
         <v>0</v>
       </c>
-      <c r="O176" t="n">
-        <v>0</v>
-      </c>
-      <c r="P176" t="n">
-        <v>0</v>
+      <c r="O176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P176" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q176" t="n">
         <v>0</v>
@@ -18825,11 +19525,15 @@
       <c r="N177" t="n">
         <v>0</v>
       </c>
-      <c r="O177" t="n">
-        <v>0</v>
-      </c>
-      <c r="P177" t="n">
-        <v>0</v>
+      <c r="O177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P177" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q177" t="n">
         <v>0</v>
@@ -18929,11 +19633,15 @@
       <c r="N178" t="n">
         <v>0</v>
       </c>
-      <c r="O178" t="n">
-        <v>0</v>
-      </c>
-      <c r="P178" t="n">
-        <v>0</v>
+      <c r="O178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P178" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q178" t="n">
         <v>0</v>
@@ -19033,11 +19741,15 @@
       <c r="N179" t="n">
         <v>0</v>
       </c>
-      <c r="O179" t="n">
-        <v>0</v>
-      </c>
-      <c r="P179" t="n">
-        <v>0</v>
+      <c r="O179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P179" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q179" t="n">
         <v>0</v>
@@ -19137,11 +19849,15 @@
       <c r="N180" t="n">
         <v>0</v>
       </c>
-      <c r="O180" t="n">
-        <v>0</v>
-      </c>
-      <c r="P180" t="n">
-        <v>0</v>
+      <c r="O180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P180" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q180" t="n">
         <v>0</v>
@@ -19241,11 +19957,15 @@
       <c r="N181" t="n">
         <v>0</v>
       </c>
-      <c r="O181" t="n">
-        <v>0</v>
-      </c>
-      <c r="P181" t="n">
-        <v>0</v>
+      <c r="O181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P181" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q181" t="n">
         <v>0</v>
@@ -19345,11 +20065,15 @@
       <c r="N182" t="n">
         <v>0</v>
       </c>
-      <c r="O182" t="n">
-        <v>0</v>
-      </c>
-      <c r="P182" t="n">
-        <v>0</v>
+      <c r="O182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P182" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q182" t="n">
         <v>0</v>
@@ -19450,11 +20174,15 @@
       <c r="N183" t="n">
         <v>0</v>
       </c>
-      <c r="O183" t="n">
-        <v>0</v>
-      </c>
-      <c r="P183" t="n">
-        <v>0</v>
+      <c r="O183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P183" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q183" t="n">
         <v>0</v>
@@ -19554,11 +20282,15 @@
       <c r="N184" t="n">
         <v>0</v>
       </c>
-      <c r="O184" t="n">
-        <v>0</v>
-      </c>
-      <c r="P184" t="n">
-        <v>0</v>
+      <c r="O184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P184" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q184" t="n">
         <v>0</v>
@@ -19658,11 +20390,15 @@
       <c r="N185" t="n">
         <v>0</v>
       </c>
-      <c r="O185" t="n">
-        <v>0</v>
-      </c>
-      <c r="P185" t="n">
-        <v>0</v>
+      <c r="O185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P185" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q185" t="n">
         <v>0</v>
@@ -19762,11 +20498,15 @@
       <c r="N186" t="n">
         <v>0</v>
       </c>
-      <c r="O186" t="n">
-        <v>0</v>
-      </c>
-      <c r="P186" t="n">
-        <v>0</v>
+      <c r="O186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q186" t="n">
         <v>0</v>
@@ -19866,11 +20606,15 @@
       <c r="N187" t="n">
         <v>0</v>
       </c>
-      <c r="O187" t="n">
-        <v>0</v>
-      </c>
-      <c r="P187" t="n">
-        <v>0</v>
+      <c r="O187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P187" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q187" t="n">
         <v>0</v>
@@ -19970,11 +20714,15 @@
       <c r="N188" t="n">
         <v>0</v>
       </c>
-      <c r="O188" t="n">
-        <v>0</v>
-      </c>
-      <c r="P188" t="n">
-        <v>0</v>
+      <c r="O188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P188" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q188" t="n">
         <v>0</v>
@@ -20074,11 +20822,15 @@
       <c r="N189" t="n">
         <v>0</v>
       </c>
-      <c r="O189" t="n">
-        <v>0</v>
-      </c>
-      <c r="P189" t="n">
-        <v>0</v>
+      <c r="O189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P189" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q189" t="n">
         <v>0</v>
@@ -20178,11 +20930,15 @@
       <c r="N190" t="n">
         <v>0</v>
       </c>
-      <c r="O190" t="n">
-        <v>0</v>
-      </c>
-      <c r="P190" t="n">
-        <v>0</v>
+      <c r="O190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P190" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q190" t="n">
         <v>0</v>
@@ -20282,11 +21038,15 @@
       <c r="N191" t="n">
         <v>0</v>
       </c>
-      <c r="O191" t="n">
-        <v>0</v>
-      </c>
-      <c r="P191" t="n">
-        <v>0</v>
+      <c r="O191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P191" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q191" t="n">
         <v>0</v>
@@ -20386,11 +21146,15 @@
       <c r="N192" t="n">
         <v>0</v>
       </c>
-      <c r="O192" t="n">
-        <v>0</v>
-      </c>
-      <c r="P192" t="n">
-        <v>0</v>
+      <c r="O192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P192" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q192" t="n">
         <v>0</v>
@@ -20490,11 +21254,15 @@
       <c r="N193" t="n">
         <v>0</v>
       </c>
-      <c r="O193" t="n">
-        <v>0</v>
-      </c>
-      <c r="P193" t="n">
-        <v>0</v>
+      <c r="O193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P193" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q193" t="n">
         <v>0</v>
@@ -20594,11 +21362,15 @@
       <c r="N194" t="n">
         <v>0</v>
       </c>
-      <c r="O194" t="n">
-        <v>0</v>
-      </c>
-      <c r="P194" t="n">
-        <v>0</v>
+      <c r="O194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P194" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q194" t="n">
         <v>0</v>
@@ -20698,11 +21470,15 @@
       <c r="N195" t="n">
         <v>0</v>
       </c>
-      <c r="O195" t="n">
-        <v>0</v>
-      </c>
-      <c r="P195" t="n">
-        <v>0</v>
+      <c r="O195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P195" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q195" t="n">
         <v>0</v>
@@ -20802,11 +21578,15 @@
       <c r="N196" t="n">
         <v>0</v>
       </c>
-      <c r="O196" t="n">
-        <v>0</v>
-      </c>
-      <c r="P196" t="n">
-        <v>0</v>
+      <c r="O196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P196" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q196" t="n">
         <v>0</v>
@@ -20906,11 +21686,15 @@
       <c r="N197" t="n">
         <v>0</v>
       </c>
-      <c r="O197" t="n">
-        <v>0</v>
-      </c>
-      <c r="P197" t="n">
-        <v>0</v>
+      <c r="O197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P197" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q197" t="n">
         <v>0</v>
@@ -21010,11 +21794,15 @@
       <c r="N198" t="n">
         <v>0</v>
       </c>
-      <c r="O198" t="n">
-        <v>0</v>
-      </c>
-      <c r="P198" t="n">
-        <v>0</v>
+      <c r="O198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P198" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q198" t="n">
         <v>0</v>
@@ -21114,11 +21902,15 @@
       <c r="N199" t="n">
         <v>0</v>
       </c>
-      <c r="O199" t="n">
-        <v>0</v>
-      </c>
-      <c r="P199" t="n">
-        <v>0</v>
+      <c r="O199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P199" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q199" t="n">
         <v>0</v>
@@ -21218,11 +22010,15 @@
       <c r="N200" t="n">
         <v>0</v>
       </c>
-      <c r="O200" t="n">
-        <v>0</v>
-      </c>
-      <c r="P200" t="n">
-        <v>0</v>
+      <c r="O200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P200" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q200" t="n">
         <v>0</v>
@@ -21322,11 +22118,15 @@
       <c r="N201" t="n">
         <v>0</v>
       </c>
-      <c r="O201" t="n">
-        <v>0</v>
-      </c>
-      <c r="P201" t="n">
-        <v>0</v>
+      <c r="O201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P201" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q201" t="n">
         <v>0</v>
@@ -21426,11 +22226,15 @@
       <c r="N202" t="n">
         <v>0</v>
       </c>
-      <c r="O202" t="n">
-        <v>0</v>
-      </c>
-      <c r="P202" t="n">
-        <v>0</v>
+      <c r="O202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P202" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q202" t="n">
         <v>0</v>
@@ -21530,11 +22334,15 @@
       <c r="N203" t="n">
         <v>0</v>
       </c>
-      <c r="O203" t="n">
-        <v>0</v>
-      </c>
-      <c r="P203" t="n">
-        <v>0</v>
+      <c r="O203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P203" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q203" t="n">
         <v>0</v>
@@ -21634,11 +22442,15 @@
       <c r="N204" t="n">
         <v>0</v>
       </c>
-      <c r="O204" t="n">
-        <v>0</v>
-      </c>
-      <c r="P204" t="n">
-        <v>0</v>
+      <c r="O204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P204" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q204" t="n">
         <v>0</v>
@@ -21738,11 +22550,15 @@
       <c r="N205" t="n">
         <v>0</v>
       </c>
-      <c r="O205" t="n">
-        <v>0</v>
-      </c>
-      <c r="P205" t="n">
-        <v>0</v>
+      <c r="O205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q205" t="n">
         <v>0</v>
@@ -21842,11 +22658,15 @@
       <c r="N206" t="n">
         <v>0</v>
       </c>
-      <c r="O206" t="n">
-        <v>0</v>
-      </c>
-      <c r="P206" t="n">
-        <v>0</v>
+      <c r="O206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P206" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q206" t="n">
         <v>0</v>
@@ -21946,11 +22766,15 @@
       <c r="N207" t="n">
         <v>0</v>
       </c>
-      <c r="O207" t="n">
-        <v>0</v>
-      </c>
-      <c r="P207" t="n">
-        <v>0</v>
+      <c r="O207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P207" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q207" t="n">
         <v>0</v>
@@ -22050,11 +22874,15 @@
       <c r="N208" t="n">
         <v>0</v>
       </c>
-      <c r="O208" t="n">
-        <v>0</v>
-      </c>
-      <c r="P208" t="n">
-        <v>0</v>
+      <c r="O208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P208" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q208" t="n">
         <v>0</v>
@@ -22154,11 +22982,15 @@
       <c r="N209" t="n">
         <v>0</v>
       </c>
-      <c r="O209" t="n">
-        <v>0</v>
-      </c>
-      <c r="P209" t="n">
-        <v>0</v>
+      <c r="O209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P209" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q209" t="n">
         <v>0</v>
@@ -22258,11 +23090,15 @@
       <c r="N210" t="n">
         <v>0</v>
       </c>
-      <c r="O210" t="n">
-        <v>0</v>
-      </c>
-      <c r="P210" t="n">
-        <v>0</v>
+      <c r="O210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P210" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q210" t="n">
         <v>0</v>
@@ -22362,11 +23198,15 @@
       <c r="N211" t="n">
         <v>0</v>
       </c>
-      <c r="O211" t="n">
-        <v>0</v>
-      </c>
-      <c r="P211" t="n">
-        <v>0</v>
+      <c r="O211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P211" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q211" t="n">
         <v>0</v>
@@ -22466,11 +23306,15 @@
       <c r="N212" t="n">
         <v>0</v>
       </c>
-      <c r="O212" t="n">
-        <v>0</v>
-      </c>
-      <c r="P212" t="n">
-        <v>0</v>
+      <c r="O212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P212" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q212" t="n">
         <v>0</v>
@@ -22570,11 +23414,15 @@
       <c r="N213" t="n">
         <v>0</v>
       </c>
-      <c r="O213" t="n">
-        <v>0</v>
-      </c>
-      <c r="P213" t="n">
-        <v>0</v>
+      <c r="O213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P213" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q213" t="n">
         <v>0</v>
@@ -22674,11 +23522,15 @@
       <c r="N214" t="n">
         <v>0</v>
       </c>
-      <c r="O214" t="n">
-        <v>0</v>
-      </c>
-      <c r="P214" t="n">
-        <v>0</v>
+      <c r="O214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P214" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q214" t="n">
         <v>0</v>
@@ -22778,11 +23630,15 @@
       <c r="N215" t="n">
         <v>0</v>
       </c>
-      <c r="O215" t="n">
-        <v>0</v>
-      </c>
-      <c r="P215" t="n">
-        <v>0</v>
+      <c r="O215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P215" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q215" t="n">
         <v>0</v>
@@ -22882,11 +23738,15 @@
       <c r="N216" t="n">
         <v>0</v>
       </c>
-      <c r="O216" t="n">
-        <v>0</v>
-      </c>
-      <c r="P216" t="n">
-        <v>0</v>
+      <c r="O216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P216" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q216" t="n">
         <v>0</v>
@@ -22986,11 +23846,15 @@
       <c r="N217" t="n">
         <v>0</v>
       </c>
-      <c r="O217" t="n">
-        <v>0</v>
-      </c>
-      <c r="P217" t="n">
-        <v>0</v>
+      <c r="O217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P217" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q217" t="n">
         <v>0</v>
@@ -23090,11 +23954,15 @@
       <c r="N218" t="n">
         <v>0</v>
       </c>
-      <c r="O218" t="n">
-        <v>0</v>
-      </c>
-      <c r="P218" t="n">
-        <v>0</v>
+      <c r="O218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P218" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q218" t="n">
         <v>0</v>
@@ -23194,11 +24062,15 @@
       <c r="N219" t="n">
         <v>0</v>
       </c>
-      <c r="O219" t="n">
-        <v>0</v>
-      </c>
-      <c r="P219" t="n">
-        <v>0</v>
+      <c r="O219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P219" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q219" t="n">
         <v>0</v>
@@ -23298,11 +24170,15 @@
       <c r="N220" t="n">
         <v>0</v>
       </c>
-      <c r="O220" t="n">
-        <v>0</v>
-      </c>
-      <c r="P220" t="n">
-        <v>0</v>
+      <c r="O220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P220" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q220" t="n">
         <v>0</v>
@@ -23402,11 +24278,15 @@
       <c r="N221" t="n">
         <v>0</v>
       </c>
-      <c r="O221" t="n">
-        <v>0</v>
-      </c>
-      <c r="P221" t="n">
-        <v>0</v>
+      <c r="O221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P221" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q221" t="n">
         <v>0</v>
@@ -23506,11 +24386,15 @@
       <c r="N222" t="n">
         <v>0</v>
       </c>
-      <c r="O222" t="n">
-        <v>0</v>
-      </c>
-      <c r="P222" t="n">
-        <v>0</v>
+      <c r="O222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P222" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q222" t="n">
         <v>0</v>
@@ -23610,11 +24494,15 @@
       <c r="N223" t="n">
         <v>0</v>
       </c>
-      <c r="O223" t="n">
-        <v>0</v>
-      </c>
-      <c r="P223" t="n">
-        <v>0</v>
+      <c r="O223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P223" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q223" t="n">
         <v>0</v>
@@ -23714,11 +24602,15 @@
       <c r="N224" t="n">
         <v>0</v>
       </c>
-      <c r="O224" t="n">
-        <v>0</v>
-      </c>
-      <c r="P224" t="n">
-        <v>0</v>
+      <c r="O224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P224" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q224" t="n">
         <v>0</v>
@@ -23818,11 +24710,15 @@
       <c r="N225" t="n">
         <v>0</v>
       </c>
-      <c r="O225" t="n">
-        <v>0</v>
-      </c>
-      <c r="P225" t="n">
-        <v>0</v>
+      <c r="O225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P225" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q225" t="n">
         <v>0</v>
@@ -23922,11 +24818,15 @@
       <c r="N226" t="n">
         <v>0</v>
       </c>
-      <c r="O226" t="n">
-        <v>0</v>
-      </c>
-      <c r="P226" t="n">
-        <v>0</v>
+      <c r="O226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P226" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q226" t="n">
         <v>0</v>
@@ -24026,11 +24926,15 @@
       <c r="N227" t="n">
         <v>0</v>
       </c>
-      <c r="O227" t="n">
-        <v>0</v>
-      </c>
-      <c r="P227" t="n">
-        <v>0</v>
+      <c r="O227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P227" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q227" t="n">
         <v>0</v>
@@ -24130,11 +25034,15 @@
       <c r="N228" t="n">
         <v>0</v>
       </c>
-      <c r="O228" t="n">
-        <v>0</v>
-      </c>
-      <c r="P228" t="n">
-        <v>0</v>
+      <c r="O228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P228" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q228" t="n">
         <v>0</v>
@@ -24234,11 +25142,15 @@
       <c r="N229" t="n">
         <v>0</v>
       </c>
-      <c r="O229" t="n">
-        <v>0</v>
-      </c>
-      <c r="P229" t="n">
-        <v>0</v>
+      <c r="O229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P229" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q229" t="n">
         <v>0</v>
@@ -24338,11 +25250,15 @@
       <c r="N230" t="n">
         <v>0</v>
       </c>
-      <c r="O230" t="n">
-        <v>0</v>
-      </c>
-      <c r="P230" t="n">
-        <v>0</v>
+      <c r="O230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P230" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q230" t="n">
         <v>0</v>
@@ -24442,11 +25358,15 @@
       <c r="N231" t="n">
         <v>0</v>
       </c>
-      <c r="O231" t="n">
-        <v>0</v>
-      </c>
-      <c r="P231" t="n">
-        <v>0</v>
+      <c r="O231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P231" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q231" t="n">
         <v>0</v>
@@ -24546,11 +25466,15 @@
       <c r="N232" t="n">
         <v>0</v>
       </c>
-      <c r="O232" t="n">
-        <v>0</v>
-      </c>
-      <c r="P232" t="n">
-        <v>0</v>
+      <c r="O232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P232" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q232" t="n">
         <v>0</v>
@@ -24650,11 +25574,15 @@
       <c r="N233" t="n">
         <v>0</v>
       </c>
-      <c r="O233" t="n">
-        <v>0</v>
-      </c>
-      <c r="P233" t="n">
-        <v>0</v>
+      <c r="O233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P233" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q233" t="n">
         <v>0</v>
@@ -24754,11 +25682,15 @@
       <c r="N234" t="n">
         <v>0</v>
       </c>
-      <c r="O234" t="n">
-        <v>0</v>
-      </c>
-      <c r="P234" t="n">
-        <v>0</v>
+      <c r="O234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P234" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q234" t="n">
         <v>0</v>
@@ -24858,11 +25790,15 @@
       <c r="N235" t="n">
         <v>0</v>
       </c>
-      <c r="O235" t="n">
-        <v>0</v>
-      </c>
-      <c r="P235" t="n">
-        <v>0</v>
+      <c r="O235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P235" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q235" t="n">
         <v>0</v>
@@ -24962,11 +25898,15 @@
       <c r="N236" t="n">
         <v>0</v>
       </c>
-      <c r="O236" t="n">
-        <v>0</v>
-      </c>
-      <c r="P236" t="n">
-        <v>0</v>
+      <c r="O236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P236" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q236" t="n">
         <v>0</v>
@@ -25066,11 +26006,15 @@
       <c r="N237" t="n">
         <v>0</v>
       </c>
-      <c r="O237" t="n">
-        <v>0</v>
-      </c>
-      <c r="P237" t="n">
-        <v>0</v>
+      <c r="O237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P237" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q237" t="n">
         <v>0</v>
@@ -25170,11 +26114,15 @@
       <c r="N238" t="n">
         <v>0</v>
       </c>
-      <c r="O238" t="n">
-        <v>0</v>
-      </c>
-      <c r="P238" t="n">
-        <v>0</v>
+      <c r="O238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P238" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q238" t="n">
         <v>0</v>
@@ -25274,11 +26222,15 @@
       <c r="N239" t="n">
         <v>0</v>
       </c>
-      <c r="O239" t="n">
-        <v>0</v>
-      </c>
-      <c r="P239" t="n">
-        <v>0</v>
+      <c r="O239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P239" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q239" t="n">
         <v>0</v>
@@ -25378,11 +26330,15 @@
       <c r="N240" t="n">
         <v>0</v>
       </c>
-      <c r="O240" t="n">
-        <v>0</v>
-      </c>
-      <c r="P240" t="n">
-        <v>0</v>
+      <c r="O240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P240" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q240" t="n">
         <v>0</v>
@@ -25482,11 +26438,15 @@
       <c r="N241" t="n">
         <v>0</v>
       </c>
-      <c r="O241" t="n">
-        <v>0</v>
-      </c>
-      <c r="P241" t="n">
-        <v>0</v>
+      <c r="O241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P241" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q241" t="n">
         <v>0</v>
@@ -25586,11 +26546,15 @@
       <c r="N242" t="n">
         <v>0</v>
       </c>
-      <c r="O242" t="n">
-        <v>0</v>
-      </c>
-      <c r="P242" t="n">
-        <v>0</v>
+      <c r="O242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P242" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q242" t="n">
         <v>0</v>
@@ -25690,11 +26654,15 @@
       <c r="N243" t="n">
         <v>0</v>
       </c>
-      <c r="O243" t="n">
-        <v>0</v>
-      </c>
-      <c r="P243" t="n">
-        <v>0</v>
+      <c r="O243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P243" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q243" t="n">
         <v>0</v>
@@ -25794,11 +26762,15 @@
       <c r="N244" t="n">
         <v>0</v>
       </c>
-      <c r="O244" t="n">
-        <v>0</v>
-      </c>
-      <c r="P244" t="n">
-        <v>0</v>
+      <c r="O244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P244" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q244" t="n">
         <v>0</v>
@@ -25898,11 +26870,15 @@
       <c r="N245" t="n">
         <v>0</v>
       </c>
-      <c r="O245" t="n">
-        <v>0</v>
-      </c>
-      <c r="P245" t="n">
-        <v>0</v>
+      <c r="O245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P245" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q245" t="n">
         <v>0</v>
@@ -26002,11 +26978,15 @@
       <c r="N246" t="n">
         <v>0</v>
       </c>
-      <c r="O246" t="n">
-        <v>0</v>
-      </c>
-      <c r="P246" t="n">
-        <v>0</v>
+      <c r="O246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P246" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q246" t="n">
         <v>0</v>
@@ -26106,11 +27086,15 @@
       <c r="N247" t="n">
         <v>0</v>
       </c>
-      <c r="O247" t="n">
-        <v>0</v>
-      </c>
-      <c r="P247" t="n">
-        <v>0</v>
+      <c r="O247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P247" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q247" t="n">
         <v>0</v>
@@ -26210,11 +27194,15 @@
       <c r="N248" t="n">
         <v>0</v>
       </c>
-      <c r="O248" t="n">
-        <v>0</v>
-      </c>
-      <c r="P248" t="n">
-        <v>0</v>
+      <c r="O248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P248" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q248" t="n">
         <v>0</v>
@@ -26314,11 +27302,15 @@
       <c r="N249" t="n">
         <v>0</v>
       </c>
-      <c r="O249" t="n">
-        <v>0</v>
-      </c>
-      <c r="P249" t="n">
-        <v>0</v>
+      <c r="O249" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P249" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q249" t="n">
         <v>0</v>
@@ -26418,11 +27410,15 @@
       <c r="N250" t="n">
         <v>0</v>
       </c>
-      <c r="O250" t="n">
-        <v>0</v>
-      </c>
-      <c r="P250" t="n">
-        <v>0</v>
+      <c r="O250" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P250" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q250" t="n">
         <v>0</v>
@@ -26522,11 +27518,15 @@
       <c r="N251" t="n">
         <v>0</v>
       </c>
-      <c r="O251" t="n">
-        <v>0</v>
-      </c>
-      <c r="P251" t="n">
-        <v>0</v>
+      <c r="O251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P251" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q251" t="n">
         <v>0</v>
@@ -26626,11 +27626,15 @@
       <c r="N252" t="n">
         <v>0</v>
       </c>
-      <c r="O252" t="n">
-        <v>0</v>
-      </c>
-      <c r="P252" t="n">
-        <v>0</v>
+      <c r="O252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P252" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q252" t="n">
         <v>0</v>
@@ -26730,11 +27734,15 @@
       <c r="N253" t="n">
         <v>0</v>
       </c>
-      <c r="O253" t="n">
-        <v>0</v>
-      </c>
-      <c r="P253" t="n">
-        <v>0</v>
+      <c r="O253" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P253" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q253" t="n">
         <v>0</v>
@@ -26834,11 +27842,15 @@
       <c r="N254" t="n">
         <v>0</v>
       </c>
-      <c r="O254" t="n">
-        <v>0</v>
-      </c>
-      <c r="P254" t="n">
-        <v>0</v>
+      <c r="O254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P254" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q254" t="n">
         <v>0</v>
@@ -26938,11 +27950,15 @@
       <c r="N255" t="n">
         <v>0</v>
       </c>
-      <c r="O255" t="n">
-        <v>0</v>
-      </c>
-      <c r="P255" t="n">
-        <v>0</v>
+      <c r="O255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P255" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q255" t="n">
         <v>0</v>
@@ -27042,11 +28058,15 @@
       <c r="N256" t="n">
         <v>0</v>
       </c>
-      <c r="O256" t="n">
-        <v>0</v>
-      </c>
-      <c r="P256" t="n">
-        <v>0</v>
+      <c r="O256" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P256" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q256" t="n">
         <v>0</v>
@@ -27146,11 +28166,15 @@
       <c r="N257" t="n">
         <v>0</v>
       </c>
-      <c r="O257" t="n">
-        <v>0</v>
-      </c>
-      <c r="P257" t="n">
-        <v>0</v>
+      <c r="O257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P257" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q257" t="n">
         <v>0</v>
@@ -27250,11 +28274,15 @@
       <c r="N258" t="n">
         <v>0</v>
       </c>
-      <c r="O258" t="n">
-        <v>0</v>
-      </c>
-      <c r="P258" t="n">
-        <v>0</v>
+      <c r="O258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P258" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q258" t="n">
         <v>0</v>
@@ -27354,11 +28382,15 @@
       <c r="N259" t="n">
         <v>0</v>
       </c>
-      <c r="O259" t="n">
-        <v>0</v>
-      </c>
-      <c r="P259" t="n">
-        <v>0</v>
+      <c r="O259" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P259" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q259" t="n">
         <v>0</v>
@@ -27458,11 +28490,15 @@
       <c r="N260" t="n">
         <v>0</v>
       </c>
-      <c r="O260" t="n">
-        <v>0</v>
-      </c>
-      <c r="P260" t="n">
-        <v>0</v>
+      <c r="O260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P260" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q260" t="n">
         <v>0</v>
@@ -27562,11 +28598,15 @@
       <c r="N261" t="n">
         <v>0</v>
       </c>
-      <c r="O261" t="n">
-        <v>0</v>
-      </c>
-      <c r="P261" t="n">
-        <v>0</v>
+      <c r="O261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P261" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q261" t="n">
         <v>0</v>
@@ -27666,11 +28706,15 @@
       <c r="N262" t="n">
         <v>0</v>
       </c>
-      <c r="O262" t="n">
-        <v>0</v>
-      </c>
-      <c r="P262" t="n">
-        <v>0</v>
+      <c r="O262" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P262" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q262" t="n">
         <v>0</v>
@@ -27770,11 +28814,15 @@
       <c r="N263" t="n">
         <v>0</v>
       </c>
-      <c r="O263" t="n">
-        <v>0</v>
-      </c>
-      <c r="P263" t="n">
-        <v>0</v>
+      <c r="O263" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P263" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q263" t="n">
         <v>0</v>
@@ -27874,11 +28922,15 @@
       <c r="N264" t="n">
         <v>0</v>
       </c>
-      <c r="O264" t="n">
-        <v>0</v>
-      </c>
-      <c r="P264" t="n">
-        <v>0</v>
+      <c r="O264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P264" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q264" t="n">
         <v>0</v>
@@ -27978,11 +29030,15 @@
       <c r="N265" t="n">
         <v>0</v>
       </c>
-      <c r="O265" t="n">
-        <v>0</v>
-      </c>
-      <c r="P265" t="n">
-        <v>0</v>
+      <c r="O265" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P265" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q265" t="n">
         <v>0</v>
@@ -28082,11 +29138,15 @@
       <c r="N266" t="n">
         <v>0</v>
       </c>
-      <c r="O266" t="n">
-        <v>0</v>
-      </c>
-      <c r="P266" t="n">
-        <v>0</v>
+      <c r="O266" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P266" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q266" t="n">
         <v>0</v>
@@ -28186,11 +29246,15 @@
       <c r="N267" t="n">
         <v>0</v>
       </c>
-      <c r="O267" t="n">
-        <v>0</v>
-      </c>
-      <c r="P267" t="n">
-        <v>0</v>
+      <c r="O267" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P267" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q267" t="n">
         <v>0</v>
@@ -28290,11 +29354,15 @@
       <c r="N268" t="n">
         <v>0</v>
       </c>
-      <c r="O268" t="n">
-        <v>0</v>
-      </c>
-      <c r="P268" t="n">
-        <v>0</v>
+      <c r="O268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P268" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q268" t="n">
         <v>0</v>
@@ -28394,11 +29462,15 @@
       <c r="N269" t="n">
         <v>0</v>
       </c>
-      <c r="O269" t="n">
-        <v>0</v>
-      </c>
-      <c r="P269" t="n">
-        <v>0</v>
+      <c r="O269" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P269" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q269" t="n">
         <v>0</v>
@@ -28498,11 +29570,15 @@
       <c r="N270" t="n">
         <v>0</v>
       </c>
-      <c r="O270" t="n">
-        <v>0</v>
-      </c>
-      <c r="P270" t="n">
-        <v>0</v>
+      <c r="O270" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P270" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q270" t="n">
         <v>0</v>
@@ -28602,11 +29678,15 @@
       <c r="N271" t="n">
         <v>0</v>
       </c>
-      <c r="O271" t="n">
-        <v>0</v>
-      </c>
-      <c r="P271" t="n">
-        <v>0</v>
+      <c r="O271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P271" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q271" t="n">
         <v>0</v>
@@ -28706,11 +29786,15 @@
       <c r="N272" t="n">
         <v>0</v>
       </c>
-      <c r="O272" t="n">
-        <v>0</v>
-      </c>
-      <c r="P272" t="n">
-        <v>0</v>
+      <c r="O272" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P272" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q272" t="n">
         <v>0</v>
@@ -28810,11 +29894,15 @@
       <c r="N273" t="n">
         <v>0</v>
       </c>
-      <c r="O273" t="n">
-        <v>0</v>
-      </c>
-      <c r="P273" t="n">
-        <v>0</v>
+      <c r="O273" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P273" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q273" t="n">
         <v>0</v>
@@ -28914,11 +30002,15 @@
       <c r="N274" t="n">
         <v>0</v>
       </c>
-      <c r="O274" t="n">
-        <v>0</v>
-      </c>
-      <c r="P274" t="n">
-        <v>0</v>
+      <c r="O274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P274" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q274" t="n">
         <v>0</v>
@@ -29018,11 +30110,15 @@
       <c r="N275" t="n">
         <v>0</v>
       </c>
-      <c r="O275" t="n">
-        <v>0</v>
-      </c>
-      <c r="P275" t="n">
-        <v>0</v>
+      <c r="O275" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P275" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q275" t="n">
         <v>0</v>
@@ -29122,11 +30218,15 @@
       <c r="N276" t="n">
         <v>0</v>
       </c>
-      <c r="O276" t="n">
-        <v>0</v>
-      </c>
-      <c r="P276" t="n">
-        <v>0</v>
+      <c r="O276" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P276" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q276" t="n">
         <v>0</v>
@@ -29226,11 +30326,15 @@
       <c r="N277" t="n">
         <v>0</v>
       </c>
-      <c r="O277" t="n">
-        <v>0</v>
-      </c>
-      <c r="P277" t="n">
-        <v>0</v>
+      <c r="O277" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P277" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q277" t="n">
         <v>0</v>
@@ -29330,11 +30434,15 @@
       <c r="N278" t="n">
         <v>0</v>
       </c>
-      <c r="O278" t="n">
-        <v>0</v>
-      </c>
-      <c r="P278" t="n">
-        <v>0</v>
+      <c r="O278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P278" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q278" t="n">
         <v>0</v>
@@ -29434,11 +30542,15 @@
       <c r="N279" t="n">
         <v>0</v>
       </c>
-      <c r="O279" t="n">
-        <v>0</v>
-      </c>
-      <c r="P279" t="n">
-        <v>0</v>
+      <c r="O279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P279" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q279" t="n">
         <v>0</v>
@@ -29538,11 +30650,15 @@
       <c r="N280" t="n">
         <v>0</v>
       </c>
-      <c r="O280" t="n">
-        <v>0</v>
-      </c>
-      <c r="P280" t="n">
-        <v>0</v>
+      <c r="O280" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P280" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q280" t="n">
         <v>0</v>
@@ -29642,11 +30758,15 @@
       <c r="N281" t="n">
         <v>0</v>
       </c>
-      <c r="O281" t="n">
-        <v>0</v>
-      </c>
-      <c r="P281" t="n">
-        <v>0</v>
+      <c r="O281" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P281" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q281" t="n">
         <v>0</v>
@@ -29746,11 +30866,15 @@
       <c r="N282" t="n">
         <v>0</v>
       </c>
-      <c r="O282" t="n">
-        <v>0</v>
-      </c>
-      <c r="P282" t="n">
-        <v>0</v>
+      <c r="O282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P282" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q282" t="n">
         <v>0</v>
@@ -29850,11 +30974,15 @@
       <c r="N283" t="n">
         <v>0</v>
       </c>
-      <c r="O283" t="n">
-        <v>0</v>
-      </c>
-      <c r="P283" t="n">
-        <v>0</v>
+      <c r="O283" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P283" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q283" t="n">
         <v>0</v>
@@ -29954,11 +31082,15 @@
       <c r="N284" t="n">
         <v>0</v>
       </c>
-      <c r="O284" t="n">
-        <v>0</v>
-      </c>
-      <c r="P284" t="n">
-        <v>0</v>
+      <c r="O284" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q284" t="n">
         <v>0</v>
@@ -30058,11 +31190,15 @@
       <c r="N285" t="n">
         <v>0</v>
       </c>
-      <c r="O285" t="n">
-        <v>0</v>
-      </c>
-      <c r="P285" t="n">
-        <v>0</v>
+      <c r="O285" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P285" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q285" t="n">
         <v>0</v>
@@ -30162,11 +31298,15 @@
       <c r="N286" t="n">
         <v>0</v>
       </c>
-      <c r="O286" t="n">
-        <v>0</v>
-      </c>
-      <c r="P286" t="n">
-        <v>0</v>
+      <c r="O286" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P286" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q286" t="n">
         <v>0</v>
@@ -30266,11 +31406,15 @@
       <c r="N287" t="n">
         <v>0</v>
       </c>
-      <c r="O287" t="n">
-        <v>0</v>
-      </c>
-      <c r="P287" t="n">
-        <v>0</v>
+      <c r="O287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P287" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q287" t="n">
         <v>0</v>
@@ -30370,11 +31514,15 @@
       <c r="N288" t="n">
         <v>0</v>
       </c>
-      <c r="O288" t="n">
-        <v>0</v>
-      </c>
-      <c r="P288" t="n">
-        <v>0</v>
+      <c r="O288" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P288" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q288" t="n">
         <v>0</v>
@@ -30474,11 +31622,15 @@
       <c r="N289" t="n">
         <v>0</v>
       </c>
-      <c r="O289" t="n">
-        <v>0</v>
-      </c>
-      <c r="P289" t="n">
-        <v>0</v>
+      <c r="O289" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q289" t="n">
         <v>0</v>
@@ -30578,11 +31730,15 @@
       <c r="N290" t="n">
         <v>0</v>
       </c>
-      <c r="O290" t="n">
-        <v>0</v>
-      </c>
-      <c r="P290" t="n">
-        <v>0</v>
+      <c r="O290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P290" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q290" t="n">
         <v>0</v>
@@ -30682,11 +31838,15 @@
       <c r="N291" t="n">
         <v>0</v>
       </c>
-      <c r="O291" t="n">
-        <v>0</v>
-      </c>
-      <c r="P291" t="n">
-        <v>0</v>
+      <c r="O291" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P291" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q291" t="n">
         <v>0</v>
@@ -30786,11 +31946,15 @@
       <c r="N292" t="n">
         <v>0</v>
       </c>
-      <c r="O292" t="n">
-        <v>0</v>
-      </c>
-      <c r="P292" t="n">
-        <v>0</v>
+      <c r="O292" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P292" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q292" t="n">
         <v>0</v>
@@ -30890,11 +32054,15 @@
       <c r="N293" t="n">
         <v>0</v>
       </c>
-      <c r="O293" t="n">
-        <v>0</v>
-      </c>
-      <c r="P293" t="n">
-        <v>0</v>
+      <c r="O293" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P293" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q293" t="n">
         <v>0</v>
@@ -30994,11 +32162,15 @@
       <c r="N294" t="n">
         <v>0</v>
       </c>
-      <c r="O294" t="n">
-        <v>0</v>
-      </c>
-      <c r="P294" t="n">
-        <v>0</v>
+      <c r="O294" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P294" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q294" t="n">
         <v>0</v>
@@ -31098,11 +32270,15 @@
       <c r="N295" t="n">
         <v>0</v>
       </c>
-      <c r="O295" t="n">
-        <v>0</v>
-      </c>
-      <c r="P295" t="n">
-        <v>0</v>
+      <c r="O295" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P295" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q295" t="n">
         <v>0</v>
@@ -31202,11 +32378,15 @@
       <c r="N296" t="n">
         <v>0</v>
       </c>
-      <c r="O296" t="n">
-        <v>0</v>
-      </c>
-      <c r="P296" t="n">
-        <v>0</v>
+      <c r="O296" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P296" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q296" t="n">
         <v>0</v>
@@ -31306,11 +32486,15 @@
       <c r="N297" t="n">
         <v>0</v>
       </c>
-      <c r="O297" t="n">
-        <v>0</v>
-      </c>
-      <c r="P297" t="n">
-        <v>0</v>
+      <c r="O297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P297" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q297" t="n">
         <v>0</v>
@@ -31410,11 +32594,15 @@
       <c r="N298" t="n">
         <v>0</v>
       </c>
-      <c r="O298" t="n">
-        <v>0</v>
-      </c>
-      <c r="P298" t="n">
-        <v>0</v>
+      <c r="O298" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P298" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q298" t="n">
         <v>0</v>
@@ -31514,11 +32702,15 @@
       <c r="N299" t="n">
         <v>0</v>
       </c>
-      <c r="O299" t="n">
-        <v>0</v>
-      </c>
-      <c r="P299" t="n">
-        <v>0</v>
+      <c r="O299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q299" t="n">
         <v>0</v>
@@ -31618,11 +32810,15 @@
       <c r="N300" t="n">
         <v>0</v>
       </c>
-      <c r="O300" t="n">
-        <v>0</v>
-      </c>
-      <c r="P300" t="n">
-        <v>0</v>
+      <c r="O300" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="P300" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
       </c>
       <c r="Q300" t="n">
         <v>0</v>
@@ -31658,6 +32854,114 @@
         </is>
       </c>
       <c r="Z300" t="inlineStr">
+        <is>
+          <t>HQ</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>2024-2025</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>12/03/2024</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>305</v>
+      </c>
+      <c r="D301" t="n">
+        <v>8</v>
+      </c>
+      <c r="E301" t="inlineStr">
+        <is>
+          <t>FRC-HQ-SLM-C-2024-0305</t>
+        </is>
+      </c>
+      <c r="F301" t="n">
+        <v>4112202</v>
+      </c>
+      <c r="G301" t="inlineStr">
+        <is>
+          <t>Computer and Computer Equiments</t>
+        </is>
+      </c>
+      <c r="H301" t="inlineStr">
+        <is>
+          <t>Laptop</t>
+        </is>
+      </c>
+      <c r="I301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="J301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K301" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="L301" t="n">
+        <v>0</v>
+      </c>
+      <c r="M301" t="n">
+        <v>120000</v>
+      </c>
+      <c r="N301" t="n">
+        <v>0</v>
+      </c>
+      <c r="O301" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="P301" t="inlineStr">
+        <is>
+          <t>Dhaka</t>
+        </is>
+      </c>
+      <c r="Q301" t="n">
+        <v>15555</v>
+      </c>
+      <c r="R301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="S301" t="n">
+        <v>0</v>
+      </c>
+      <c r="T301" t="n">
+        <v>0</v>
+      </c>
+      <c r="U301" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="V301" t="n">
+        <v>0</v>
+      </c>
+      <c r="W301" t="n">
+        <v>120000</v>
+      </c>
+      <c r="X301" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y301" t="inlineStr">
+        <is>
+          <t>SLM</t>
+        </is>
+      </c>
+      <c r="Z301" t="inlineStr">
         <is>
           <t>HQ</t>
         </is>

--- a/afar_project/csv_path/excel_files/asset_sales_register.xlsx
+++ b/afar_project/csv_path/excel_files/asset_sales_register.xlsx
@@ -610,16 +610,14 @@
           <t>AFL-CRV-122</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="K2" t="n">
+        <v>2</v>
       </c>
       <c r="L2" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M2" t="n">
-        <v>56862</v>
+        <v>5679</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -654,10 +652,10 @@
         </is>
       </c>
       <c r="V2" t="n">
-        <v>28431</v>
+        <v>1494</v>
       </c>
       <c r="W2" t="n">
-        <v>28431</v>
+        <v>4185</v>
       </c>
       <c r="X2" t="n">
         <v>7</v>
@@ -718,16 +716,14 @@
           <t>AFL-OSX-203</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K3" t="n">
+        <v>3</v>
       </c>
       <c r="L3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M3" t="n">
-        <v>22253</v>
+        <v>5104</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -765,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>22253</v>
+        <v>5104</v>
       </c>
       <c r="X3" t="n">
         <v>7</v>
@@ -826,16 +822,14 @@
           <t>AFL-OTE-103</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K4" t="n">
+        <v>4</v>
       </c>
       <c r="L4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M4" t="n">
-        <v>10810</v>
+        <v>5876</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -873,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>10810</v>
+        <v>5876</v>
       </c>
       <c r="X4" t="n">
         <v>7</v>
@@ -934,16 +928,14 @@
           <t>AFL-CRS-104</t>
         </is>
       </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K5" t="n">
+        <v>2</v>
       </c>
       <c r="L5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M5" t="n">
-        <v>11653</v>
+        <v>5964</v>
       </c>
       <c r="N5" t="n">
         <v>0</v>
@@ -981,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>11653</v>
+        <v>5964</v>
       </c>
       <c r="X5" t="n">
         <v>7</v>
@@ -1042,16 +1034,14 @@
           <t>AFL-CRS-155</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K6" t="n">
+        <v>2</v>
       </c>
       <c r="L6" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M6" t="n">
-        <v>32151</v>
+        <v>5789</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
@@ -1089,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>32151</v>
+        <v>5789</v>
       </c>
       <c r="X6" t="n">
         <v>7</v>
@@ -1150,16 +1140,14 @@
           <t>AFL-CRS-402</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K7" t="n">
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>24570</v>
+        <v>5105</v>
       </c>
       <c r="N7" t="n">
         <v>0</v>
@@ -1197,7 +1185,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>24570</v>
+        <v>5105</v>
       </c>
       <c r="X7" t="n">
         <v>7</v>
@@ -1258,16 +1246,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K8" t="n">
+        <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M8" t="n">
-        <v>47855</v>
+        <v>5595</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1305,7 +1291,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>47855</v>
+        <v>5595</v>
       </c>
       <c r="X8" t="n">
         <v>7</v>
@@ -1366,16 +1352,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>270 ft</t>
-        </is>
+      <c r="K9" t="n">
+        <v>5</v>
       </c>
       <c r="L9" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>24830</v>
+        <v>5372</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -1413,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>24830</v>
+        <v>5372</v>
       </c>
       <c r="X9" t="n">
         <v>7</v>
@@ -1474,16 +1458,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K10" t="n">
+        <v>4</v>
       </c>
       <c r="L10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M10" t="n">
-        <v>105164</v>
+        <v>5501</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -1521,7 +1503,7 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>105164</v>
+        <v>5501</v>
       </c>
       <c r="X10" t="n">
         <v>5</v>
@@ -1582,16 +1564,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K11" t="n">
+        <v>5</v>
       </c>
       <c r="L11" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M11" t="n">
-        <v>55000</v>
+        <v>5415</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -1629,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>55000</v>
+        <v>5415</v>
       </c>
       <c r="X11" t="n">
         <v>5</v>
@@ -1690,16 +1670,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K12" t="n">
+        <v>5</v>
       </c>
       <c r="L12" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M12" t="n">
-        <v>50900</v>
+        <v>5590</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -1737,7 +1715,7 @@
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>50900</v>
+        <v>5590</v>
       </c>
       <c r="X12" t="n">
         <v>7</v>
@@ -1798,16 +1776,14 @@
           <t>RT37K36</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K13" t="n">
+        <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M13" t="n">
-        <v>56900</v>
+        <v>5025</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -1845,7 +1821,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>56900</v>
+        <v>5025</v>
       </c>
       <c r="X13" t="n">
         <v>7</v>
@@ -1906,16 +1882,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="K14" t="n">
+        <v>3</v>
       </c>
       <c r="L14" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M14" t="n">
-        <v>38400</v>
+        <v>5096</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -1950,10 +1924,10 @@
         </is>
       </c>
       <c r="V14" t="n">
-        <v>38400</v>
+        <v>1031</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>4065</v>
       </c>
       <c r="X14" t="n">
         <v>10</v>
@@ -2014,16 +1988,14 @@
           <t>R84A0(st)V</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K15" t="n">
+        <v>4</v>
       </c>
       <c r="L15" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M15" t="n">
-        <v>16900</v>
+        <v>5336</v>
       </c>
       <c r="N15" t="n">
         <v>0</v>
@@ -2061,7 +2033,7 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>16900</v>
+        <v>5336</v>
       </c>
       <c r="X15" t="n">
         <v>7</v>
@@ -2122,16 +2094,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>120 ft</t>
-        </is>
+      <c r="K16" t="n">
+        <v>5</v>
       </c>
       <c r="L16" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M16" t="n">
-        <v>19500</v>
+        <v>5072</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
@@ -2169,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>19500</v>
+        <v>5072</v>
       </c>
       <c r="X16" t="n">
         <v>7</v>
@@ -2230,16 +2200,14 @@
           <t>56''</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="K17" t="n">
+        <v>4</v>
       </c>
       <c r="L17" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M17" t="n">
-        <v>30145.79</v>
+        <v>5371</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -2274,10 +2242,10 @@
         </is>
       </c>
       <c r="V17" t="n">
-        <v>30145.79</v>
+        <v>1203</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>4168</v>
       </c>
       <c r="X17" t="n">
         <v>10</v>
@@ -2338,16 +2306,14 @@
           <t>56"</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="K18" t="n">
+        <v>2</v>
       </c>
       <c r="L18" t="n">
         <v>4</v>
       </c>
       <c r="M18" t="n">
-        <v>18900</v>
+        <v>5255</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
@@ -2382,10 +2348,10 @@
         </is>
       </c>
       <c r="V18" t="n">
-        <v>18900</v>
+        <v>1178</v>
       </c>
       <c r="W18" t="n">
-        <v>0</v>
+        <v>4077</v>
       </c>
       <c r="X18" t="n">
         <v>7</v>
@@ -2446,16 +2412,14 @@
           <t>56"</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="K19" t="n">
+        <v>3</v>
       </c>
       <c r="L19" t="n">
         <v>3</v>
       </c>
       <c r="M19" t="n">
-        <v>13500</v>
+        <v>5276</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -2490,10 +2454,10 @@
         </is>
       </c>
       <c r="V19" t="n">
-        <v>13500</v>
+        <v>1305</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>3971</v>
       </c>
       <c r="X19" t="n">
         <v>10</v>
@@ -2554,16 +2518,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>(1+1+1+1)</t>
-        </is>
+      <c r="K20" t="n">
+        <v>5</v>
       </c>
       <c r="L20" t="n">
         <v>4</v>
       </c>
       <c r="M20" t="n">
-        <v>30450</v>
+        <v>5133</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -2601,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>30450</v>
+        <v>5133</v>
       </c>
       <c r="X20" t="n">
         <v>10</v>
@@ -2662,16 +2624,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K21" t="n">
+        <v>5</v>
       </c>
       <c r="L21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M21" t="n">
-        <v>4300</v>
+        <v>5451</v>
       </c>
       <c r="N21" t="n">
         <v>0</v>
@@ -2709,7 +2669,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>4300</v>
+        <v>5451</v>
       </c>
       <c r="X21" t="n">
         <v>7</v>
@@ -2770,16 +2730,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>5 pcs</t>
-        </is>
+      <c r="K22" t="n">
+        <v>4</v>
       </c>
       <c r="L22" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M22" t="n">
-        <v>28288</v>
+        <v>5867</v>
       </c>
       <c r="N22" t="n">
         <v>0</v>
@@ -2817,7 +2775,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>28288</v>
+        <v>5867</v>
       </c>
       <c r="X22" t="n">
         <v>7</v>
@@ -2878,16 +2836,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
-        <is>
-          <t>3+3+6+1+1</t>
-        </is>
+      <c r="K23" t="n">
+        <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>20199</v>
+        <v>5920</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -2925,7 +2881,7 @@
         <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>20199</v>
+        <v>5920</v>
       </c>
       <c r="X23" t="n">
         <v>7</v>
@@ -2986,16 +2942,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K24" t="n">
+        <v>4</v>
       </c>
       <c r="L24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>55106</v>
+        <v>5799</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -3033,7 +2987,7 @@
         <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>55106</v>
+        <v>5799</v>
       </c>
       <c r="X24" t="n">
         <v>10</v>
@@ -3094,16 +3048,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K25" t="n">
+        <v>2</v>
       </c>
       <c r="L25" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M25" t="n">
-        <v>11700</v>
+        <v>5245</v>
       </c>
       <c r="N25" t="n">
         <v>0</v>
@@ -3141,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>11700</v>
+        <v>5245</v>
       </c>
       <c r="X25" t="n">
         <v>10</v>
@@ -3202,16 +3154,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K26" t="n">
+        <v>4</v>
       </c>
       <c r="L26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M26" t="n">
-        <v>25920</v>
+        <v>5777</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
@@ -3249,7 +3199,7 @@
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>25920</v>
+        <v>5777</v>
       </c>
       <c r="X26" t="n">
         <v>10</v>
@@ -3310,16 +3260,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="K27" t="n">
+        <v>5</v>
       </c>
       <c r="L27" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M27" t="n">
-        <v>255360</v>
+        <v>5209</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
@@ -3357,7 +3305,7 @@
         <v>0</v>
       </c>
       <c r="W27" t="n">
-        <v>255360</v>
+        <v>5209</v>
       </c>
       <c r="X27" t="n">
         <v>10</v>
@@ -3418,16 +3366,14 @@
           <t>AFL-OCF-301</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K28" t="n">
+        <v>4</v>
       </c>
       <c r="L28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M28" t="n">
-        <v>56300</v>
+        <v>5531</v>
       </c>
       <c r="N28" t="n">
         <v>0</v>
@@ -3462,10 +3408,10 @@
         </is>
       </c>
       <c r="V28" t="n">
-        <v>28150</v>
+        <v>1310</v>
       </c>
       <c r="W28" t="n">
-        <v>28150</v>
+        <v>4221</v>
       </c>
       <c r="X28" t="n">
         <v>7</v>
@@ -3526,16 +3472,14 @@
           <t>HPL-505-107-2-1-88</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K29" t="n">
+        <v>2</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M29" t="n">
-        <v>240000</v>
+        <v>5485</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -3573,7 +3517,7 @@
         <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>240000</v>
+        <v>5485</v>
       </c>
       <c r="X29" t="n">
         <v>10</v>
@@ -3634,16 +3578,14 @@
           <t>HCL-201-253-10-1-88;HCL-201-253-10-2-88</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
-        <is>
-          <t>(2+1)</t>
-        </is>
+      <c r="K30" t="n">
+        <v>2</v>
       </c>
       <c r="L30" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M30" t="n">
-        <v>48000</v>
+        <v>5587</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -3681,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>48000</v>
+        <v>5587</v>
       </c>
       <c r="X30" t="n">
         <v>10</v>
@@ -3742,16 +3684,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K31" t="n">
+        <v>4</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M31" t="n">
-        <v>28800</v>
+        <v>5383</v>
       </c>
       <c r="N31" t="n">
         <v>0</v>
@@ -3789,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>28800</v>
+        <v>5383</v>
       </c>
       <c r="X31" t="n">
         <v>10</v>
@@ -3850,16 +3790,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K32" t="n">
+        <v>4</v>
       </c>
       <c r="L32" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>362600</v>
+        <v>5421</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -3897,7 +3835,7 @@
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>362600</v>
+        <v>5421</v>
       </c>
       <c r="X32" t="n">
         <v>7</v>
@@ -3958,16 +3896,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K33" t="n">
+        <v>2</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M33" t="n">
-        <v>13375</v>
+        <v>5504</v>
       </c>
       <c r="N33" t="n">
         <v>0</v>
@@ -4005,7 +3941,7 @@
         <v>0</v>
       </c>
       <c r="W33" t="n">
-        <v>13375</v>
+        <v>5504</v>
       </c>
       <c r="X33" t="n">
         <v>10</v>
@@ -4066,16 +4002,14 @@
           <t>JHR/4803</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K34" t="n">
+        <v>5</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>12300</v>
+        <v>5914</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
@@ -4113,7 +4047,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>12300</v>
+        <v>5914</v>
       </c>
       <c r="X34" t="n">
         <v>7</v>
@@ -4174,16 +4108,14 @@
           <t>(AFL-OTD-105315)+(AFL-OSX-202115)</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>(2+2)</t>
-        </is>
+      <c r="K35" t="n">
+        <v>5</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M35" t="n">
-        <v>97300</v>
+        <v>5453</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -4221,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>97300</v>
+        <v>5453</v>
       </c>
       <c r="X35" t="n">
         <v>10</v>
@@ -4282,16 +4214,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>9 pcs</t>
-        </is>
+      <c r="K36" t="n">
+        <v>4</v>
       </c>
       <c r="L36" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M36" t="n">
-        <v>53770</v>
+        <v>5102</v>
       </c>
       <c r="N36" t="n">
         <v>0</v>
@@ -4329,7 +4259,7 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>53770</v>
+        <v>5102</v>
       </c>
       <c r="X36" t="n">
         <v>7</v>
@@ -4390,16 +4320,14 @@
           <t>ASGA-18FUTBZ</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K37" t="n">
+        <v>2</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M37" t="n">
-        <v>106500</v>
+        <v>5819</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -4434,10 +4362,10 @@
         </is>
       </c>
       <c r="V37" t="n">
-        <v>106500</v>
+        <v>1343</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>4476</v>
       </c>
       <c r="X37" t="n">
         <v>7</v>
@@ -4498,16 +4426,14 @@
           <t>1439C01AA</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K38" t="n">
+        <v>3</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M38" t="n">
-        <v>196000</v>
+        <v>5709</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -4545,7 +4471,7 @@
         <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>196000</v>
+        <v>5709</v>
       </c>
       <c r="X38" t="n">
         <v>7</v>
@@ -4606,16 +4532,14 @@
           <t>CT-556</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K39" t="n">
+        <v>4</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M39" t="n">
-        <v>15000</v>
+        <v>5799</v>
       </c>
       <c r="N39" t="n">
         <v>0</v>
@@ -4653,7 +4577,7 @@
         <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>15000</v>
+        <v>5799</v>
       </c>
       <c r="X39" t="n">
         <v>10</v>
@@ -4714,16 +4638,14 @@
           <t>Coat-001</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K40" t="n">
+        <v>2</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M40" t="n">
-        <v>6375</v>
+        <v>5639</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -4761,7 +4683,7 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>6375</v>
+        <v>5639</v>
       </c>
       <c r="X40" t="n">
         <v>10</v>
@@ -4822,16 +4744,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
-        <is>
-          <t>296 SFT</t>
-        </is>
+      <c r="K41" t="n">
+        <v>4</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M41" t="n">
-        <v>16408</v>
+        <v>5861</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -4869,7 +4789,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>16408</v>
+        <v>5861</v>
       </c>
       <c r="X41" t="n">
         <v>7</v>
@@ -4930,16 +4850,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K42" t="n">
+        <v>4</v>
       </c>
       <c r="L42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M42" t="n">
-        <v>12900</v>
+        <v>5550</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -4974,10 +4892,10 @@
         </is>
       </c>
       <c r="V42" t="n">
-        <v>12900</v>
+        <v>1239</v>
       </c>
       <c r="W42" t="n">
-        <v>0</v>
+        <v>4311</v>
       </c>
       <c r="X42" t="n">
         <v>10</v>
@@ -5038,16 +4956,14 @@
           <t>TW3731-RA</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K43" t="n">
+        <v>2</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M43" t="n">
-        <v>11723.36</v>
+        <v>5369</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -5085,7 +5001,7 @@
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>11723.36</v>
+        <v>5369</v>
       </c>
       <c r="X43" t="n">
         <v>10</v>
@@ -5146,16 +5062,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K44" t="n">
+        <v>5</v>
       </c>
       <c r="L44" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M44" t="n">
-        <v>2930.84</v>
+        <v>5948</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -5193,7 +5107,7 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>2930.84</v>
+        <v>5948</v>
       </c>
       <c r="X44" t="n">
         <v>10</v>
@@ -5254,16 +5168,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="K45" t="n">
+        <v>2</v>
       </c>
       <c r="L45" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M45" t="n">
-        <v>10400</v>
+        <v>5150</v>
       </c>
       <c r="N45" t="n">
         <v>0</v>
@@ -5301,7 +5213,7 @@
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>10400</v>
+        <v>5150</v>
       </c>
       <c r="X45" t="n">
         <v>7</v>
@@ -5362,16 +5274,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K46" t="n">
+        <v>2</v>
       </c>
       <c r="L46" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M46" t="n">
-        <v>80250</v>
+        <v>5956</v>
       </c>
       <c r="N46" t="n">
         <v>0</v>
@@ -5409,7 +5319,7 @@
         <v>0</v>
       </c>
       <c r="W46" t="n">
-        <v>80250</v>
+        <v>5956</v>
       </c>
       <c r="X46" t="n">
         <v>7</v>
@@ -5470,16 +5380,14 @@
           <t>Full height</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K47" t="n">
+        <v>5</v>
       </c>
       <c r="L47" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M47" t="n">
-        <v>48215</v>
+        <v>5524</v>
       </c>
       <c r="N47" t="n">
         <v>0</v>
@@ -5514,10 +5422,10 @@
         </is>
       </c>
       <c r="V47" t="n">
-        <v>48215</v>
+        <v>1250</v>
       </c>
       <c r="W47" t="n">
-        <v>0</v>
+        <v>4274</v>
       </c>
       <c r="X47" t="n">
         <v>10</v>
@@ -5578,16 +5486,14 @@
           <t>AFL-OTD-105</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K48" t="n">
+        <v>5</v>
       </c>
       <c r="L48" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M48" t="n">
-        <v>54124</v>
+        <v>5980</v>
       </c>
       <c r="N48" t="n">
         <v>0</v>
@@ -5622,10 +5528,10 @@
         </is>
       </c>
       <c r="V48" t="n">
-        <v>54124</v>
+        <v>1316</v>
       </c>
       <c r="W48" t="n">
-        <v>0</v>
+        <v>4664</v>
       </c>
       <c r="X48" t="n">
         <v>7</v>
@@ -5686,16 +5592,14 @@
           <t>OTMD-P004-VB</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K49" t="n">
+        <v>5</v>
       </c>
       <c r="L49" t="n">
         <v>2</v>
       </c>
       <c r="M49" t="n">
-        <v>97240</v>
+        <v>5748</v>
       </c>
       <c r="N49" t="n">
         <v>0</v>
@@ -5730,10 +5634,10 @@
         </is>
       </c>
       <c r="V49" t="n">
-        <v>48620</v>
+        <v>1423</v>
       </c>
       <c r="W49" t="n">
-        <v>48620</v>
+        <v>4325</v>
       </c>
       <c r="X49" t="n">
         <v>10</v>
@@ -5794,16 +5698,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K50" t="n">
+        <v>3</v>
       </c>
       <c r="L50" t="n">
         <v>2</v>
       </c>
       <c r="M50" t="n">
-        <v>167000</v>
+        <v>5981</v>
       </c>
       <c r="N50" t="n">
         <v>0</v>
@@ -5838,10 +5740,10 @@
         </is>
       </c>
       <c r="V50" t="n">
-        <v>167000</v>
+        <v>1252</v>
       </c>
       <c r="W50" t="n">
-        <v>0</v>
+        <v>4729</v>
       </c>
       <c r="X50" t="n">
         <v>7</v>
@@ -5902,16 +5804,14 @@
           <t>ASGA-24FUTBZ</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="K51" t="n">
+        <v>5</v>
       </c>
       <c r="L51" t="n">
         <v>4</v>
       </c>
       <c r="M51" t="n">
-        <v>385050</v>
+        <v>5163</v>
       </c>
       <c r="N51" t="n">
         <v>0</v>
@@ -5946,10 +5846,10 @@
         </is>
       </c>
       <c r="V51" t="n">
-        <v>385050</v>
+        <v>1471</v>
       </c>
       <c r="W51" t="n">
-        <v>0</v>
+        <v>3692</v>
       </c>
       <c r="X51" t="n">
         <v>7</v>
@@ -6010,16 +5910,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>2+4</t>
-        </is>
+      <c r="K52" t="n">
+        <v>4</v>
       </c>
       <c r="L52" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M52" t="n">
-        <v>119900</v>
+        <v>5291</v>
       </c>
       <c r="N52" t="n">
         <v>0</v>
@@ -6054,10 +5952,10 @@
         </is>
       </c>
       <c r="V52" t="n">
-        <v>119900</v>
+        <v>1248</v>
       </c>
       <c r="W52" t="n">
-        <v>0</v>
+        <v>4043</v>
       </c>
       <c r="X52" t="n">
         <v>10</v>
@@ -6118,16 +6016,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="K53" t="n">
+        <v>3</v>
       </c>
       <c r="L53" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M53" t="n">
-        <v>57021</v>
+        <v>5674</v>
       </c>
       <c r="N53" t="n">
         <v>0</v>
@@ -6162,10 +6058,10 @@
         </is>
       </c>
       <c r="V53" t="n">
-        <v>57021</v>
+        <v>1213</v>
       </c>
       <c r="W53" t="n">
-        <v>0</v>
+        <v>4461</v>
       </c>
       <c r="X53" t="n">
         <v>10</v>
@@ -6226,16 +6122,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K54" t="n">
+        <v>3</v>
       </c>
       <c r="L54" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M54" t="n">
-        <v>13789.8</v>
+        <v>5486</v>
       </c>
       <c r="N54" t="n">
         <v>0</v>
@@ -6270,10 +6164,10 @@
         </is>
       </c>
       <c r="V54" t="n">
-        <v>13789.8</v>
+        <v>1250</v>
       </c>
       <c r="W54" t="n">
-        <v>0</v>
+        <v>4236</v>
       </c>
       <c r="X54" t="n">
         <v>10</v>
@@ -6334,16 +6228,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K55" t="n">
+        <v>5</v>
       </c>
       <c r="L55" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M55" t="n">
-        <v>6550</v>
+        <v>5185</v>
       </c>
       <c r="N55" t="n">
         <v>0</v>
@@ -6378,10 +6270,10 @@
         </is>
       </c>
       <c r="V55" t="n">
-        <v>6550</v>
+        <v>1453</v>
       </c>
       <c r="W55" t="n">
-        <v>0</v>
+        <v>3732</v>
       </c>
       <c r="X55" t="n">
         <v>10</v>
@@ -6442,16 +6334,14 @@
           <t>CSEP002FRAA010</t>
         </is>
       </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="K56" t="n">
+        <v>5</v>
       </c>
       <c r="L56" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M56" t="n">
-        <v>27379</v>
+        <v>5484</v>
       </c>
       <c r="N56" t="n">
         <v>0</v>
@@ -6486,10 +6376,10 @@
         </is>
       </c>
       <c r="V56" t="n">
-        <v>27379</v>
+        <v>1273</v>
       </c>
       <c r="W56" t="n">
-        <v>0</v>
+        <v>4211</v>
       </c>
       <c r="X56" t="n">
         <v>10</v>
@@ -6550,16 +6440,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="K57" t="n">
+        <v>2</v>
       </c>
       <c r="L57" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M57" t="n">
-        <v>57400</v>
+        <v>5312</v>
       </c>
       <c r="N57" t="n">
         <v>0</v>
@@ -6594,10 +6482,10 @@
         </is>
       </c>
       <c r="V57" t="n">
-        <v>57400</v>
+        <v>1208</v>
       </c>
       <c r="W57" t="n">
-        <v>0</v>
+        <v>4104</v>
       </c>
       <c r="X57" t="n">
         <v>10</v>
@@ -6658,16 +6546,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K58" t="n">
+        <v>4</v>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M58" t="n">
-        <v>36220</v>
+        <v>5705</v>
       </c>
       <c r="N58" t="n">
         <v>0</v>
@@ -6702,10 +6588,10 @@
         </is>
       </c>
       <c r="V58" t="n">
-        <v>36220</v>
+        <v>1068</v>
       </c>
       <c r="W58" t="n">
-        <v>0</v>
+        <v>4637</v>
       </c>
       <c r="X58" t="n">
         <v>10</v>
@@ -6766,16 +6652,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="K59" t="n">
+        <v>3</v>
       </c>
       <c r="L59" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M59" t="n">
-        <v>101042</v>
+        <v>5373</v>
       </c>
       <c r="N59" t="n">
         <v>0</v>
@@ -6810,10 +6694,10 @@
         </is>
       </c>
       <c r="V59" t="n">
-        <v>60625.2</v>
+        <v>1160</v>
       </c>
       <c r="W59" t="n">
-        <v>40416.8</v>
+        <v>4213</v>
       </c>
       <c r="X59" t="n">
         <v>10</v>
@@ -6874,16 +6758,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K60" t="n">
+        <v>4</v>
       </c>
       <c r="L60" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M60" t="n">
-        <v>83200</v>
+        <v>5841</v>
       </c>
       <c r="N60" t="n">
         <v>0</v>
@@ -6921,7 +6803,7 @@
         <v>0</v>
       </c>
       <c r="W60" t="n">
-        <v>83200</v>
+        <v>5841</v>
       </c>
       <c r="X60" t="n">
         <v>5</v>
@@ -6982,16 +6864,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K61" t="n">
+        <v>4</v>
       </c>
       <c r="L61" t="n">
         <v>2</v>
       </c>
       <c r="M61" t="n">
-        <v>146100</v>
+        <v>5775</v>
       </c>
       <c r="N61" t="n">
         <v>0</v>
@@ -7029,7 +6909,7 @@
         <v>0</v>
       </c>
       <c r="W61" t="n">
-        <v>146100</v>
+        <v>5775</v>
       </c>
       <c r="X61" t="n">
         <v>5</v>
@@ -7090,16 +6970,14 @@
           <t>Ultima/418</t>
         </is>
       </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K62" t="n">
+        <v>2</v>
       </c>
       <c r="L62" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M62" t="n">
-        <v>18368</v>
+        <v>5610</v>
       </c>
       <c r="N62" t="n">
         <v>0</v>
@@ -7137,7 +7015,7 @@
         <v>0</v>
       </c>
       <c r="W62" t="n">
-        <v>18368</v>
+        <v>5610</v>
       </c>
       <c r="X62" t="n">
         <v>7</v>
@@ -7198,16 +7076,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K63" t="n">
+        <v>5</v>
       </c>
       <c r="L63" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M63" t="n">
-        <v>17072.14</v>
+        <v>5655</v>
       </c>
       <c r="N63" t="n">
         <v>0</v>
@@ -7245,7 +7121,7 @@
         <v>0</v>
       </c>
       <c r="W63" t="n">
-        <v>17072.14</v>
+        <v>5655</v>
       </c>
       <c r="X63" t="n">
         <v>10</v>
@@ -7306,16 +7182,14 @@
           <t>Full height</t>
         </is>
       </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K64" t="n">
+        <v>3</v>
       </c>
       <c r="L64" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M64" t="n">
-        <v>90000</v>
+        <v>5045</v>
       </c>
       <c r="N64" t="n">
         <v>0</v>
@@ -7350,10 +7224,10 @@
         </is>
       </c>
       <c r="V64" t="n">
-        <v>90000</v>
+        <v>1204</v>
       </c>
       <c r="W64" t="n">
-        <v>0</v>
+        <v>3841</v>
       </c>
       <c r="X64" t="n">
         <v>10</v>
@@ -7414,16 +7288,14 @@
           <t>UX430UQ-GV036T</t>
         </is>
       </c>
-      <c r="K65" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K65" t="n">
+        <v>5</v>
       </c>
       <c r="L65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M65" t="n">
-        <v>197600</v>
+        <v>5046</v>
       </c>
       <c r="N65" t="n">
         <v>0</v>
@@ -7461,7 +7333,7 @@
         <v>0</v>
       </c>
       <c r="W65" t="n">
-        <v>197600</v>
+        <v>5046</v>
       </c>
       <c r="X65" t="n">
         <v>5</v>
@@ -7522,16 +7394,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K66" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K66" t="n">
+        <v>3</v>
       </c>
       <c r="L66" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M66" t="n">
-        <v>57700</v>
+        <v>5882</v>
       </c>
       <c r="N66" t="n">
         <v>0</v>
@@ -7569,7 +7439,7 @@
         <v>0</v>
       </c>
       <c r="W66" t="n">
-        <v>57700</v>
+        <v>5882</v>
       </c>
       <c r="X66" t="n">
         <v>5</v>
@@ -7630,16 +7500,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K67" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K67" t="n">
+        <v>2</v>
       </c>
       <c r="L67" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M67" t="n">
-        <v>55000</v>
+        <v>5723</v>
       </c>
       <c r="N67" t="n">
         <v>0</v>
@@ -7677,7 +7545,7 @@
         <v>0</v>
       </c>
       <c r="W67" t="n">
-        <v>55000</v>
+        <v>5723</v>
       </c>
       <c r="X67" t="n">
         <v>10</v>
@@ -7738,16 +7606,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K68" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K68" t="n">
+        <v>3</v>
       </c>
       <c r="L68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M68" t="n">
-        <v>25000</v>
+        <v>5772</v>
       </c>
       <c r="N68" t="n">
         <v>0</v>
@@ -7785,7 +7651,7 @@
         <v>0</v>
       </c>
       <c r="W68" t="n">
-        <v>25000</v>
+        <v>5772</v>
       </c>
       <c r="X68" t="n">
         <v>10</v>
@@ -7846,16 +7712,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K69" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K69" t="n">
+        <v>3</v>
       </c>
       <c r="L69" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M69" t="n">
-        <v>46980</v>
+        <v>5844</v>
       </c>
       <c r="N69" t="n">
         <v>0</v>
@@ -7893,7 +7757,7 @@
         <v>46980</v>
       </c>
       <c r="W69" t="n">
-        <v>0</v>
+        <v>-41136</v>
       </c>
       <c r="X69" t="n">
         <v>10</v>
@@ -7954,16 +7818,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K70" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K70" t="n">
+        <v>3</v>
       </c>
       <c r="L70" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M70" t="n">
-        <v>7330</v>
+        <v>5544</v>
       </c>
       <c r="N70" t="n">
         <v>0</v>
@@ -8001,7 +7863,7 @@
         <v>0</v>
       </c>
       <c r="W70" t="n">
-        <v>7330</v>
+        <v>5544</v>
       </c>
       <c r="X70" t="n">
         <v>10</v>
@@ -8062,16 +7924,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K71" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K71" t="n">
+        <v>2</v>
       </c>
       <c r="L71" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M71" t="n">
-        <v>46000</v>
+        <v>5846</v>
       </c>
       <c r="N71" t="n">
         <v>0</v>
@@ -8109,7 +7969,7 @@
         <v>0</v>
       </c>
       <c r="W71" t="n">
-        <v>46000</v>
+        <v>5846</v>
       </c>
       <c r="X71" t="n">
         <v>5</v>
@@ -8170,16 +8030,14 @@
           <t>AFL-CXD-101</t>
         </is>
       </c>
-      <c r="K72" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K72" t="n">
+        <v>4</v>
       </c>
       <c r="L72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M72" t="n">
-        <v>9500</v>
+        <v>5835</v>
       </c>
       <c r="N72" t="n">
         <v>0</v>
@@ -8217,7 +8075,7 @@
         <v>0</v>
       </c>
       <c r="W72" t="n">
-        <v>9500</v>
+        <v>5835</v>
       </c>
       <c r="X72" t="n">
         <v>10</v>
@@ -8278,16 +8136,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K73" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K73" t="n">
+        <v>3</v>
       </c>
       <c r="L73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M73" t="n">
-        <v>16800</v>
+        <v>5994</v>
       </c>
       <c r="N73" t="n">
         <v>0</v>
@@ -8325,7 +8181,7 @@
         <v>0</v>
       </c>
       <c r="W73" t="n">
-        <v>16800</v>
+        <v>5994</v>
       </c>
       <c r="X73" t="n">
         <v>10</v>
@@ -8386,16 +8242,14 @@
           <t>NFL-MISC-0266</t>
         </is>
       </c>
-      <c r="K74" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K74" t="n">
+        <v>3</v>
       </c>
       <c r="L74" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M74" t="n">
-        <v>12750</v>
+        <v>5572</v>
       </c>
       <c r="N74" t="n">
         <v>0</v>
@@ -8433,7 +8287,7 @@
         <v>0</v>
       </c>
       <c r="W74" t="n">
-        <v>12750</v>
+        <v>5572</v>
       </c>
       <c r="X74" t="n">
         <v>10</v>
@@ -8494,16 +8348,14 @@
           <t>Gorky-307</t>
         </is>
       </c>
-      <c r="K75" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K75" t="n">
+        <v>4</v>
       </c>
       <c r="L75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M75" t="n">
-        <v>31500</v>
+        <v>5286</v>
       </c>
       <c r="N75" t="n">
         <v>0</v>
@@ -8541,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="W75" t="n">
-        <v>31500</v>
+        <v>5286</v>
       </c>
       <c r="X75" t="n">
         <v>10</v>
@@ -8602,16 +8454,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K76" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K76" t="n">
+        <v>3</v>
       </c>
       <c r="L76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M76" t="n">
-        <v>20662</v>
+        <v>5492</v>
       </c>
       <c r="N76" t="n">
         <v>0</v>
@@ -8649,7 +8499,7 @@
         <v>0</v>
       </c>
       <c r="W76" t="n">
-        <v>20662</v>
+        <v>5492</v>
       </c>
       <c r="X76" t="n">
         <v>7</v>
@@ -8710,16 +8560,14 @@
           <t>AFL-CRS-117</t>
         </is>
       </c>
-      <c r="K77" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K77" t="n">
+        <v>2</v>
       </c>
       <c r="L77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M77" t="n">
-        <v>16963</v>
+        <v>5838</v>
       </c>
       <c r="N77" t="n">
         <v>0</v>
@@ -8757,7 +8605,7 @@
         <v>0</v>
       </c>
       <c r="W77" t="n">
-        <v>16963</v>
+        <v>5838</v>
       </c>
       <c r="X77" t="n">
         <v>10</v>
@@ -8818,16 +8666,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K78" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K78" t="n">
+        <v>5</v>
       </c>
       <c r="L78" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M78" t="n">
-        <v>12000</v>
+        <v>5437</v>
       </c>
       <c r="N78" t="n">
         <v>0</v>
@@ -8865,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="W78" t="n">
-        <v>12000</v>
+        <v>5437</v>
       </c>
       <c r="X78" t="n">
         <v>10</v>
@@ -8926,16 +8772,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K79" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K79" t="n">
+        <v>4</v>
       </c>
       <c r="L79" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M79" t="n">
-        <v>5000</v>
+        <v>5797</v>
       </c>
       <c r="N79" t="n">
         <v>0</v>
@@ -8973,7 +8817,7 @@
         <v>0</v>
       </c>
       <c r="W79" t="n">
-        <v>5000</v>
+        <v>5797</v>
       </c>
       <c r="X79" t="n">
         <v>10</v>
@@ -9034,16 +8878,14 @@
           <t>CP-X4042WN</t>
         </is>
       </c>
-      <c r="K80" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K80" t="n">
+        <v>5</v>
       </c>
       <c r="L80" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M80" t="n">
-        <v>63665</v>
+        <v>5223</v>
       </c>
       <c r="N80" t="n">
         <v>0</v>
@@ -9081,7 +8923,7 @@
         <v>0</v>
       </c>
       <c r="W80" t="n">
-        <v>63665</v>
+        <v>5223</v>
       </c>
       <c r="X80" t="n">
         <v>5</v>
@@ -9142,16 +8984,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K81" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K81" t="n">
+        <v>4</v>
       </c>
       <c r="L81" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M81" t="n">
-        <v>3745</v>
+        <v>5541</v>
       </c>
       <c r="N81" t="n">
         <v>0</v>
@@ -9189,7 +9029,7 @@
         <v>0</v>
       </c>
       <c r="W81" t="n">
-        <v>3745</v>
+        <v>5541</v>
       </c>
       <c r="X81" t="n">
         <v>5</v>
@@ -9250,16 +9090,14 @@
           <t>M402DN</t>
         </is>
       </c>
-      <c r="K82" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K82" t="n">
+        <v>3</v>
       </c>
       <c r="L82" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M82" t="n">
-        <v>18725</v>
+        <v>5388</v>
       </c>
       <c r="N82" t="n">
         <v>0</v>
@@ -9297,7 +9135,7 @@
         <v>0</v>
       </c>
       <c r="W82" t="n">
-        <v>18725</v>
+        <v>5388</v>
       </c>
       <c r="X82" t="n">
         <v>5</v>
@@ -9358,16 +9196,14 @@
           <t>Pro 2500 F1</t>
         </is>
       </c>
-      <c r="K83" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K83" t="n">
+        <v>3</v>
       </c>
       <c r="L83" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M83" t="n">
-        <v>28890</v>
+        <v>5949</v>
       </c>
       <c r="N83" t="n">
         <v>0</v>
@@ -9405,7 +9241,7 @@
         <v>0</v>
       </c>
       <c r="W83" t="n">
-        <v>28890</v>
+        <v>5949</v>
       </c>
       <c r="X83" t="n">
         <v>5</v>
@@ -9466,16 +9302,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K84" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="K84" t="n">
+        <v>4</v>
       </c>
       <c r="L84" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="M84" t="n">
-        <v>39380</v>
+        <v>5098</v>
       </c>
       <c r="N84" t="n">
         <v>0</v>
@@ -9513,7 +9347,7 @@
         <v>0</v>
       </c>
       <c r="W84" t="n">
-        <v>39380</v>
+        <v>5098</v>
       </c>
       <c r="X84" t="n">
         <v>7</v>
@@ -9574,16 +9408,14 @@
           <t>L-380</t>
         </is>
       </c>
-      <c r="K85" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K85" t="n">
+        <v>3</v>
       </c>
       <c r="L85" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M85" t="n">
-        <v>15194</v>
+        <v>5047</v>
       </c>
       <c r="N85" t="n">
         <v>0</v>
@@ -9621,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="W85" t="n">
-        <v>15194</v>
+        <v>5047</v>
       </c>
       <c r="X85" t="n">
         <v>5</v>
@@ -9682,16 +9514,14 @@
           <t>CE0285A</t>
         </is>
       </c>
-      <c r="K86" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="K86" t="n">
+        <v>3</v>
       </c>
       <c r="L86" t="n">
         <v>5</v>
       </c>
       <c r="M86" t="n">
-        <v>5350</v>
+        <v>5293</v>
       </c>
       <c r="N86" t="n">
         <v>0</v>
@@ -9729,7 +9559,7 @@
         <v>0</v>
       </c>
       <c r="W86" t="n">
-        <v>5350</v>
+        <v>5293</v>
       </c>
       <c r="X86" t="n">
         <v>5</v>
@@ -9790,16 +9620,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K87" t="inlineStr">
-        <is>
-          <t>50+100</t>
-        </is>
+      <c r="K87" t="n">
+        <v>4</v>
       </c>
       <c r="L87" t="n">
-        <v>150</v>
+        <v>5</v>
       </c>
       <c r="M87" t="n">
-        <v>62500</v>
+        <v>5140</v>
       </c>
       <c r="N87" t="n">
         <v>0</v>
@@ -9837,7 +9665,7 @@
         <v>0</v>
       </c>
       <c r="W87" t="n">
-        <v>62500</v>
+        <v>5140</v>
       </c>
       <c r="X87" t="n">
         <v>7</v>
@@ -9898,16 +9726,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K88" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K88" t="n">
+        <v>5</v>
       </c>
       <c r="L88" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M88" t="n">
-        <v>12305</v>
+        <v>5753</v>
       </c>
       <c r="N88" t="n">
         <v>0</v>
@@ -9945,7 +9771,7 @@
         <v>0</v>
       </c>
       <c r="W88" t="n">
-        <v>12305</v>
+        <v>5753</v>
       </c>
       <c r="X88" t="n">
         <v>5</v>
@@ -10006,16 +9832,14 @@
           <t>Inspiron 3670DT</t>
         </is>
       </c>
-      <c r="K89" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="K89" t="n">
+        <v>3</v>
       </c>
       <c r="L89" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M89" t="n">
-        <v>172056</v>
+        <v>5714</v>
       </c>
       <c r="N89" t="n">
         <v>0</v>
@@ -10053,7 +9877,7 @@
         <v>0</v>
       </c>
       <c r="W89" t="n">
-        <v>172056</v>
+        <v>5714</v>
       </c>
       <c r="X89" t="n">
         <v>5</v>
@@ -10114,16 +9938,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K90" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K90" t="n">
+        <v>4</v>
       </c>
       <c r="L90" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M90" t="n">
-        <v>5564</v>
+        <v>5065</v>
       </c>
       <c r="N90" t="n">
         <v>0</v>
@@ -10161,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="W90" t="n">
-        <v>5564</v>
+        <v>5065</v>
       </c>
       <c r="X90" t="n">
         <v>5</v>
@@ -10222,16 +10044,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K91" t="inlineStr">
-        <is>
-          <t>707.2 sft</t>
-        </is>
+      <c r="K91" t="n">
+        <v>3</v>
       </c>
       <c r="L91" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M91" t="n">
-        <v>311168</v>
+        <v>5668</v>
       </c>
       <c r="N91" t="n">
         <v>0</v>
@@ -10266,10 +10086,10 @@
         </is>
       </c>
       <c r="V91" t="n">
-        <v>311168</v>
+        <v>1279</v>
       </c>
       <c r="W91" t="n">
-        <v>0</v>
+        <v>4389</v>
       </c>
       <c r="X91" t="n">
         <v>10</v>
@@ -10330,16 +10150,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K92" t="inlineStr">
-        <is>
-          <t>252  sft</t>
-        </is>
+      <c r="K92" t="n">
+        <v>4</v>
       </c>
       <c r="L92" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M92" t="n">
-        <v>60480</v>
+        <v>5514</v>
       </c>
       <c r="N92" t="n">
         <v>0</v>
@@ -10374,10 +10192,10 @@
         </is>
       </c>
       <c r="V92" t="n">
-        <v>60480</v>
+        <v>1355</v>
       </c>
       <c r="W92" t="n">
-        <v>0</v>
+        <v>4159</v>
       </c>
       <c r="X92" t="n">
         <v>10</v>
@@ -10438,16 +10256,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K93" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="K93" t="n">
+        <v>5</v>
       </c>
       <c r="L93" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="M93" t="n">
-        <v>14000</v>
+        <v>5699</v>
       </c>
       <c r="N93" t="n">
         <v>0</v>
@@ -10482,10 +10298,10 @@
         </is>
       </c>
       <c r="V93" t="n">
-        <v>14000</v>
+        <v>1001</v>
       </c>
       <c r="W93" t="n">
-        <v>0</v>
+        <v>4698</v>
       </c>
       <c r="X93" t="n">
         <v>10</v>
@@ -10546,16 +10362,14 @@
           <t>AR18MVFHGWKZ</t>
         </is>
       </c>
-      <c r="K94" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="K94" t="n">
+        <v>3</v>
       </c>
       <c r="L94" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M94" t="n">
-        <v>337568</v>
+        <v>5039</v>
       </c>
       <c r="N94" t="n">
         <v>0</v>
@@ -10590,10 +10404,10 @@
         </is>
       </c>
       <c r="V94" t="n">
-        <v>337568</v>
+        <v>1068</v>
       </c>
       <c r="W94" t="n">
-        <v>0</v>
+        <v>3971</v>
       </c>
       <c r="X94" t="n">
         <v>7</v>
@@ -10654,16 +10468,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K95" t="n">
+        <v>2</v>
       </c>
       <c r="L95" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M95" t="n">
-        <v>35000</v>
+        <v>5914</v>
       </c>
       <c r="N95" t="n">
         <v>0</v>
@@ -10701,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="W95" t="n">
-        <v>35000</v>
+        <v>5914</v>
       </c>
       <c r="X95" t="n">
         <v>10</v>
@@ -10762,16 +10574,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K96" t="inlineStr">
-        <is>
-          <t>(3+1+2+1+1)</t>
-        </is>
+      <c r="K96" t="n">
+        <v>5</v>
       </c>
       <c r="L96" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M96" t="n">
-        <v>36700</v>
+        <v>5271</v>
       </c>
       <c r="N96" t="n">
         <v>0</v>
@@ -10809,7 +10619,7 @@
         <v>0</v>
       </c>
       <c r="W96" t="n">
-        <v>36700</v>
+        <v>5271</v>
       </c>
       <c r="X96" t="n">
         <v>7</v>
@@ -10870,16 +10680,14 @@
           <t>KX-TDA100D</t>
         </is>
       </c>
-      <c r="K97" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K97" t="n">
+        <v>4</v>
       </c>
       <c r="L97" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M97" t="n">
-        <v>214136</v>
+        <v>5074</v>
       </c>
       <c r="N97" t="n">
         <v>0</v>
@@ -10917,7 +10725,7 @@
         <v>0</v>
       </c>
       <c r="W97" t="n">
-        <v>214136</v>
+        <v>5074</v>
       </c>
       <c r="X97" t="n">
         <v>7</v>
@@ -10978,16 +10786,14 @@
           <t>2018/ Sedan</t>
         </is>
       </c>
-      <c r="K98" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="K98" t="n">
+        <v>5</v>
       </c>
       <c r="L98" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M98" t="n">
-        <v>9276465</v>
+        <v>5549</v>
       </c>
       <c r="N98" t="n">
         <v>0</v>
@@ -11025,7 +10831,7 @@
         <v>0</v>
       </c>
       <c r="W98" t="n">
-        <v>9276465</v>
+        <v>5549</v>
       </c>
       <c r="X98" t="n">
         <v>10</v>
@@ -11086,16 +10892,14 @@
           <t>2018 Pajero Sports</t>
         </is>
       </c>
-      <c r="K99" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K99" t="n">
+        <v>3</v>
       </c>
       <c r="L99" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M99" t="n">
-        <v>9046900</v>
+        <v>5075</v>
       </c>
       <c r="N99" t="n">
         <v>0</v>
@@ -11133,7 +10937,7 @@
         <v>0</v>
       </c>
       <c r="W99" t="n">
-        <v>9046900</v>
+        <v>5075</v>
       </c>
       <c r="X99" t="n">
         <v>10</v>
@@ -11194,16 +10998,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>50+50+10</t>
-        </is>
+      <c r="K100" t="n">
+        <v>3</v>
       </c>
       <c r="L100" t="n">
-        <v>110</v>
+        <v>4</v>
       </c>
       <c r="M100" t="n">
-        <v>42801</v>
+        <v>5731</v>
       </c>
       <c r="N100" t="n">
         <v>0</v>
@@ -11241,7 +11043,7 @@
         <v>0</v>
       </c>
       <c r="W100" t="n">
-        <v>42801</v>
+        <v>5731</v>
       </c>
       <c r="X100" t="n">
         <v>7</v>
@@ -11302,16 +11104,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>(18+12+3)</t>
-        </is>
+      <c r="K101" t="n">
+        <v>5</v>
       </c>
       <c r="L101" t="n">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="M101" t="n">
-        <v>20100</v>
+        <v>5016</v>
       </c>
       <c r="N101" t="n">
         <v>0</v>
@@ -11349,7 +11149,7 @@
         <v>0</v>
       </c>
       <c r="W101" t="n">
-        <v>20100</v>
+        <v>5016</v>
       </c>
       <c r="X101" t="n">
         <v>7</v>
@@ -11410,16 +11210,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K102" t="inlineStr">
-        <is>
-          <t>36</t>
-        </is>
+      <c r="K102" t="n">
+        <v>5</v>
       </c>
       <c r="L102" t="n">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="M102" t="n">
-        <v>4320</v>
+        <v>5608</v>
       </c>
       <c r="N102" t="n">
         <v>0</v>
@@ -11457,7 +11255,7 @@
         <v>0</v>
       </c>
       <c r="W102" t="n">
-        <v>4320</v>
+        <v>5608</v>
       </c>
       <c r="X102" t="n">
         <v>7</v>
@@ -11518,16 +11316,14 @@
           <t>AR23MVFHGWKZ</t>
         </is>
       </c>
-      <c r="K103" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K103" t="n">
+        <v>3</v>
       </c>
       <c r="L103" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M103" t="n">
-        <v>186384</v>
+        <v>5765</v>
       </c>
       <c r="N103" t="n">
         <v>0</v>
@@ -11562,10 +11358,10 @@
         </is>
       </c>
       <c r="V103" t="n">
-        <v>186384</v>
+        <v>1042</v>
       </c>
       <c r="W103" t="n">
-        <v>0</v>
+        <v>4723</v>
       </c>
       <c r="X103" t="n">
         <v>7</v>
@@ -11626,16 +11422,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K104" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K104" t="n">
+        <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M104" t="n">
-        <v>9900</v>
+        <v>5240</v>
       </c>
       <c r="N104" t="n">
         <v>0</v>
@@ -11673,7 +11467,7 @@
         <v>0</v>
       </c>
       <c r="W104" t="n">
-        <v>9900</v>
+        <v>5240</v>
       </c>
       <c r="X104" t="n">
         <v>7</v>
@@ -11734,16 +11528,14 @@
           <t>OS2502Ci</t>
         </is>
       </c>
-      <c r="K105" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K105" t="n">
+        <v>4</v>
       </c>
       <c r="L105" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M105" t="n">
-        <v>57800</v>
+        <v>5063</v>
       </c>
       <c r="N105" t="n">
         <v>0</v>
@@ -11781,7 +11573,7 @@
         <v>0</v>
       </c>
       <c r="W105" t="n">
-        <v>57800</v>
+        <v>5063</v>
       </c>
       <c r="X105" t="n">
         <v>7</v>
@@ -11842,16 +11634,14 @@
           <t>24SEV</t>
         </is>
       </c>
-      <c r="K106" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="K106" t="n">
+        <v>5</v>
       </c>
       <c r="L106" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M106" t="n">
-        <v>374075</v>
+        <v>5603</v>
       </c>
       <c r="N106" t="n">
         <v>0</v>
@@ -11886,10 +11676,10 @@
         </is>
       </c>
       <c r="V106" t="n">
-        <v>374075</v>
+        <v>1296</v>
       </c>
       <c r="W106" t="n">
-        <v>0</v>
+        <v>4307</v>
       </c>
       <c r="X106" t="n">
         <v>7</v>
@@ -11950,16 +11740,14 @@
           <t>1439C001AA</t>
         </is>
       </c>
-      <c r="K107" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K107" t="n">
+        <v>5</v>
       </c>
       <c r="L107" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M107" t="n">
-        <v>182937</v>
+        <v>5865</v>
       </c>
       <c r="N107" t="n">
         <v>0</v>
@@ -11997,7 +11785,7 @@
         <v>0</v>
       </c>
       <c r="W107" t="n">
-        <v>182937</v>
+        <v>5865</v>
       </c>
       <c r="X107" t="n">
         <v>7</v>
@@ -12058,16 +11846,14 @@
           <t>3338V717</t>
         </is>
       </c>
-      <c r="K108" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K108" t="n">
+        <v>5</v>
       </c>
       <c r="L108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M108" t="n">
-        <v>9146</v>
+        <v>5723</v>
       </c>
       <c r="N108" t="n">
         <v>0</v>
@@ -12105,7 +11891,7 @@
         <v>0</v>
       </c>
       <c r="W108" t="n">
-        <v>9146</v>
+        <v>5723</v>
       </c>
       <c r="X108" t="n">
         <v>7</v>
@@ -12166,16 +11952,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K109" t="inlineStr">
-        <is>
-          <t>200 pcs</t>
-        </is>
+      <c r="K109" t="n">
+        <v>2</v>
       </c>
       <c r="L109" t="n">
-        <v>200</v>
+        <v>2</v>
       </c>
       <c r="M109" t="n">
-        <v>72760</v>
+        <v>5830</v>
       </c>
       <c r="N109" t="n">
         <v>0</v>
@@ -12213,7 +11997,7 @@
         <v>0</v>
       </c>
       <c r="W109" t="n">
-        <v>72760</v>
+        <v>5830</v>
       </c>
       <c r="X109" t="n">
         <v>7</v>
@@ -12274,16 +12058,14 @@
           <t>CSEP002FRAA010</t>
         </is>
       </c>
-      <c r="K110" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="K110" t="n">
+        <v>3</v>
       </c>
       <c r="L110" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M110" t="n">
-        <v>68448</v>
+        <v>5322</v>
       </c>
       <c r="N110" t="n">
         <v>0</v>
@@ -12318,10 +12100,10 @@
         </is>
       </c>
       <c r="V110" t="n">
-        <v>68448</v>
+        <v>1424</v>
       </c>
       <c r="W110" t="n">
-        <v>0</v>
+        <v>3898</v>
       </c>
       <c r="X110" t="n">
         <v>10</v>
@@ -12382,16 +12164,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K111" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K111" t="n">
+        <v>4</v>
       </c>
       <c r="L111" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M111" t="n">
-        <v>35910</v>
+        <v>5297</v>
       </c>
       <c r="N111" t="n">
         <v>0</v>
@@ -12426,10 +12206,10 @@
         </is>
       </c>
       <c r="V111" t="n">
-        <v>35910</v>
+        <v>1032</v>
       </c>
       <c r="W111" t="n">
-        <v>0</v>
+        <v>4265</v>
       </c>
       <c r="X111" t="n">
         <v>10</v>
@@ -12490,16 +12270,14 @@
           <t>Opshora</t>
         </is>
       </c>
-      <c r="K112" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K112" t="n">
+        <v>5</v>
       </c>
       <c r="L112" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M112" t="n">
-        <v>22500</v>
+        <v>5367</v>
       </c>
       <c r="N112" t="n">
         <v>0</v>
@@ -12534,10 +12312,10 @@
         </is>
       </c>
       <c r="V112" t="n">
-        <v>22500</v>
+        <v>1138</v>
       </c>
       <c r="W112" t="n">
-        <v>0</v>
+        <v>4229</v>
       </c>
       <c r="X112" t="n">
         <v>10</v>
@@ -12598,16 +12376,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K113" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K113" t="n">
+        <v>3</v>
       </c>
       <c r="L113" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M113" t="n">
-        <v>98000</v>
+        <v>5038</v>
       </c>
       <c r="N113" t="n">
         <v>0</v>
@@ -12642,10 +12418,10 @@
         </is>
       </c>
       <c r="V113" t="n">
-        <v>98000</v>
+        <v>1155</v>
       </c>
       <c r="W113" t="n">
-        <v>0</v>
+        <v>3883</v>
       </c>
       <c r="X113" t="n">
         <v>10</v>
@@ -12706,16 +12482,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K114" t="inlineStr">
-        <is>
-          <t>392 sft</t>
-        </is>
+      <c r="K114" t="n">
+        <v>3</v>
       </c>
       <c r="L114" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M114" t="n">
-        <v>294000</v>
+        <v>5210</v>
       </c>
       <c r="N114" t="n">
         <v>0</v>
@@ -12753,7 +12527,7 @@
         <v>0</v>
       </c>
       <c r="W114" t="n">
-        <v>294000</v>
+        <v>5210</v>
       </c>
       <c r="X114" t="n">
         <v>10</v>
@@ -12814,16 +12588,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K115" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K115" t="n">
+        <v>4</v>
       </c>
       <c r="L115" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M115" t="n">
-        <v>14000</v>
+        <v>5563</v>
       </c>
       <c r="N115" t="n">
         <v>0</v>
@@ -12861,7 +12633,7 @@
         <v>0</v>
       </c>
       <c r="W115" t="n">
-        <v>14000</v>
+        <v>5563</v>
       </c>
       <c r="X115" t="n">
         <v>10</v>
@@ -12922,16 +12694,14 @@
           <t>43”-UA43N5300</t>
         </is>
       </c>
-      <c r="K116" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K116" t="n">
+        <v>4</v>
       </c>
       <c r="L116" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M116" t="n">
-        <v>51939</v>
+        <v>5496</v>
       </c>
       <c r="N116" t="n">
         <v>0</v>
@@ -12969,7 +12739,7 @@
         <v>0</v>
       </c>
       <c r="W116" t="n">
-        <v>51939</v>
+        <v>5496</v>
       </c>
       <c r="X116" t="n">
         <v>7</v>
@@ -13030,16 +12800,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K117" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K117" t="n">
+        <v>4</v>
       </c>
       <c r="L117" t="n">
         <v>2</v>
       </c>
       <c r="M117" t="n">
-        <v>48870</v>
+        <v>5656</v>
       </c>
       <c r="N117" t="n">
         <v>0</v>
@@ -13074,10 +12842,10 @@
         </is>
       </c>
       <c r="V117" t="n">
-        <v>48870</v>
+        <v>1410</v>
       </c>
       <c r="W117" t="n">
-        <v>0</v>
+        <v>4246</v>
       </c>
       <c r="X117" t="n">
         <v>10</v>
@@ -13138,16 +12906,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K118" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K118" t="n">
+        <v>3</v>
       </c>
       <c r="L118" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M118" t="n">
-        <v>22520</v>
+        <v>5745</v>
       </c>
       <c r="N118" t="n">
         <v>0</v>
@@ -13185,7 +12951,7 @@
         <v>0</v>
       </c>
       <c r="W118" t="n">
-        <v>22520</v>
+        <v>5745</v>
       </c>
       <c r="X118" t="n">
         <v>10</v>
@@ -13246,16 +13012,14 @@
           <t>32”-N4000</t>
         </is>
       </c>
-      <c r="K119" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K119" t="n">
+        <v>3</v>
       </c>
       <c r="L119" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M119" t="n">
-        <v>24900</v>
+        <v>5516</v>
       </c>
       <c r="N119" t="n">
         <v>0</v>
@@ -13293,7 +13057,7 @@
         <v>0</v>
       </c>
       <c r="W119" t="n">
-        <v>24900</v>
+        <v>5516</v>
       </c>
       <c r="X119" t="n">
         <v>7</v>
@@ -13354,16 +13118,14 @@
           <t>FOR-IR-2520/2525/2530</t>
         </is>
       </c>
-      <c r="K120" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K120" t="n">
+        <v>3</v>
       </c>
       <c r="L120" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M120" t="n">
-        <v>48485</v>
+        <v>5040</v>
       </c>
       <c r="N120" t="n">
         <v>0</v>
@@ -13401,7 +13163,7 @@
         <v>0</v>
       </c>
       <c r="W120" t="n">
-        <v>48485</v>
+        <v>5040</v>
       </c>
       <c r="X120" t="n">
         <v>7</v>
@@ -13462,16 +13224,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K121" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K121" t="n">
+        <v>3</v>
       </c>
       <c r="L121" t="n">
         <v>2</v>
       </c>
       <c r="M121" t="n">
-        <v>33172</v>
+        <v>5697</v>
       </c>
       <c r="N121" t="n">
         <v>0</v>
@@ -13509,7 +13269,7 @@
         <v>0</v>
       </c>
       <c r="W121" t="n">
-        <v>33172</v>
+        <v>5697</v>
       </c>
       <c r="X121" t="n">
         <v>10</v>
@@ -13570,16 +13330,14 @@
           <t>Optiplex</t>
         </is>
       </c>
-      <c r="K122" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K122" t="n">
+        <v>5</v>
       </c>
       <c r="L122" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M122" t="n">
-        <v>87706.17</v>
+        <v>5143</v>
       </c>
       <c r="N122" t="n">
         <v>0</v>
@@ -13617,7 +13375,7 @@
         <v>0</v>
       </c>
       <c r="W122" t="n">
-        <v>87706.17</v>
+        <v>5143</v>
       </c>
       <c r="X122" t="n">
         <v>5</v>
@@ -13678,16 +13436,14 @@
           <t>12-2in-1 5482</t>
         </is>
       </c>
-      <c r="K123" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K123" t="n">
+        <v>5</v>
       </c>
       <c r="L123" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M123" t="n">
-        <v>106113.64</v>
+        <v>5756</v>
       </c>
       <c r="N123" t="n">
         <v>0</v>
@@ -13725,7 +13481,7 @@
         <v>0</v>
       </c>
       <c r="W123" t="n">
-        <v>106113.64</v>
+        <v>5756</v>
       </c>
       <c r="X123" t="n">
         <v>5</v>
@@ -13786,16 +13542,14 @@
           <t>Jet Pro</t>
         </is>
       </c>
-      <c r="K124" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K124" t="n">
+        <v>4</v>
       </c>
       <c r="L124" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M124" t="n">
-        <v>44394.48</v>
+        <v>5372</v>
       </c>
       <c r="N124" t="n">
         <v>0</v>
@@ -13833,7 +13587,7 @@
         <v>0</v>
       </c>
       <c r="W124" t="n">
-        <v>44394.48</v>
+        <v>5372</v>
       </c>
       <c r="X124" t="n">
         <v>5</v>
@@ -13894,16 +13648,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K125" t="inlineStr">
-        <is>
-          <t>1+1+1+5</t>
-        </is>
+      <c r="K125" t="n">
+        <v>5</v>
       </c>
       <c r="L125" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M125" t="n">
-        <v>7254.71</v>
+        <v>5299</v>
       </c>
       <c r="N125" t="n">
         <v>0</v>
@@ -13941,7 +13693,7 @@
         <v>0</v>
       </c>
       <c r="W125" t="n">
-        <v>7254.71</v>
+        <v>5299</v>
       </c>
       <c r="X125" t="n">
         <v>5</v>
@@ -14002,16 +13754,14 @@
           <t>Lower Height</t>
         </is>
       </c>
-      <c r="K126" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K126" t="n">
+        <v>4</v>
       </c>
       <c r="L126" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M126" t="n">
-        <v>29000</v>
+        <v>5070</v>
       </c>
       <c r="N126" t="n">
         <v>0</v>
@@ -14049,7 +13799,7 @@
         <v>0</v>
       </c>
       <c r="W126" t="n">
-        <v>29000</v>
+        <v>5070</v>
       </c>
       <c r="X126" t="n">
         <v>10</v>
@@ -14110,16 +13860,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K127" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K127" t="n">
+        <v>5</v>
       </c>
       <c r="L127" t="n">
         <v>2</v>
       </c>
       <c r="M127" t="n">
-        <v>117000</v>
+        <v>5593</v>
       </c>
       <c r="N127" t="n">
         <v>0</v>
@@ -14157,7 +13905,7 @@
         <v>0</v>
       </c>
       <c r="W127" t="n">
-        <v>117000</v>
+        <v>5593</v>
       </c>
       <c r="X127" t="n">
         <v>10</v>
@@ -14218,16 +13966,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K128" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K128" t="n">
+        <v>2</v>
       </c>
       <c r="L128" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M128" t="n">
-        <v>17500</v>
+        <v>5058</v>
       </c>
       <c r="N128" t="n">
         <v>0</v>
@@ -14265,7 +14011,7 @@
         <v>0</v>
       </c>
       <c r="W128" t="n">
-        <v>17500</v>
+        <v>5058</v>
       </c>
       <c r="X128" t="n">
         <v>10</v>
@@ -14326,16 +14072,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K129" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K129" t="n">
+        <v>4</v>
       </c>
       <c r="L129" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M129" t="n">
-        <v>20442</v>
+        <v>5689</v>
       </c>
       <c r="N129" t="n">
         <v>0</v>
@@ -14373,7 +14117,7 @@
         <v>0</v>
       </c>
       <c r="W129" t="n">
-        <v>20442</v>
+        <v>5689</v>
       </c>
       <c r="X129" t="n">
         <v>5</v>
@@ -14434,16 +14178,14 @@
           <t>Scanjet pro</t>
         </is>
       </c>
-      <c r="K130" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K130" t="n">
+        <v>5</v>
       </c>
       <c r="L130" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M130" t="n">
-        <v>56354</v>
+        <v>5615</v>
       </c>
       <c r="N130" t="n">
         <v>0</v>
@@ -14481,7 +14223,7 @@
         <v>0</v>
       </c>
       <c r="W130" t="n">
-        <v>56354</v>
+        <v>5615</v>
       </c>
       <c r="X130" t="n">
         <v>5</v>
@@ -14542,16 +14284,14 @@
           <t>Digital</t>
         </is>
       </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K131" t="n">
+        <v>2</v>
       </c>
       <c r="L131" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M131" t="n">
-        <v>41989</v>
+        <v>5377</v>
       </c>
       <c r="N131" t="n">
         <v>0</v>
@@ -14589,7 +14329,7 @@
         <v>0</v>
       </c>
       <c r="W131" t="n">
-        <v>41989</v>
+        <v>5377</v>
       </c>
       <c r="X131" t="n">
         <v>5</v>
@@ -14650,16 +14390,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>1+1</t>
-        </is>
+      <c r="K132" t="n">
+        <v>4</v>
       </c>
       <c r="L132" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M132" t="n">
-        <v>1989</v>
+        <v>5355</v>
       </c>
       <c r="N132" t="n">
         <v>0</v>
@@ -14697,7 +14435,7 @@
         <v>0</v>
       </c>
       <c r="W132" t="n">
-        <v>1989</v>
+        <v>5355</v>
       </c>
       <c r="X132" t="n">
         <v>5</v>
@@ -14758,16 +14496,14 @@
           <t>KX-TS-880</t>
         </is>
       </c>
-      <c r="K133" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="K133" t="n">
+        <v>4</v>
       </c>
       <c r="L133" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M133" t="n">
-        <v>9075</v>
+        <v>5726</v>
       </c>
       <c r="N133" t="n">
         <v>0</v>
@@ -14805,7 +14541,7 @@
         <v>0</v>
       </c>
       <c r="W133" t="n">
-        <v>9075</v>
+        <v>5726</v>
       </c>
       <c r="X133" t="n">
         <v>7</v>
@@ -14866,16 +14602,14 @@
           <t>G6 MT</t>
         </is>
       </c>
-      <c r="K134" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K134" t="n">
+        <v>3</v>
       </c>
       <c r="L134" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M134" t="n">
-        <v>81400</v>
+        <v>5962</v>
       </c>
       <c r="N134" t="n">
         <v>0</v>
@@ -14913,7 +14647,7 @@
         <v>0</v>
       </c>
       <c r="W134" t="n">
-        <v>81400</v>
+        <v>5962</v>
       </c>
       <c r="X134" t="n">
         <v>5</v>
@@ -14974,16 +14708,14 @@
           <t>Laser Jet Pro</t>
         </is>
       </c>
-      <c r="K135" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K135" t="n">
+        <v>2</v>
       </c>
       <c r="L135" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M135" t="n">
-        <v>23980</v>
+        <v>5522</v>
       </c>
       <c r="N135" t="n">
         <v>0</v>
@@ -15021,7 +14753,7 @@
         <v>0</v>
       </c>
       <c r="W135" t="n">
-        <v>23980</v>
+        <v>5522</v>
       </c>
       <c r="X135" t="n">
         <v>5</v>
@@ -15082,16 +14814,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K136" t="inlineStr">
-        <is>
-          <t>1+1+1+1+1+1+1</t>
-        </is>
+      <c r="K136" t="n">
+        <v>2</v>
       </c>
       <c r="L136" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="M136" t="n">
-        <v>9900</v>
+        <v>5373</v>
       </c>
       <c r="N136" t="n">
         <v>0</v>
@@ -15129,7 +14859,7 @@
         <v>0</v>
       </c>
       <c r="W136" t="n">
-        <v>9900</v>
+        <v>5373</v>
       </c>
       <c r="X136" t="n">
         <v>5</v>
@@ -15190,16 +14920,14 @@
           <t>Core i7</t>
         </is>
       </c>
-      <c r="K137" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K137" t="n">
+        <v>3</v>
       </c>
       <c r="L137" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M137" t="n">
-        <v>133335</v>
+        <v>5950</v>
       </c>
       <c r="N137" t="n">
         <v>0</v>
@@ -15237,7 +14965,7 @@
         <v>0</v>
       </c>
       <c r="W137" t="n">
-        <v>133335</v>
+        <v>5950</v>
       </c>
       <c r="X137" t="n">
         <v>5</v>
@@ -15298,16 +15026,14 @@
           <t>Wooden</t>
         </is>
       </c>
-      <c r="K138" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K138" t="n">
+        <v>3</v>
       </c>
       <c r="L138" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="M138" t="n">
-        <v>17814</v>
+        <v>5421</v>
       </c>
       <c r="N138" t="n">
         <v>0</v>
@@ -15345,7 +15071,7 @@
         <v>0</v>
       </c>
       <c r="W138" t="n">
-        <v>17814</v>
+        <v>5421</v>
       </c>
       <c r="X138" t="n">
         <v>10</v>
@@ -15406,16 +15132,14 @@
           <t>Vistro</t>
         </is>
       </c>
-      <c r="K139" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K139" t="n">
+        <v>5</v>
       </c>
       <c r="L139" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M139" t="n">
-        <v>59116</v>
+        <v>5342</v>
       </c>
       <c r="N139" t="n">
         <v>0</v>
@@ -15453,7 +15177,7 @@
         <v>0</v>
       </c>
       <c r="W139" t="n">
-        <v>59116</v>
+        <v>5342</v>
       </c>
       <c r="X139" t="n">
         <v>5</v>
@@ -15514,16 +15238,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K140" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K140" t="n">
+        <v>5</v>
       </c>
       <c r="L140" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M140" t="n">
-        <v>4500</v>
+        <v>5608</v>
       </c>
       <c r="N140" t="n">
         <v>0</v>
@@ -15561,7 +15283,7 @@
         <v>0</v>
       </c>
       <c r="W140" t="n">
-        <v>4500</v>
+        <v>5608</v>
       </c>
       <c r="X140" t="n">
         <v>10</v>
@@ -15622,16 +15344,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K141" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="K141" t="n">
+        <v>3</v>
       </c>
       <c r="L141" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M141" t="n">
-        <v>279005</v>
+        <v>5262</v>
       </c>
       <c r="N141" t="n">
         <v>0</v>
@@ -15669,7 +15389,7 @@
         <v>0</v>
       </c>
       <c r="W141" t="n">
-        <v>279005</v>
+        <v>5262</v>
       </c>
       <c r="X141" t="n">
         <v>5</v>
@@ -15730,16 +15450,14 @@
           <t>Core i7</t>
         </is>
       </c>
-      <c r="K142" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K142" t="n">
+        <v>5</v>
       </c>
       <c r="L142" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M142" t="n">
-        <v>130387</v>
+        <v>5012</v>
       </c>
       <c r="N142" t="n">
         <v>0</v>
@@ -15777,7 +15495,7 @@
         <v>0</v>
       </c>
       <c r="W142" t="n">
-        <v>130387</v>
+        <v>5012</v>
       </c>
       <c r="X142" t="n">
         <v>5</v>
@@ -15838,16 +15556,14 @@
           <t>RS</t>
         </is>
       </c>
-      <c r="K143" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K143" t="n">
+        <v>4</v>
       </c>
       <c r="L143" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M143" t="n">
-        <v>3296500</v>
+        <v>5786</v>
       </c>
       <c r="N143" t="n">
         <v>0</v>
@@ -15885,7 +15601,7 @@
         <v>0</v>
       </c>
       <c r="W143" t="n">
-        <v>3296500</v>
+        <v>5786</v>
       </c>
       <c r="X143" t="n">
         <v>10</v>
@@ -15946,16 +15662,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K144" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K144" t="n">
+        <v>2</v>
       </c>
       <c r="L144" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M144" t="n">
-        <v>30331</v>
+        <v>5319</v>
       </c>
       <c r="N144" t="n">
         <v>0</v>
@@ -15993,7 +15707,7 @@
         <v>0</v>
       </c>
       <c r="W144" t="n">
-        <v>30331</v>
+        <v>5319</v>
       </c>
       <c r="X144" t="n">
         <v>10</v>
@@ -16054,16 +15768,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K145" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="K145" t="n">
+        <v>4</v>
       </c>
       <c r="L145" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M145" t="n">
-        <v>161000</v>
+        <v>5893</v>
       </c>
       <c r="N145" t="n">
         <v>0</v>
@@ -16101,7 +15813,7 @@
         <v>0</v>
       </c>
       <c r="W145" t="n">
-        <v>161000</v>
+        <v>5893</v>
       </c>
       <c r="X145" t="n">
         <v>7</v>
@@ -16162,16 +15874,14 @@
           <t xml:space="preserve">Laser Jet </t>
         </is>
       </c>
-      <c r="K146" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="K146" t="n">
+        <v>2</v>
       </c>
       <c r="L146" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M146" t="n">
-        <v>82123.02</v>
+        <v>5983</v>
       </c>
       <c r="N146" t="n">
         <v>0</v>
@@ -16209,7 +15919,7 @@
         <v>0</v>
       </c>
       <c r="W146" t="n">
-        <v>82123.02</v>
+        <v>5983</v>
       </c>
       <c r="X146" t="n">
         <v>5</v>
@@ -16270,16 +15980,14 @@
           <t>ScanJet</t>
         </is>
       </c>
-      <c r="K147" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K147" t="n">
+        <v>2</v>
       </c>
       <c r="L147" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M147" t="n">
-        <v>32402.28</v>
+        <v>5483</v>
       </c>
       <c r="N147" t="n">
         <v>0</v>
@@ -16317,7 +16025,7 @@
         <v>0</v>
       </c>
       <c r="W147" t="n">
-        <v>32402.28</v>
+        <v>5483</v>
       </c>
       <c r="X147" t="n">
         <v>5</v>
@@ -16378,16 +16086,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K148" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
+      <c r="K148" t="n">
+        <v>5</v>
       </c>
       <c r="L148" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M148" t="n">
-        <v>21450</v>
+        <v>5296</v>
       </c>
       <c r="N148" t="n">
         <v>0</v>
@@ -16425,7 +16131,7 @@
         <v>0</v>
       </c>
       <c r="W148" t="n">
-        <v>21450</v>
+        <v>5296</v>
       </c>
       <c r="X148" t="n">
         <v>10</v>
@@ -16486,16 +16192,14 @@
           <t>WPF18B-PBC</t>
         </is>
       </c>
-      <c r="K149" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="K149" t="n">
+        <v>4</v>
       </c>
       <c r="L149" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M149" t="n">
-        <v>19485</v>
+        <v>5237</v>
       </c>
       <c r="N149" t="n">
         <v>0</v>
@@ -16533,7 +16237,7 @@
         <v>0</v>
       </c>
       <c r="W149" t="n">
-        <v>19485</v>
+        <v>5237</v>
       </c>
       <c r="X149" t="n">
         <v>10</v>
@@ -16594,16 +16298,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K150" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K150" t="n">
+        <v>2</v>
       </c>
       <c r="L150" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M150" t="n">
-        <v>4500</v>
+        <v>5166</v>
       </c>
       <c r="N150" t="n">
         <v>0</v>
@@ -16641,7 +16343,7 @@
         <v>0</v>
       </c>
       <c r="W150" t="n">
-        <v>4500</v>
+        <v>5166</v>
       </c>
       <c r="X150" t="n">
         <v>7</v>
@@ -16702,16 +16404,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K151" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K151" t="n">
+        <v>4</v>
       </c>
       <c r="L151" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M151" t="n">
-        <v>10000</v>
+        <v>5300</v>
       </c>
       <c r="N151" t="n">
         <v>0</v>
@@ -16749,7 +16449,7 @@
         <v>0</v>
       </c>
       <c r="W151" t="n">
-        <v>10000</v>
+        <v>5300</v>
       </c>
       <c r="X151" t="n">
         <v>20</v>
@@ -16810,16 +16510,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K152" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K152" t="n">
+        <v>2</v>
       </c>
       <c r="L152" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M152" t="n">
-        <v>10000</v>
+        <v>5511</v>
       </c>
       <c r="N152" t="n">
         <v>0</v>
@@ -16857,7 +16555,7 @@
         <v>0</v>
       </c>
       <c r="W152" t="n">
-        <v>10000</v>
+        <v>5511</v>
       </c>
       <c r="X152" t="n">
         <v>20</v>
@@ -16918,16 +16616,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K153" t="inlineStr">
-        <is>
-          <t>932.47 sft</t>
-        </is>
+      <c r="K153" t="n">
+        <v>5</v>
       </c>
       <c r="L153" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M153" t="n">
-        <v>79259.95</v>
+        <v>5040</v>
       </c>
       <c r="N153" t="n">
         <v>0</v>
@@ -16965,7 +16661,7 @@
         <v>0</v>
       </c>
       <c r="W153" t="n">
-        <v>79259.95</v>
+        <v>5040</v>
       </c>
       <c r="X153" t="n">
         <v>20</v>
@@ -17026,16 +16722,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K154" t="inlineStr">
-        <is>
-          <t>1055.5 sft</t>
-        </is>
+      <c r="K154" t="n">
+        <v>3</v>
       </c>
       <c r="L154" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M154" t="n">
-        <v>26387.5</v>
+        <v>5903</v>
       </c>
       <c r="N154" t="n">
         <v>0</v>
@@ -17073,7 +16767,7 @@
         <v>0</v>
       </c>
       <c r="W154" t="n">
-        <v>26387.5</v>
+        <v>5903</v>
       </c>
       <c r="X154" t="n">
         <v>20</v>
@@ -17134,16 +16828,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K155" t="inlineStr">
-        <is>
-          <t>14.47 cft</t>
-        </is>
+      <c r="K155" t="n">
+        <v>3</v>
       </c>
       <c r="L155" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M155" t="n">
-        <v>3979.25</v>
+        <v>5005</v>
       </c>
       <c r="N155" t="n">
         <v>0</v>
@@ -17181,7 +16873,7 @@
         <v>0</v>
       </c>
       <c r="W155" t="n">
-        <v>3979.25</v>
+        <v>5005</v>
       </c>
       <c r="X155" t="n">
         <v>20</v>
@@ -17242,16 +16934,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K156" t="inlineStr">
-        <is>
-          <t>1000 sft</t>
-        </is>
+      <c r="K156" t="n">
+        <v>5</v>
       </c>
       <c r="L156" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M156" t="n">
-        <v>250000</v>
+        <v>5444</v>
       </c>
       <c r="N156" t="n">
         <v>0</v>
@@ -17289,7 +16979,7 @@
         <v>0</v>
       </c>
       <c r="W156" t="n">
-        <v>250000</v>
+        <v>5444</v>
       </c>
       <c r="X156" t="n">
         <v>20</v>
@@ -17350,16 +17040,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K157" t="inlineStr">
-        <is>
-          <t>175 sft</t>
-        </is>
+      <c r="K157" t="n">
+        <v>5</v>
       </c>
       <c r="L157" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M157" t="n">
-        <v>38500</v>
+        <v>5600</v>
       </c>
       <c r="N157" t="n">
         <v>0</v>
@@ -17397,7 +17085,7 @@
         <v>0</v>
       </c>
       <c r="W157" t="n">
-        <v>38500</v>
+        <v>5600</v>
       </c>
       <c r="X157" t="n">
         <v>20</v>
@@ -17458,16 +17146,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K158" t="inlineStr">
-        <is>
-          <t>2.94 cft</t>
-        </is>
+      <c r="K158" t="n">
+        <v>2</v>
       </c>
       <c r="L158" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M158" t="n">
-        <v>1396.5</v>
+        <v>5989</v>
       </c>
       <c r="N158" t="n">
         <v>0</v>
@@ -17505,7 +17191,7 @@
         <v>0</v>
       </c>
       <c r="W158" t="n">
-        <v>1396.5</v>
+        <v>5989</v>
       </c>
       <c r="X158" t="n">
         <v>20</v>
@@ -17566,16 +17252,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K159" t="inlineStr">
-        <is>
-          <t>565 sft</t>
-        </is>
+      <c r="K159" t="n">
+        <v>4</v>
       </c>
       <c r="L159" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M159" t="n">
-        <v>124300</v>
+        <v>5251</v>
       </c>
       <c r="N159" t="n">
         <v>0</v>
@@ -17613,7 +17297,7 @@
         <v>0</v>
       </c>
       <c r="W159" t="n">
-        <v>124300</v>
+        <v>5251</v>
       </c>
       <c r="X159" t="n">
         <v>20</v>
@@ -17674,16 +17358,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K160" t="inlineStr">
-        <is>
-          <t>36.50 sft</t>
-        </is>
+      <c r="K160" t="n">
+        <v>5</v>
       </c>
       <c r="L160" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M160" t="n">
-        <v>5475</v>
+        <v>5893</v>
       </c>
       <c r="N160" t="n">
         <v>0</v>
@@ -17721,7 +17403,7 @@
         <v>0</v>
       </c>
       <c r="W160" t="n">
-        <v>5475</v>
+        <v>5893</v>
       </c>
       <c r="X160" t="n">
         <v>20</v>
@@ -17782,16 +17464,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K161" t="inlineStr">
-        <is>
-          <t>6480 m</t>
-        </is>
+      <c r="K161" t="n">
+        <v>2</v>
       </c>
       <c r="L161" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M161" t="n">
-        <v>328860</v>
+        <v>5637</v>
       </c>
       <c r="N161" t="n">
         <v>0</v>
@@ -17829,7 +17509,7 @@
         <v>0</v>
       </c>
       <c r="W161" t="n">
-        <v>328860</v>
+        <v>5637</v>
       </c>
       <c r="X161" t="n">
         <v>15</v>
@@ -17890,16 +17570,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K162" t="inlineStr">
-        <is>
-          <t>70 pcs</t>
-        </is>
+      <c r="K162" t="n">
+        <v>4</v>
       </c>
       <c r="L162" t="n">
-        <v>70</v>
+        <v>4</v>
       </c>
       <c r="M162" t="n">
-        <v>38150</v>
+        <v>5274</v>
       </c>
       <c r="N162" t="n">
         <v>0</v>
@@ -17937,7 +17615,7 @@
         <v>0</v>
       </c>
       <c r="W162" t="n">
-        <v>38150</v>
+        <v>5274</v>
       </c>
       <c r="X162" t="n">
         <v>15</v>
@@ -17998,16 +17676,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K163" t="inlineStr">
-        <is>
-          <t>140 pcs</t>
-        </is>
+      <c r="K163" t="n">
+        <v>4</v>
       </c>
       <c r="L163" t="n">
-        <v>140</v>
+        <v>3</v>
       </c>
       <c r="M163" t="n">
-        <v>35000</v>
+        <v>5187</v>
       </c>
       <c r="N163" t="n">
         <v>0</v>
@@ -18045,7 +17721,7 @@
         <v>0</v>
       </c>
       <c r="W163" t="n">
-        <v>35000</v>
+        <v>5187</v>
       </c>
       <c r="X163" t="n">
         <v>15</v>
@@ -18106,16 +17782,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K164" t="inlineStr">
-        <is>
-          <t>70pcs</t>
-        </is>
+      <c r="K164" t="n">
+        <v>4</v>
       </c>
       <c r="L164" t="n">
-        <v>70</v>
+        <v>2</v>
       </c>
       <c r="M164" t="n">
-        <v>38150</v>
+        <v>5502</v>
       </c>
       <c r="N164" t="n">
         <v>0</v>
@@ -18153,7 +17827,7 @@
         <v>0</v>
       </c>
       <c r="W164" t="n">
-        <v>38150</v>
+        <v>5502</v>
       </c>
       <c r="X164" t="n">
         <v>15</v>
@@ -18214,16 +17888,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K165" t="inlineStr">
-        <is>
-          <t>70 pcs</t>
-        </is>
+      <c r="K165" t="n">
+        <v>2</v>
       </c>
       <c r="L165" t="n">
-        <v>70</v>
+        <v>3</v>
       </c>
       <c r="M165" t="n">
-        <v>1190</v>
+        <v>5327</v>
       </c>
       <c r="N165" t="n">
         <v>0</v>
@@ -18261,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="W165" t="n">
-        <v>1190</v>
+        <v>5327</v>
       </c>
       <c r="X165" t="n">
         <v>15</v>
@@ -18322,16 +17994,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K166" t="inlineStr">
-        <is>
-          <t>1 job</t>
-        </is>
+      <c r="K166" t="n">
+        <v>2</v>
       </c>
       <c r="L166" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M166" t="n">
-        <v>7500</v>
+        <v>5154</v>
       </c>
       <c r="N166" t="n">
         <v>0</v>
@@ -18369,7 +18039,7 @@
         <v>0</v>
       </c>
       <c r="W166" t="n">
-        <v>7500</v>
+        <v>5154</v>
       </c>
       <c r="X166" t="n">
         <v>15</v>
@@ -18430,16 +18100,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K167" t="inlineStr">
-        <is>
-          <t>10335 rft</t>
-        </is>
+      <c r="K167" t="n">
+        <v>4</v>
       </c>
       <c r="L167" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M167" t="n">
-        <v>31005</v>
+        <v>5225</v>
       </c>
       <c r="N167" t="n">
         <v>0</v>
@@ -18477,7 +18145,7 @@
         <v>0</v>
       </c>
       <c r="W167" t="n">
-        <v>31005</v>
+        <v>5225</v>
       </c>
       <c r="X167" t="n">
         <v>15</v>
@@ -18539,16 +18207,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K168" t="inlineStr">
-        <is>
-          <t>1 job</t>
-        </is>
+      <c r="K168" t="n">
+        <v>2</v>
       </c>
       <c r="L168" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M168" t="n">
-        <v>7000</v>
+        <v>5888</v>
       </c>
       <c r="N168" t="n">
         <v>0</v>
@@ -18586,7 +18252,7 @@
         <v>0</v>
       </c>
       <c r="W168" t="n">
-        <v>7000</v>
+        <v>5888</v>
       </c>
       <c r="X168" t="n">
         <v>15</v>
@@ -18647,16 +18313,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K169" t="inlineStr">
-        <is>
-          <t>1 nos</t>
-        </is>
+      <c r="K169" t="n">
+        <v>2</v>
       </c>
       <c r="L169" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M169" t="n">
-        <v>55000</v>
+        <v>5673</v>
       </c>
       <c r="N169" t="n">
         <v>0</v>
@@ -18694,7 +18358,7 @@
         <v>0</v>
       </c>
       <c r="W169" t="n">
-        <v>55000</v>
+        <v>5673</v>
       </c>
       <c r="X169" t="n">
         <v>15</v>
@@ -18755,16 +18419,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K170" t="inlineStr">
-        <is>
-          <t>4 nos</t>
-        </is>
+      <c r="K170" t="n">
+        <v>4</v>
       </c>
       <c r="L170" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M170" t="n">
-        <v>134000</v>
+        <v>5449</v>
       </c>
       <c r="N170" t="n">
         <v>0</v>
@@ -18802,7 +18464,7 @@
         <v>0</v>
       </c>
       <c r="W170" t="n">
-        <v>134000</v>
+        <v>5449</v>
       </c>
       <c r="X170" t="n">
         <v>15</v>
@@ -18863,16 +18525,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K171" t="inlineStr">
-        <is>
-          <t>5 nos</t>
-        </is>
+      <c r="K171" t="n">
+        <v>4</v>
       </c>
       <c r="L171" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M171" t="n">
-        <v>42500</v>
+        <v>5196</v>
       </c>
       <c r="N171" t="n">
         <v>0</v>
@@ -18910,7 +18570,7 @@
         <v>0</v>
       </c>
       <c r="W171" t="n">
-        <v>42500</v>
+        <v>5196</v>
       </c>
       <c r="X171" t="n">
         <v>15</v>
@@ -18971,16 +18631,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K172" t="inlineStr">
-        <is>
-          <t>4 pcs</t>
-        </is>
+      <c r="K172" t="n">
+        <v>2</v>
       </c>
       <c r="L172" t="n">
         <v>4</v>
       </c>
       <c r="M172" t="n">
-        <v>147000</v>
+        <v>5497</v>
       </c>
       <c r="N172" t="n">
         <v>0</v>
@@ -19018,7 +18676,7 @@
         <v>0</v>
       </c>
       <c r="W172" t="n">
-        <v>147000</v>
+        <v>5497</v>
       </c>
       <c r="X172" t="n">
         <v>20</v>
@@ -19079,16 +18737,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K173" t="inlineStr">
-        <is>
-          <t>6 pcs</t>
-        </is>
+      <c r="K173" t="n">
+        <v>4</v>
       </c>
       <c r="L173" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M173" t="n">
-        <v>210600</v>
+        <v>5289</v>
       </c>
       <c r="N173" t="n">
         <v>0</v>
@@ -19126,7 +18782,7 @@
         <v>0</v>
       </c>
       <c r="W173" t="n">
-        <v>210600</v>
+        <v>5289</v>
       </c>
       <c r="X173" t="n">
         <v>20</v>
@@ -19187,16 +18843,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K174" t="inlineStr">
-        <is>
-          <t>4 pcs</t>
-        </is>
+      <c r="K174" t="n">
+        <v>5</v>
       </c>
       <c r="L174" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M174" t="n">
-        <v>7180</v>
+        <v>5331</v>
       </c>
       <c r="N174" t="n">
         <v>0</v>
@@ -19234,7 +18888,7 @@
         <v>0</v>
       </c>
       <c r="W174" t="n">
-        <v>7180</v>
+        <v>5331</v>
       </c>
       <c r="X174" t="n">
         <v>20</v>
@@ -19295,16 +18949,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K175" t="inlineStr">
-        <is>
-          <t>1 pcs</t>
-        </is>
+      <c r="K175" t="n">
+        <v>3</v>
       </c>
       <c r="L175" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M175" t="n">
-        <v>5850</v>
+        <v>5103</v>
       </c>
       <c r="N175" t="n">
         <v>0</v>
@@ -19342,7 +18994,7 @@
         <v>0</v>
       </c>
       <c r="W175" t="n">
-        <v>5850</v>
+        <v>5103</v>
       </c>
       <c r="X175" t="n">
         <v>20</v>
@@ -19403,16 +19055,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K176" t="inlineStr">
-        <is>
-          <t>4 pcs</t>
-        </is>
+      <c r="K176" t="n">
+        <v>4</v>
       </c>
       <c r="L176" t="n">
         <v>4</v>
       </c>
       <c r="M176" t="n">
-        <v>9000</v>
+        <v>5420</v>
       </c>
       <c r="N176" t="n">
         <v>0</v>
@@ -19450,7 +19100,7 @@
         <v>0</v>
       </c>
       <c r="W176" t="n">
-        <v>9000</v>
+        <v>5420</v>
       </c>
       <c r="X176" t="n">
         <v>20</v>
@@ -19511,16 +19161,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K177" t="inlineStr">
-        <is>
-          <t>4 pcs</t>
-        </is>
+      <c r="K177" t="n">
+        <v>4</v>
       </c>
       <c r="L177" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M177" t="n">
-        <v>3800</v>
+        <v>5497</v>
       </c>
       <c r="N177" t="n">
         <v>0</v>
@@ -19558,7 +19206,7 @@
         <v>0</v>
       </c>
       <c r="W177" t="n">
-        <v>3800</v>
+        <v>5497</v>
       </c>
       <c r="X177" t="n">
         <v>20</v>
@@ -19619,16 +19267,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K178" t="inlineStr">
-        <is>
-          <t>16 pcs</t>
-        </is>
+      <c r="K178" t="n">
+        <v>2</v>
       </c>
       <c r="L178" t="n">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="M178" t="n">
-        <v>4400</v>
+        <v>5251</v>
       </c>
       <c r="N178" t="n">
         <v>0</v>
@@ -19666,7 +19312,7 @@
         <v>0</v>
       </c>
       <c r="W178" t="n">
-        <v>4400</v>
+        <v>5251</v>
       </c>
       <c r="X178" t="n">
         <v>20</v>
@@ -19727,16 +19373,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K179" t="inlineStr">
-        <is>
-          <t>4 pcs</t>
-        </is>
+      <c r="K179" t="n">
+        <v>3</v>
       </c>
       <c r="L179" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M179" t="n">
-        <v>18000</v>
+        <v>5416</v>
       </c>
       <c r="N179" t="n">
         <v>0</v>
@@ -19774,7 +19418,7 @@
         <v>0</v>
       </c>
       <c r="W179" t="n">
-        <v>18000</v>
+        <v>5416</v>
       </c>
       <c r="X179" t="n">
         <v>20</v>
@@ -19835,16 +19479,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K180" t="inlineStr">
-        <is>
-          <t>71 sft</t>
-        </is>
+      <c r="K180" t="n">
+        <v>4</v>
       </c>
       <c r="L180" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M180" t="n">
-        <v>19170</v>
+        <v>5935</v>
       </c>
       <c r="N180" t="n">
         <v>0</v>
@@ -19882,7 +19524,7 @@
         <v>0</v>
       </c>
       <c r="W180" t="n">
-        <v>19170</v>
+        <v>5935</v>
       </c>
       <c r="X180" t="n">
         <v>20</v>
@@ -19943,16 +19585,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K181" t="inlineStr">
-        <is>
-          <t>5 pcs</t>
-        </is>
+      <c r="K181" t="n">
+        <v>4</v>
       </c>
       <c r="L181" t="n">
         <v>5</v>
       </c>
       <c r="M181" t="n">
-        <v>1625</v>
+        <v>5019</v>
       </c>
       <c r="N181" t="n">
         <v>0</v>
@@ -19990,7 +19630,7 @@
         <v>0</v>
       </c>
       <c r="W181" t="n">
-        <v>1625</v>
+        <v>5019</v>
       </c>
       <c r="X181" t="n">
         <v>20</v>
@@ -20051,16 +19691,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K182" t="inlineStr">
-        <is>
-          <t>5 pcs</t>
-        </is>
+      <c r="K182" t="n">
+        <v>2</v>
       </c>
       <c r="L182" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="M182" t="n">
-        <v>3575</v>
+        <v>5338</v>
       </c>
       <c r="N182" t="n">
         <v>0</v>
@@ -20098,7 +19736,7 @@
         <v>0</v>
       </c>
       <c r="W182" t="n">
-        <v>3575</v>
+        <v>5338</v>
       </c>
       <c r="X182" t="n">
         <v>20</v>
@@ -20160,16 +19798,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K183" t="inlineStr">
-        <is>
-          <t>2 pcs</t>
-        </is>
+      <c r="K183" t="n">
+        <v>3</v>
       </c>
       <c r="L183" t="n">
         <v>2</v>
       </c>
       <c r="M183" t="n">
-        <v>4550</v>
+        <v>5470</v>
       </c>
       <c r="N183" t="n">
         <v>0</v>
@@ -20207,7 +19843,7 @@
         <v>0</v>
       </c>
       <c r="W183" t="n">
-        <v>4550</v>
+        <v>5470</v>
       </c>
       <c r="X183" t="n">
         <v>20</v>
@@ -20268,16 +19904,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K184" t="inlineStr">
-        <is>
-          <t>3 pcs</t>
-        </is>
+      <c r="K184" t="n">
+        <v>2</v>
       </c>
       <c r="L184" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M184" t="n">
-        <v>1755</v>
+        <v>5449</v>
       </c>
       <c r="N184" t="n">
         <v>0</v>
@@ -20315,7 +19949,7 @@
         <v>0</v>
       </c>
       <c r="W184" t="n">
-        <v>1755</v>
+        <v>5449</v>
       </c>
       <c r="X184" t="n">
         <v>20</v>
@@ -20376,16 +20010,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K185" t="inlineStr">
-        <is>
-          <t>4 pcs</t>
-        </is>
+      <c r="K185" t="n">
+        <v>4</v>
       </c>
       <c r="L185" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M185" t="n">
-        <v>7000</v>
+        <v>5723</v>
       </c>
       <c r="N185" t="n">
         <v>0</v>
@@ -20423,7 +20055,7 @@
         <v>0</v>
       </c>
       <c r="W185" t="n">
-        <v>7000</v>
+        <v>5723</v>
       </c>
       <c r="X185" t="n">
         <v>20</v>
@@ -20484,16 +20116,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K186" t="inlineStr">
-        <is>
-          <t>6 pcs</t>
-        </is>
+      <c r="K186" t="n">
+        <v>3</v>
       </c>
       <c r="L186" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M186" t="n">
-        <v>420</v>
+        <v>5926</v>
       </c>
       <c r="N186" t="n">
         <v>0</v>
@@ -20531,7 +20161,7 @@
         <v>0</v>
       </c>
       <c r="W186" t="n">
-        <v>420</v>
+        <v>5926</v>
       </c>
       <c r="X186" t="n">
         <v>20</v>
@@ -20592,16 +20222,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K187" t="inlineStr">
-        <is>
-          <t>4 pcs</t>
-        </is>
+      <c r="K187" t="n">
+        <v>5</v>
       </c>
       <c r="L187" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M187" t="n">
-        <v>3780</v>
+        <v>5500</v>
       </c>
       <c r="N187" t="n">
         <v>0</v>
@@ -20639,7 +20267,7 @@
         <v>0</v>
       </c>
       <c r="W187" t="n">
-        <v>3780</v>
+        <v>5500</v>
       </c>
       <c r="X187" t="n">
         <v>20</v>
@@ -20700,16 +20328,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K188" t="inlineStr">
-        <is>
-          <t>5 pcs</t>
-        </is>
+      <c r="K188" t="n">
+        <v>2</v>
       </c>
       <c r="L188" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="M188" t="n">
-        <v>125000</v>
+        <v>5004</v>
       </c>
       <c r="N188" t="n">
         <v>0</v>
@@ -20747,7 +20373,7 @@
         <v>0</v>
       </c>
       <c r="W188" t="n">
-        <v>125000</v>
+        <v>5004</v>
       </c>
       <c r="X188" t="n">
         <v>20</v>
@@ -20808,16 +20434,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K189" t="inlineStr">
-        <is>
-          <t>3 nos</t>
-        </is>
+      <c r="K189" t="n">
+        <v>5</v>
       </c>
       <c r="L189" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="M189" t="n">
-        <v>24900</v>
+        <v>5962</v>
       </c>
       <c r="N189" t="n">
         <v>0</v>
@@ -20855,7 +20479,7 @@
         <v>0</v>
       </c>
       <c r="W189" t="n">
-        <v>24900</v>
+        <v>5962</v>
       </c>
       <c r="X189" t="n">
         <v>20</v>
@@ -20916,16 +20540,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K190" t="inlineStr">
-        <is>
-          <t>1 nos</t>
-        </is>
+      <c r="K190" t="n">
+        <v>2</v>
       </c>
       <c r="L190" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M190" t="n">
-        <v>6500</v>
+        <v>5164</v>
       </c>
       <c r="N190" t="n">
         <v>0</v>
@@ -20963,7 +20585,7 @@
         <v>0</v>
       </c>
       <c r="W190" t="n">
-        <v>6500</v>
+        <v>5164</v>
       </c>
       <c r="X190" t="n">
         <v>20</v>
@@ -21024,16 +20646,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K191" t="inlineStr">
-        <is>
-          <t>1 nos</t>
-        </is>
+      <c r="K191" t="n">
+        <v>4</v>
       </c>
       <c r="L191" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M191" t="n">
-        <v>3750</v>
+        <v>5725</v>
       </c>
       <c r="N191" t="n">
         <v>0</v>
@@ -21071,7 +20691,7 @@
         <v>0</v>
       </c>
       <c r="W191" t="n">
-        <v>3750</v>
+        <v>5725</v>
       </c>
       <c r="X191" t="n">
         <v>20</v>
@@ -21132,16 +20752,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K192" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="K192" t="n">
+        <v>4</v>
       </c>
       <c r="L192" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="M192" t="n">
-        <v>11100</v>
+        <v>5187</v>
       </c>
       <c r="N192" t="n">
         <v>0</v>
@@ -21179,7 +20797,7 @@
         <v>0</v>
       </c>
       <c r="W192" t="n">
-        <v>11100</v>
+        <v>5187</v>
       </c>
       <c r="X192" t="n">
         <v>15</v>
@@ -21240,16 +20858,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K193" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K193" t="n">
+        <v>2</v>
       </c>
       <c r="L193" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M193" t="n">
-        <v>29900</v>
+        <v>5455</v>
       </c>
       <c r="N193" t="n">
         <v>0</v>
@@ -21287,7 +20903,7 @@
         <v>0</v>
       </c>
       <c r="W193" t="n">
-        <v>29900</v>
+        <v>5455</v>
       </c>
       <c r="X193" t="n">
         <v>15</v>
@@ -21348,16 +20964,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K194" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K194" t="n">
+        <v>5</v>
       </c>
       <c r="L194" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M194" t="n">
-        <v>6250</v>
+        <v>5044</v>
       </c>
       <c r="N194" t="n">
         <v>0</v>
@@ -21395,7 +21009,7 @@
         <v>0</v>
       </c>
       <c r="W194" t="n">
-        <v>6250</v>
+        <v>5044</v>
       </c>
       <c r="X194" t="n">
         <v>15</v>
@@ -21456,16 +21070,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K195" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K195" t="n">
+        <v>2</v>
       </c>
       <c r="L195" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="M195" t="n">
-        <v>12150</v>
+        <v>5983</v>
       </c>
       <c r="N195" t="n">
         <v>0</v>
@@ -21503,7 +21115,7 @@
         <v>0</v>
       </c>
       <c r="W195" t="n">
-        <v>12150</v>
+        <v>5983</v>
       </c>
       <c r="X195" t="n">
         <v>15</v>
@@ -21564,16 +21176,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K196" t="inlineStr">
-        <is>
-          <t>1 job</t>
-        </is>
+      <c r="K196" t="n">
+        <v>4</v>
       </c>
       <c r="L196" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M196" t="n">
-        <v>7500</v>
+        <v>5915</v>
       </c>
       <c r="N196" t="n">
         <v>0</v>
@@ -21611,7 +21221,7 @@
         <v>0</v>
       </c>
       <c r="W196" t="n">
-        <v>7500</v>
+        <v>5915</v>
       </c>
       <c r="X196" t="n">
         <v>15</v>
@@ -21672,16 +21282,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K197" t="inlineStr">
-        <is>
-          <t>1750 rft</t>
-        </is>
+      <c r="K197" t="n">
+        <v>2</v>
       </c>
       <c r="L197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M197" t="n">
-        <v>2625</v>
+        <v>5550</v>
       </c>
       <c r="N197" t="n">
         <v>0</v>
@@ -21719,7 +21327,7 @@
         <v>0</v>
       </c>
       <c r="W197" t="n">
-        <v>2625</v>
+        <v>5550</v>
       </c>
       <c r="X197" t="n">
         <v>15</v>
@@ -21780,16 +21388,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K198" t="inlineStr">
-        <is>
-          <t>2100 rft</t>
-        </is>
+      <c r="K198" t="n">
+        <v>4</v>
       </c>
       <c r="L198" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M198" t="n">
-        <v>18375</v>
+        <v>5247</v>
       </c>
       <c r="N198" t="n">
         <v>0</v>
@@ -21827,7 +21433,7 @@
         <v>0</v>
       </c>
       <c r="W198" t="n">
-        <v>18375</v>
+        <v>5247</v>
       </c>
       <c r="X198" t="n">
         <v>15</v>
@@ -21888,16 +21494,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K199" t="inlineStr">
-        <is>
-          <t>280 rft</t>
-        </is>
+      <c r="K199" t="n">
+        <v>2</v>
       </c>
       <c r="L199" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M199" t="n">
-        <v>3360</v>
+        <v>5114</v>
       </c>
       <c r="N199" t="n">
         <v>0</v>
@@ -21935,7 +21539,7 @@
         <v>0</v>
       </c>
       <c r="W199" t="n">
-        <v>3360</v>
+        <v>5114</v>
       </c>
       <c r="X199" t="n">
         <v>15</v>
@@ -21996,16 +21600,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K200" t="inlineStr">
-        <is>
-          <t>1375 rft</t>
-        </is>
+      <c r="K200" t="n">
+        <v>4</v>
       </c>
       <c r="L200" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M200" t="n">
-        <v>2062.5</v>
+        <v>5992</v>
       </c>
       <c r="N200" t="n">
         <v>0</v>
@@ -22043,7 +21645,7 @@
         <v>0</v>
       </c>
       <c r="W200" t="n">
-        <v>2062.5</v>
+        <v>5992</v>
       </c>
       <c r="X200" t="n">
         <v>15</v>
@@ -22104,16 +21706,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K201" t="inlineStr">
-        <is>
-          <t>1500 rft</t>
-        </is>
+      <c r="K201" t="n">
+        <v>4</v>
       </c>
       <c r="L201" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M201" t="n">
-        <v>13125</v>
+        <v>5810</v>
       </c>
       <c r="N201" t="n">
         <v>0</v>
@@ -22151,7 +21751,7 @@
         <v>0</v>
       </c>
       <c r="W201" t="n">
-        <v>13125</v>
+        <v>5810</v>
       </c>
       <c r="X201" t="n">
         <v>15</v>
@@ -22212,16 +21812,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K202" t="inlineStr">
-        <is>
-          <t>175 rft</t>
-        </is>
+      <c r="K202" t="n">
+        <v>5</v>
       </c>
       <c r="L202" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M202" t="n">
-        <v>2100</v>
+        <v>5948</v>
       </c>
       <c r="N202" t="n">
         <v>0</v>
@@ -22259,7 +21857,7 @@
         <v>0</v>
       </c>
       <c r="W202" t="n">
-        <v>2100</v>
+        <v>5948</v>
       </c>
       <c r="X202" t="n">
         <v>15</v>
@@ -22320,16 +21918,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K203" t="inlineStr">
-        <is>
-          <t>35 coil</t>
-        </is>
+      <c r="K203" t="n">
+        <v>2</v>
       </c>
       <c r="L203" t="n">
-        <v>35</v>
+        <v>3</v>
       </c>
       <c r="M203" t="n">
-        <v>86100</v>
+        <v>5202</v>
       </c>
       <c r="N203" t="n">
         <v>0</v>
@@ -22367,7 +21963,7 @@
         <v>0</v>
       </c>
       <c r="W203" t="n">
-        <v>86100</v>
+        <v>5202</v>
       </c>
       <c r="X203" t="n">
         <v>15</v>
@@ -22428,16 +22024,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K204" t="inlineStr">
-        <is>
-          <t>50 coil</t>
-        </is>
+      <c r="K204" t="n">
+        <v>4</v>
       </c>
       <c r="L204" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="M204" t="n">
-        <v>196500</v>
+        <v>5112</v>
       </c>
       <c r="N204" t="n">
         <v>0</v>
@@ -22475,7 +22069,7 @@
         <v>0</v>
       </c>
       <c r="W204" t="n">
-        <v>196500</v>
+        <v>5112</v>
       </c>
       <c r="X204" t="n">
         <v>15</v>
@@ -22536,16 +22130,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K205" t="inlineStr">
-        <is>
-          <t>13 coil</t>
-        </is>
+      <c r="K205" t="n">
+        <v>5</v>
       </c>
       <c r="L205" t="n">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="M205" t="n">
-        <v>1560</v>
+        <v>5469</v>
       </c>
       <c r="N205" t="n">
         <v>0</v>
@@ -22583,7 +22175,7 @@
         <v>0</v>
       </c>
       <c r="W205" t="n">
-        <v>1560</v>
+        <v>5469</v>
       </c>
       <c r="X205" t="n">
         <v>15</v>
@@ -22644,16 +22236,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K206" t="inlineStr">
-        <is>
-          <t>4 coil</t>
-        </is>
+      <c r="K206" t="n">
+        <v>2</v>
       </c>
       <c r="L206" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="M206" t="n">
-        <v>22340</v>
+        <v>5446</v>
       </c>
       <c r="N206" t="n">
         <v>0</v>
@@ -22691,7 +22281,7 @@
         <v>0</v>
       </c>
       <c r="W206" t="n">
-        <v>22340</v>
+        <v>5446</v>
       </c>
       <c r="X206" t="n">
         <v>15</v>
@@ -22752,16 +22342,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K207" t="inlineStr">
-        <is>
-          <t>22 coil</t>
-        </is>
+      <c r="K207" t="n">
+        <v>5</v>
       </c>
       <c r="L207" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="M207" t="n">
-        <v>52360</v>
+        <v>5192</v>
       </c>
       <c r="N207" t="n">
         <v>0</v>
@@ -22799,7 +22387,7 @@
         <v>0</v>
       </c>
       <c r="W207" t="n">
-        <v>52360</v>
+        <v>5192</v>
       </c>
       <c r="X207" t="n">
         <v>15</v>
@@ -22860,16 +22448,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K208" t="inlineStr">
-        <is>
-          <t>25 each</t>
-        </is>
+      <c r="K208" t="n">
+        <v>5</v>
       </c>
       <c r="L208" t="n">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="M208" t="n">
-        <v>11875</v>
+        <v>5477</v>
       </c>
       <c r="N208" t="n">
         <v>0</v>
@@ -22907,7 +22493,7 @@
         <v>0</v>
       </c>
       <c r="W208" t="n">
-        <v>11875</v>
+        <v>5477</v>
       </c>
       <c r="X208" t="n">
         <v>15</v>
@@ -22968,16 +22554,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K209" t="inlineStr">
-        <is>
-          <t>33 each</t>
-        </is>
+      <c r="K209" t="n">
+        <v>3</v>
       </c>
       <c r="L209" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="M209" t="n">
-        <v>15675</v>
+        <v>5512</v>
       </c>
       <c r="N209" t="n">
         <v>0</v>
@@ -23015,7 +22599,7 @@
         <v>0</v>
       </c>
       <c r="W209" t="n">
-        <v>15675</v>
+        <v>5512</v>
       </c>
       <c r="X209" t="n">
         <v>15</v>
@@ -23076,16 +22660,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K210" t="inlineStr">
-        <is>
-          <t>10 each</t>
-        </is>
+      <c r="K210" t="n">
+        <v>3</v>
       </c>
       <c r="L210" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="M210" t="n">
-        <v>3000</v>
+        <v>5619</v>
       </c>
       <c r="N210" t="n">
         <v>0</v>
@@ -23123,7 +22705,7 @@
         <v>0</v>
       </c>
       <c r="W210" t="n">
-        <v>3000</v>
+        <v>5619</v>
       </c>
       <c r="X210" t="n">
         <v>15</v>
@@ -23184,16 +22766,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K211" t="inlineStr">
-        <is>
-          <t>18 each</t>
-        </is>
+      <c r="K211" t="n">
+        <v>5</v>
       </c>
       <c r="L211" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="M211" t="n">
-        <v>6030</v>
+        <v>5069</v>
       </c>
       <c r="N211" t="n">
         <v>0</v>
@@ -23231,7 +22811,7 @@
         <v>0</v>
       </c>
       <c r="W211" t="n">
-        <v>6030</v>
+        <v>5069</v>
       </c>
       <c r="X211" t="n">
         <v>15</v>
@@ -23292,16 +22872,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K212" t="inlineStr">
-        <is>
-          <t>22 each</t>
-        </is>
+      <c r="K212" t="n">
+        <v>5</v>
       </c>
       <c r="L212" t="n">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="M212" t="n">
-        <v>8250</v>
+        <v>5008</v>
       </c>
       <c r="N212" t="n">
         <v>0</v>
@@ -23339,7 +22917,7 @@
         <v>0</v>
       </c>
       <c r="W212" t="n">
-        <v>8250</v>
+        <v>5008</v>
       </c>
       <c r="X212" t="n">
         <v>15</v>
@@ -23400,16 +22978,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K213" t="inlineStr">
-        <is>
-          <t>6 each</t>
-        </is>
+      <c r="K213" t="n">
+        <v>4</v>
       </c>
       <c r="L213" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M213" t="n">
-        <v>1950</v>
+        <v>5784</v>
       </c>
       <c r="N213" t="n">
         <v>0</v>
@@ -23447,7 +23023,7 @@
         <v>0</v>
       </c>
       <c r="W213" t="n">
-        <v>1950</v>
+        <v>5784</v>
       </c>
       <c r="X213" t="n">
         <v>15</v>
@@ -23508,16 +23084,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K214" t="inlineStr">
-        <is>
-          <t>16 pcs</t>
-        </is>
+      <c r="K214" t="n">
+        <v>3</v>
       </c>
       <c r="L214" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="M214" t="n">
-        <v>23200</v>
+        <v>5985</v>
       </c>
       <c r="N214" t="n">
         <v>0</v>
@@ -23555,7 +23129,7 @@
         <v>0</v>
       </c>
       <c r="W214" t="n">
-        <v>23200</v>
+        <v>5985</v>
       </c>
       <c r="X214" t="n">
         <v>15</v>
@@ -23616,16 +23190,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K215" t="inlineStr">
-        <is>
-          <t>28 pcs</t>
-        </is>
+      <c r="K215" t="n">
+        <v>5</v>
       </c>
       <c r="L215" t="n">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="M215" t="n">
-        <v>3500</v>
+        <v>5498</v>
       </c>
       <c r="N215" t="n">
         <v>0</v>
@@ -23663,7 +23235,7 @@
         <v>0</v>
       </c>
       <c r="W215" t="n">
-        <v>3500</v>
+        <v>5498</v>
       </c>
       <c r="X215" t="n">
         <v>15</v>
@@ -23724,16 +23296,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K216" t="inlineStr">
-        <is>
-          <t>175 pcs</t>
-        </is>
+      <c r="K216" t="n">
+        <v>3</v>
       </c>
       <c r="L216" t="n">
-        <v>175</v>
+        <v>4</v>
       </c>
       <c r="M216" t="n">
-        <v>78750</v>
+        <v>5045</v>
       </c>
       <c r="N216" t="n">
         <v>0</v>
@@ -23771,7 +23341,7 @@
         <v>0</v>
       </c>
       <c r="W216" t="n">
-        <v>78750</v>
+        <v>5045</v>
       </c>
       <c r="X216" t="n">
         <v>15</v>
@@ -23832,16 +23402,14 @@
           <t>SMART HDR</t>
         </is>
       </c>
-      <c r="K217" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K217" t="n">
+        <v>5</v>
       </c>
       <c r="L217" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M217" t="n">
-        <v>175000</v>
+        <v>5988</v>
       </c>
       <c r="N217" t="n">
         <v>0</v>
@@ -23879,7 +23447,7 @@
         <v>0</v>
       </c>
       <c r="W217" t="n">
-        <v>175000</v>
+        <v>5988</v>
       </c>
       <c r="X217" t="n">
         <v>15</v>
@@ -23940,16 +23508,14 @@
           <t>SMART HDR</t>
         </is>
       </c>
-      <c r="K218" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K218" t="n">
+        <v>3</v>
       </c>
       <c r="L218" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M218" t="n">
-        <v>97500</v>
+        <v>5949</v>
       </c>
       <c r="N218" t="n">
         <v>0</v>
@@ -23987,7 +23553,7 @@
         <v>0</v>
       </c>
       <c r="W218" t="n">
-        <v>97500</v>
+        <v>5949</v>
       </c>
       <c r="X218" t="n">
         <v>15</v>
@@ -24048,16 +23614,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K219" t="inlineStr">
-        <is>
-          <t>1 job</t>
-        </is>
+      <c r="K219" t="n">
+        <v>4</v>
       </c>
       <c r="L219" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M219" t="n">
-        <v>30500</v>
+        <v>5548</v>
       </c>
       <c r="N219" t="n">
         <v>0</v>
@@ -24095,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="W219" t="n">
-        <v>30500</v>
+        <v>5548</v>
       </c>
       <c r="X219" t="n">
         <v>15</v>
@@ -24156,16 +23720,14 @@
           <t>Matte white</t>
         </is>
       </c>
-      <c r="K220" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="K220" t="n">
+        <v>2</v>
       </c>
       <c r="L220" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M220" t="n">
-        <v>15000</v>
+        <v>5458</v>
       </c>
       <c r="N220" t="n">
         <v>0</v>
@@ -24203,7 +23765,7 @@
         <v>0</v>
       </c>
       <c r="W220" t="n">
-        <v>15000</v>
+        <v>5458</v>
       </c>
       <c r="X220" t="n">
         <v>15</v>
@@ -24264,16 +23826,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K221" t="inlineStr">
-        <is>
-          <t>95 rft</t>
-        </is>
+      <c r="K221" t="n">
+        <v>2</v>
       </c>
       <c r="L221" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M221" t="n">
-        <v>12825</v>
+        <v>5459</v>
       </c>
       <c r="N221" t="n">
         <v>0</v>
@@ -24311,7 +23871,7 @@
         <v>0</v>
       </c>
       <c r="W221" t="n">
-        <v>12825</v>
+        <v>5459</v>
       </c>
       <c r="X221" t="n">
         <v>15</v>
@@ -24372,16 +23932,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K222" t="inlineStr">
-        <is>
-          <t>135 rft</t>
-        </is>
+      <c r="K222" t="n">
+        <v>5</v>
       </c>
       <c r="L222" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M222" t="n">
-        <v>43875</v>
+        <v>5435</v>
       </c>
       <c r="N222" t="n">
         <v>0</v>
@@ -24419,7 +23977,7 @@
         <v>0</v>
       </c>
       <c r="W222" t="n">
-        <v>43875</v>
+        <v>5435</v>
       </c>
       <c r="X222" t="n">
         <v>15</v>
@@ -24480,16 +24038,14 @@
           <t>1Cx16RM NYY BYA FRLS</t>
         </is>
       </c>
-      <c r="K223" t="inlineStr">
-        <is>
-          <t>340 rft</t>
-        </is>
+      <c r="K223" t="n">
+        <v>5</v>
       </c>
       <c r="L223" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M223" t="n">
-        <v>30600</v>
+        <v>5424</v>
       </c>
       <c r="N223" t="n">
         <v>0</v>
@@ -24527,7 +24083,7 @@
         <v>0</v>
       </c>
       <c r="W223" t="n">
-        <v>30600</v>
+        <v>5424</v>
       </c>
       <c r="X223" t="n">
         <v>15</v>
@@ -24588,16 +24144,14 @@
           <t>1Cx10RM NYY BYA FRLS</t>
         </is>
       </c>
-      <c r="K224" t="inlineStr">
-        <is>
-          <t>85 rft</t>
-        </is>
+      <c r="K224" t="n">
+        <v>5</v>
       </c>
       <c r="L224" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M224" t="n">
-        <v>4143.75</v>
+        <v>5588</v>
       </c>
       <c r="N224" t="n">
         <v>0</v>
@@ -24635,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W224" t="n">
-        <v>4143.75</v>
+        <v>5588</v>
       </c>
       <c r="X224" t="n">
         <v>15</v>
@@ -24696,16 +24250,14 @@
           <t>Multi</t>
         </is>
       </c>
-      <c r="K225" t="inlineStr">
-        <is>
-          <t>155 nos</t>
-        </is>
+      <c r="K225" t="n">
+        <v>3</v>
       </c>
       <c r="L225" t="n">
-        <v>155</v>
+        <v>2</v>
       </c>
       <c r="M225" t="n">
-        <v>81375</v>
+        <v>5061</v>
       </c>
       <c r="N225" t="n">
         <v>0</v>
@@ -24743,7 +24295,7 @@
         <v>0</v>
       </c>
       <c r="W225" t="n">
-        <v>81375</v>
+        <v>5061</v>
       </c>
       <c r="X225" t="n">
         <v>15</v>
@@ -24804,16 +24356,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K226" t="inlineStr">
-        <is>
-          <t>20 nos</t>
-        </is>
+      <c r="K226" t="n">
+        <v>3</v>
       </c>
       <c r="L226" t="n">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="M226" t="n">
-        <v>107000</v>
+        <v>5304</v>
       </c>
       <c r="N226" t="n">
         <v>0</v>
@@ -24851,7 +24401,7 @@
         <v>0</v>
       </c>
       <c r="W226" t="n">
-        <v>107000</v>
+        <v>5304</v>
       </c>
       <c r="X226" t="n">
         <v>15</v>
@@ -24912,16 +24462,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K227" t="inlineStr">
-        <is>
-          <t>13 nos</t>
-        </is>
+      <c r="K227" t="n">
+        <v>2</v>
       </c>
       <c r="L227" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="M227" t="n">
-        <v>16575</v>
+        <v>5124</v>
       </c>
       <c r="N227" t="n">
         <v>0</v>
@@ -24959,7 +24507,7 @@
         <v>0</v>
       </c>
       <c r="W227" t="n">
-        <v>16575</v>
+        <v>5124</v>
       </c>
       <c r="X227" t="n">
         <v>15</v>
@@ -25020,16 +24568,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K228" t="inlineStr">
-        <is>
-          <t>8 nos</t>
-        </is>
+      <c r="K228" t="n">
+        <v>3</v>
       </c>
       <c r="L228" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="M228" t="n">
-        <v>22000</v>
+        <v>5602</v>
       </c>
       <c r="N228" t="n">
         <v>0</v>
@@ -25067,7 +24613,7 @@
         <v>0</v>
       </c>
       <c r="W228" t="n">
-        <v>22000</v>
+        <v>5602</v>
       </c>
       <c r="X228" t="n">
         <v>15</v>
@@ -25128,16 +24674,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K229" t="inlineStr">
-        <is>
-          <t>4 nos</t>
-        </is>
+      <c r="K229" t="n">
+        <v>2</v>
       </c>
       <c r="L229" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M229" t="n">
-        <v>14700</v>
+        <v>5036</v>
       </c>
       <c r="N229" t="n">
         <v>0</v>
@@ -25175,7 +24719,7 @@
         <v>0</v>
       </c>
       <c r="W229" t="n">
-        <v>14700</v>
+        <v>5036</v>
       </c>
       <c r="X229" t="n">
         <v>15</v>
@@ -25236,16 +24780,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K230" t="inlineStr">
-        <is>
-          <t>1 nos</t>
-        </is>
+      <c r="K230" t="n">
+        <v>5</v>
       </c>
       <c r="L230" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M230" t="n">
-        <v>715</v>
+        <v>5051</v>
       </c>
       <c r="N230" t="n">
         <v>0</v>
@@ -25283,7 +24825,7 @@
         <v>0</v>
       </c>
       <c r="W230" t="n">
-        <v>715</v>
+        <v>5051</v>
       </c>
       <c r="X230" t="n">
         <v>15</v>
@@ -25344,16 +24886,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K231" t="inlineStr">
-        <is>
-          <t>41 nos</t>
-        </is>
+      <c r="K231" t="n">
+        <v>4</v>
       </c>
       <c r="L231" t="n">
-        <v>41</v>
+        <v>5</v>
       </c>
       <c r="M231" t="n">
-        <v>3895</v>
+        <v>5827</v>
       </c>
       <c r="N231" t="n">
         <v>0</v>
@@ -25391,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="W231" t="n">
-        <v>3895</v>
+        <v>5827</v>
       </c>
       <c r="X231" t="n">
         <v>15</v>
@@ -25452,16 +24992,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K232" t="inlineStr">
-        <is>
-          <t>18 nos</t>
-        </is>
+      <c r="K232" t="n">
+        <v>2</v>
       </c>
       <c r="L232" t="n">
-        <v>18</v>
+        <v>5</v>
       </c>
       <c r="M232" t="n">
-        <v>57150</v>
+        <v>5136</v>
       </c>
       <c r="N232" t="n">
         <v>0</v>
@@ -25499,7 +25037,7 @@
         <v>0</v>
       </c>
       <c r="W232" t="n">
-        <v>57150</v>
+        <v>5136</v>
       </c>
       <c r="X232" t="n">
         <v>15</v>
@@ -25560,16 +25098,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K233" t="inlineStr">
-        <is>
-          <t>10 nos</t>
-        </is>
+      <c r="K233" t="n">
+        <v>4</v>
       </c>
       <c r="L233" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="M233" t="n">
-        <v>12750</v>
+        <v>5256</v>
       </c>
       <c r="N233" t="n">
         <v>0</v>
@@ -25607,7 +25143,7 @@
         <v>0</v>
       </c>
       <c r="W233" t="n">
-        <v>12750</v>
+        <v>5256</v>
       </c>
       <c r="X233" t="n">
         <v>15</v>
@@ -25668,16 +25204,14 @@
           <t>450mm dia</t>
         </is>
       </c>
-      <c r="K234" t="inlineStr">
-        <is>
-          <t>6 nos</t>
-        </is>
+      <c r="K234" t="n">
+        <v>2</v>
       </c>
       <c r="L234" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M234" t="n">
-        <v>90000</v>
+        <v>5145</v>
       </c>
       <c r="N234" t="n">
         <v>0</v>
@@ -25715,7 +25249,7 @@
         <v>0</v>
       </c>
       <c r="W234" t="n">
-        <v>90000</v>
+        <v>5145</v>
       </c>
       <c r="X234" t="n">
         <v>15</v>
@@ -25776,16 +25310,14 @@
           <t>600mm dia for dinning</t>
         </is>
       </c>
-      <c r="K235" t="inlineStr">
-        <is>
-          <t>3 nos</t>
-        </is>
+      <c r="K235" t="n">
+        <v>3</v>
       </c>
       <c r="L235" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="M235" t="n">
-        <v>34500</v>
+        <v>5590</v>
       </c>
       <c r="N235" t="n">
         <v>0</v>
@@ -25823,7 +25355,7 @@
         <v>0</v>
       </c>
       <c r="W235" t="n">
-        <v>34500</v>
+        <v>5590</v>
       </c>
       <c r="X235" t="n">
         <v>15</v>
@@ -25884,16 +25416,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K236" t="inlineStr">
-        <is>
-          <t>14365 sft</t>
-        </is>
+      <c r="K236" t="n">
+        <v>4</v>
       </c>
       <c r="L236" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M236" t="n">
-        <v>226248.75</v>
+        <v>5777</v>
       </c>
       <c r="N236" t="n">
         <v>0</v>
@@ -25931,7 +25461,7 @@
         <v>0</v>
       </c>
       <c r="W236" t="n">
-        <v>226248.75</v>
+        <v>5777</v>
       </c>
       <c r="X236" t="n">
         <v>10</v>
@@ -25992,16 +25522,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K237" t="inlineStr">
-        <is>
-          <t>945 sft</t>
-        </is>
+      <c r="K237" t="n">
+        <v>4</v>
       </c>
       <c r="L237" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M237" t="n">
-        <v>42525</v>
+        <v>5346</v>
       </c>
       <c r="N237" t="n">
         <v>0</v>
@@ -26039,7 +25567,7 @@
         <v>0</v>
       </c>
       <c r="W237" t="n">
-        <v>42525</v>
+        <v>5346</v>
       </c>
       <c r="X237" t="n">
         <v>10</v>
@@ -26100,16 +25628,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K238" t="inlineStr">
-        <is>
-          <t>225 sft</t>
-        </is>
+      <c r="K238" t="n">
+        <v>2</v>
       </c>
       <c r="L238" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M238" t="n">
-        <v>29250</v>
+        <v>5297</v>
       </c>
       <c r="N238" t="n">
         <v>0</v>
@@ -26147,7 +25673,7 @@
         <v>0</v>
       </c>
       <c r="W238" t="n">
-        <v>29250</v>
+        <v>5297</v>
       </c>
       <c r="X238" t="n">
         <v>10</v>
@@ -26208,16 +25734,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K239" t="inlineStr">
-        <is>
-          <t>926 sft</t>
-        </is>
+      <c r="K239" t="n">
+        <v>2</v>
       </c>
       <c r="L239" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M239" t="n">
-        <v>55560</v>
+        <v>5963</v>
       </c>
       <c r="N239" t="n">
         <v>0</v>
@@ -26255,7 +25779,7 @@
         <v>0</v>
       </c>
       <c r="W239" t="n">
-        <v>55560</v>
+        <v>5963</v>
       </c>
       <c r="X239" t="n">
         <v>10</v>
@@ -26316,16 +25840,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K240" t="inlineStr">
-        <is>
-          <t>605 sft</t>
-        </is>
+      <c r="K240" t="n">
+        <v>4</v>
       </c>
       <c r="L240" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M240" t="n">
-        <v>22385</v>
+        <v>5677</v>
       </c>
       <c r="N240" t="n">
         <v>0</v>
@@ -26363,7 +25885,7 @@
         <v>0</v>
       </c>
       <c r="W240" t="n">
-        <v>22385</v>
+        <v>5677</v>
       </c>
       <c r="X240" t="n">
         <v>10</v>
@@ -26424,16 +25946,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K241" t="inlineStr">
-        <is>
-          <t>1923.37 sft</t>
-        </is>
+      <c r="K241" t="n">
+        <v>5</v>
       </c>
       <c r="L241" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M241" t="n">
-        <v>57701.1</v>
+        <v>5360</v>
       </c>
       <c r="N241" t="n">
         <v>0</v>
@@ -26471,7 +25991,7 @@
         <v>0</v>
       </c>
       <c r="W241" t="n">
-        <v>57701.1</v>
+        <v>5360</v>
       </c>
       <c r="X241" t="n">
         <v>20</v>
@@ -26532,16 +26052,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K242" t="inlineStr">
-        <is>
-          <t>555.18 sft</t>
-        </is>
+      <c r="K242" t="n">
+        <v>4</v>
       </c>
       <c r="L242" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M242" t="n">
-        <v>235951.5</v>
+        <v>5466</v>
       </c>
       <c r="N242" t="n">
         <v>0</v>
@@ -26579,7 +26097,7 @@
         <v>0</v>
       </c>
       <c r="W242" t="n">
-        <v>235951.5</v>
+        <v>5466</v>
       </c>
       <c r="X242" t="n">
         <v>20</v>
@@ -26640,16 +26158,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K243" t="inlineStr">
-        <is>
-          <t>333.66 sft</t>
-        </is>
+      <c r="K243" t="n">
+        <v>3</v>
       </c>
       <c r="L243" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M243" t="n">
-        <v>141805.5</v>
+        <v>5705</v>
       </c>
       <c r="N243" t="n">
         <v>0</v>
@@ -26687,7 +26203,7 @@
         <v>0</v>
       </c>
       <c r="W243" t="n">
-        <v>141805.5</v>
+        <v>5705</v>
       </c>
       <c r="X243" t="n">
         <v>20</v>
@@ -26748,16 +26264,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K244" t="inlineStr">
-        <is>
-          <t>536.46 sft</t>
-        </is>
+      <c r="K244" t="n">
+        <v>2</v>
       </c>
       <c r="L244" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M244" t="n">
-        <v>211901.7</v>
+        <v>5483</v>
       </c>
       <c r="N244" t="n">
         <v>0</v>
@@ -26795,7 +26309,7 @@
         <v>0</v>
       </c>
       <c r="W244" t="n">
-        <v>211901.7</v>
+        <v>5483</v>
       </c>
       <c r="X244" t="n">
         <v>20</v>
@@ -26856,16 +26370,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K245" t="inlineStr">
-        <is>
-          <t>469.92 sft</t>
-        </is>
+      <c r="K245" t="n">
+        <v>3</v>
       </c>
       <c r="L245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M245" t="n">
-        <v>103382.4</v>
+        <v>5112</v>
       </c>
       <c r="N245" t="n">
         <v>0</v>
@@ -26903,7 +26415,7 @@
         <v>0</v>
       </c>
       <c r="W245" t="n">
-        <v>103382.4</v>
+        <v>5112</v>
       </c>
       <c r="X245" t="n">
         <v>20</v>
@@ -26964,16 +26476,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K246" t="inlineStr">
-        <is>
-          <t>1287.08 sft</t>
-        </is>
+      <c r="K246" t="n">
+        <v>5</v>
       </c>
       <c r="L246" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M246" t="n">
-        <v>270286.8</v>
+        <v>5162</v>
       </c>
       <c r="N246" t="n">
         <v>0</v>
@@ -27011,7 +26521,7 @@
         <v>0</v>
       </c>
       <c r="W246" t="n">
-        <v>270286.8</v>
+        <v>5162</v>
       </c>
       <c r="X246" t="n">
         <v>20</v>
@@ -27072,16 +26582,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K247" t="inlineStr">
-        <is>
-          <t>138 rft</t>
-        </is>
+      <c r="K247" t="n">
+        <v>3</v>
       </c>
       <c r="L247" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M247" t="n">
-        <v>58650</v>
+        <v>5114</v>
       </c>
       <c r="N247" t="n">
         <v>0</v>
@@ -27119,7 +26627,7 @@
         <v>0</v>
       </c>
       <c r="W247" t="n">
-        <v>58650</v>
+        <v>5114</v>
       </c>
       <c r="X247" t="n">
         <v>20</v>
@@ -27180,16 +26688,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K248" t="inlineStr">
-        <is>
-          <t>8 rft</t>
-        </is>
+      <c r="K248" t="n">
+        <v>5</v>
       </c>
       <c r="L248" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M248" t="n">
-        <v>3000</v>
+        <v>5491</v>
       </c>
       <c r="N248" t="n">
         <v>0</v>
@@ -27227,7 +26733,7 @@
         <v>0</v>
       </c>
       <c r="W248" t="n">
-        <v>3000</v>
+        <v>5491</v>
       </c>
       <c r="X248" t="n">
         <v>20</v>
@@ -27288,16 +26794,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K249" t="inlineStr">
-        <is>
-          <t>783.35 sft</t>
-        </is>
+      <c r="K249" t="n">
+        <v>3</v>
       </c>
       <c r="L249" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M249" t="n">
-        <v>115152.45</v>
+        <v>5127</v>
       </c>
       <c r="N249" t="n">
         <v>0</v>
@@ -27335,7 +26839,7 @@
         <v>0</v>
       </c>
       <c r="W249" t="n">
-        <v>115152.45</v>
+        <v>5127</v>
       </c>
       <c r="X249" t="n">
         <v>20</v>
@@ -27396,16 +26900,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K250" t="inlineStr">
-        <is>
-          <t>82.50 sft</t>
-        </is>
+      <c r="K250" t="n">
+        <v>4</v>
       </c>
       <c r="L250" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M250" t="n">
-        <v>52387.5</v>
+        <v>5575</v>
       </c>
       <c r="N250" t="n">
         <v>0</v>
@@ -27443,7 +26945,7 @@
         <v>0</v>
       </c>
       <c r="W250" t="n">
-        <v>52387.5</v>
+        <v>5575</v>
       </c>
       <c r="X250" t="n">
         <v>20</v>
@@ -27504,16 +27006,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K251" t="inlineStr">
-        <is>
-          <t>380 rft</t>
-        </is>
+      <c r="K251" t="n">
+        <v>5</v>
       </c>
       <c r="L251" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M251" t="n">
-        <v>28500</v>
+        <v>5321</v>
       </c>
       <c r="N251" t="n">
         <v>0</v>
@@ -27551,7 +27051,7 @@
         <v>0</v>
       </c>
       <c r="W251" t="n">
-        <v>28500</v>
+        <v>5321</v>
       </c>
       <c r="X251" t="n">
         <v>20</v>
@@ -27612,16 +27112,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K252" t="inlineStr">
-        <is>
-          <t>628 rft</t>
-        </is>
+      <c r="K252" t="n">
+        <v>3</v>
       </c>
       <c r="L252" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M252" t="n">
-        <v>69080</v>
+        <v>5245</v>
       </c>
       <c r="N252" t="n">
         <v>0</v>
@@ -27659,7 +27157,7 @@
         <v>0</v>
       </c>
       <c r="W252" t="n">
-        <v>69080</v>
+        <v>5245</v>
       </c>
       <c r="X252" t="n">
         <v>20</v>
@@ -27720,16 +27218,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K253" t="inlineStr">
-        <is>
-          <t>626.68 Sft</t>
-        </is>
+      <c r="K253" t="n">
+        <v>5</v>
       </c>
       <c r="L253" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M253" t="n">
-        <v>708513</v>
+        <v>5117</v>
       </c>
       <c r="N253" t="n">
         <v>0</v>
@@ -27767,7 +27263,7 @@
         <v>0</v>
       </c>
       <c r="W253" t="n">
-        <v>708513</v>
+        <v>5117</v>
       </c>
       <c r="X253" t="n">
         <v>20</v>
@@ -27828,16 +27324,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K254" t="inlineStr">
-        <is>
-          <t>6 NOS</t>
-        </is>
+      <c r="K254" t="n">
+        <v>4</v>
       </c>
       <c r="L254" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="M254" t="n">
-        <v>480000</v>
+        <v>5701</v>
       </c>
       <c r="N254" t="n">
         <v>0</v>
@@ -27875,7 +27369,7 @@
         <v>0</v>
       </c>
       <c r="W254" t="n">
-        <v>480000</v>
+        <v>5701</v>
       </c>
       <c r="X254" t="n">
         <v>20</v>
@@ -27936,16 +27430,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K255" t="inlineStr">
-        <is>
-          <t>3617 SFT</t>
-        </is>
+      <c r="K255" t="n">
+        <v>3</v>
       </c>
       <c r="L255" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M255" t="n">
-        <v>596805</v>
+        <v>5015</v>
       </c>
       <c r="N255" t="n">
         <v>0</v>
@@ -27983,7 +27475,7 @@
         <v>0</v>
       </c>
       <c r="W255" t="n">
-        <v>596805</v>
+        <v>5015</v>
       </c>
       <c r="X255" t="n">
         <v>20</v>
@@ -28044,16 +27536,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K256" t="inlineStr">
-        <is>
-          <t>261.29 SFT</t>
-        </is>
+      <c r="K256" t="n">
+        <v>2</v>
       </c>
       <c r="L256" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M256" t="n">
-        <v>43112.85</v>
+        <v>5678</v>
       </c>
       <c r="N256" t="n">
         <v>0</v>
@@ -28091,7 +27581,7 @@
         <v>0</v>
       </c>
       <c r="W256" t="n">
-        <v>43112.85</v>
+        <v>5678</v>
       </c>
       <c r="X256" t="n">
         <v>20</v>
@@ -28152,16 +27642,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K257" t="inlineStr">
-        <is>
-          <t>7 NOS</t>
-        </is>
+      <c r="K257" t="n">
+        <v>2</v>
       </c>
       <c r="L257" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="M257" t="n">
-        <v>109200</v>
+        <v>5845</v>
       </c>
       <c r="N257" t="n">
         <v>0</v>
@@ -28199,7 +27687,7 @@
         <v>0</v>
       </c>
       <c r="W257" t="n">
-        <v>109200</v>
+        <v>5845</v>
       </c>
       <c r="X257" t="n">
         <v>20</v>
@@ -28260,16 +27748,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K258" t="inlineStr">
-        <is>
-          <t>7 pair</t>
-        </is>
+      <c r="K258" t="n">
+        <v>5</v>
       </c>
       <c r="L258" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="M258" t="n">
-        <v>39375</v>
+        <v>5310</v>
       </c>
       <c r="N258" t="n">
         <v>0</v>
@@ -28307,7 +27793,7 @@
         <v>0</v>
       </c>
       <c r="W258" t="n">
-        <v>39375</v>
+        <v>5310</v>
       </c>
       <c r="X258" t="n">
         <v>20</v>
@@ -28368,16 +27854,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K259" t="inlineStr">
-        <is>
-          <t>9 pcs</t>
-        </is>
+      <c r="K259" t="n">
+        <v>3</v>
       </c>
       <c r="L259" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="M259" t="n">
-        <v>110250</v>
+        <v>5051</v>
       </c>
       <c r="N259" t="n">
         <v>0</v>
@@ -28415,7 +27899,7 @@
         <v>0</v>
       </c>
       <c r="W259" t="n">
-        <v>110250</v>
+        <v>5051</v>
       </c>
       <c r="X259" t="n">
         <v>20</v>
@@ -28476,16 +27960,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K260" t="inlineStr">
-        <is>
-          <t>1106.90 sft</t>
-        </is>
+      <c r="K260" t="n">
+        <v>4</v>
       </c>
       <c r="L260" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M260" t="n">
-        <v>215845.5</v>
+        <v>5311</v>
       </c>
       <c r="N260" t="n">
         <v>0</v>
@@ -28523,7 +28005,7 @@
         <v>0</v>
       </c>
       <c r="W260" t="n">
-        <v>215845.5</v>
+        <v>5311</v>
       </c>
       <c r="X260" t="n">
         <v>20</v>
@@ -28584,16 +28066,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K261" t="inlineStr">
-        <is>
-          <t>485.17 sft</t>
-        </is>
+      <c r="K261" t="n">
+        <v>5</v>
       </c>
       <c r="L261" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M261" t="n">
-        <v>36387.75</v>
+        <v>5849</v>
       </c>
       <c r="N261" t="n">
         <v>0</v>
@@ -28631,7 +28111,7 @@
         <v>0</v>
       </c>
       <c r="W261" t="n">
-        <v>36387.75</v>
+        <v>5849</v>
       </c>
       <c r="X261" t="n">
         <v>20</v>
@@ -28692,16 +28172,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K262" t="inlineStr">
-        <is>
-          <t>304.24 sft</t>
-        </is>
+      <c r="K262" t="n">
+        <v>5</v>
       </c>
       <c r="L262" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M262" t="n">
-        <v>86708.39999999999</v>
+        <v>5281</v>
       </c>
       <c r="N262" t="n">
         <v>0</v>
@@ -28739,7 +28217,7 @@
         <v>0</v>
       </c>
       <c r="W262" t="n">
-        <v>86708.39999999999</v>
+        <v>5281</v>
       </c>
       <c r="X262" t="n">
         <v>20</v>
@@ -28800,16 +28278,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K263" t="inlineStr">
-        <is>
-          <t>1520.79 sft</t>
-        </is>
+      <c r="K263" t="n">
+        <v>3</v>
       </c>
       <c r="L263" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M263" t="n">
-        <v>250930.35</v>
+        <v>5395</v>
       </c>
       <c r="N263" t="n">
         <v>0</v>
@@ -28847,7 +28323,7 @@
         <v>0</v>
       </c>
       <c r="W263" t="n">
-        <v>250930.35</v>
+        <v>5395</v>
       </c>
       <c r="X263" t="n">
         <v>20</v>
@@ -28908,16 +28384,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K264" t="inlineStr">
-        <is>
-          <t>355 sft</t>
-        </is>
+      <c r="K264" t="n">
+        <v>5</v>
       </c>
       <c r="L264" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M264" t="n">
-        <v>37275</v>
+        <v>5391</v>
       </c>
       <c r="N264" t="n">
         <v>0</v>
@@ -28955,7 +28429,7 @@
         <v>0</v>
       </c>
       <c r="W264" t="n">
-        <v>37275</v>
+        <v>5391</v>
       </c>
       <c r="X264" t="n">
         <v>20</v>
@@ -29016,16 +28490,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K265" t="inlineStr">
-        <is>
-          <t>791.85 sft</t>
-        </is>
+      <c r="K265" t="n">
+        <v>4</v>
       </c>
       <c r="L265" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M265" t="n">
-        <v>31674</v>
+        <v>5161</v>
       </c>
       <c r="N265" t="n">
         <v>0</v>
@@ -29063,7 +28535,7 @@
         <v>0</v>
       </c>
       <c r="W265" t="n">
-        <v>31674</v>
+        <v>5161</v>
       </c>
       <c r="X265" t="n">
         <v>20</v>
@@ -29124,16 +28596,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K266" t="inlineStr">
-        <is>
-          <t>1 job</t>
-        </is>
+      <c r="K266" t="n">
+        <v>4</v>
       </c>
       <c r="L266" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M266" t="n">
-        <v>21500</v>
+        <v>5593</v>
       </c>
       <c r="N266" t="n">
         <v>0</v>
@@ -29171,7 +28641,7 @@
         <v>0</v>
       </c>
       <c r="W266" t="n">
-        <v>21500</v>
+        <v>5593</v>
       </c>
       <c r="X266" t="n">
         <v>20</v>
@@ -29232,16 +28702,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K267" t="inlineStr">
-        <is>
-          <t>1 job</t>
-        </is>
+      <c r="K267" t="n">
+        <v>3</v>
       </c>
       <c r="L267" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M267" t="n">
-        <v>145000</v>
+        <v>5139</v>
       </c>
       <c r="N267" t="n">
         <v>0</v>
@@ -29279,7 +28747,7 @@
         <v>0</v>
       </c>
       <c r="W267" t="n">
-        <v>145000</v>
+        <v>5139</v>
       </c>
       <c r="X267" t="n">
         <v>20</v>
@@ -29340,16 +28808,14 @@
           <t>WOODEN TEXTURE</t>
         </is>
       </c>
-      <c r="K268" t="inlineStr">
-        <is>
-          <t>226.67 sft</t>
-        </is>
+      <c r="K268" t="n">
+        <v>4</v>
       </c>
       <c r="L268" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M268" t="n">
-        <v>36267.2</v>
+        <v>5414</v>
       </c>
       <c r="N268" t="n">
         <v>0</v>
@@ -29387,7 +28853,7 @@
         <v>0</v>
       </c>
       <c r="W268" t="n">
-        <v>36267.2</v>
+        <v>5414</v>
       </c>
       <c r="X268" t="n">
         <v>20</v>
@@ -29448,16 +28914,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K269" t="inlineStr">
-        <is>
-          <t>128 sft</t>
-        </is>
+      <c r="K269" t="n">
+        <v>3</v>
       </c>
       <c r="L269" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M269" t="n">
-        <v>83200</v>
+        <v>5635</v>
       </c>
       <c r="N269" t="n">
         <v>0</v>
@@ -29495,7 +28959,7 @@
         <v>0</v>
       </c>
       <c r="W269" t="n">
-        <v>83200</v>
+        <v>5635</v>
       </c>
       <c r="X269" t="n">
         <v>20</v>
@@ -29556,16 +29020,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K270" t="inlineStr">
-        <is>
-          <t>115 sft</t>
-        </is>
+      <c r="K270" t="n">
+        <v>2</v>
       </c>
       <c r="L270" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M270" t="n">
-        <v>74750</v>
+        <v>5447</v>
       </c>
       <c r="N270" t="n">
         <v>0</v>
@@ -29603,7 +29065,7 @@
         <v>0</v>
       </c>
       <c r="W270" t="n">
-        <v>74750</v>
+        <v>5447</v>
       </c>
       <c r="X270" t="n">
         <v>20</v>
@@ -29664,16 +29126,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K271" t="inlineStr">
-        <is>
-          <t>296 sft</t>
-        </is>
+      <c r="K271" t="n">
+        <v>2</v>
       </c>
       <c r="L271" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M271" t="n">
-        <v>140600</v>
+        <v>5453</v>
       </c>
       <c r="N271" t="n">
         <v>0</v>
@@ -29711,7 +29171,7 @@
         <v>0</v>
       </c>
       <c r="W271" t="n">
-        <v>140600</v>
+        <v>5453</v>
       </c>
       <c r="X271" t="n">
         <v>20</v>
@@ -29772,16 +29232,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K272" t="inlineStr">
-        <is>
-          <t>357.83 sft</t>
-        </is>
+      <c r="K272" t="n">
+        <v>4</v>
       </c>
       <c r="L272" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M272" t="n">
-        <v>134186.25</v>
+        <v>5740</v>
       </c>
       <c r="N272" t="n">
         <v>0</v>
@@ -29819,7 +29277,7 @@
         <v>0</v>
       </c>
       <c r="W272" t="n">
-        <v>134186.25</v>
+        <v>5740</v>
       </c>
       <c r="X272" t="n">
         <v>20</v>
@@ -29880,16 +29338,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K273" t="inlineStr">
-        <is>
-          <t>12 sft</t>
-        </is>
+      <c r="K273" t="n">
+        <v>4</v>
       </c>
       <c r="L273" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M273" t="n">
-        <v>3900</v>
+        <v>5608</v>
       </c>
       <c r="N273" t="n">
         <v>0</v>
@@ -29927,7 +29383,7 @@
         <v>0</v>
       </c>
       <c r="W273" t="n">
-        <v>3900</v>
+        <v>5608</v>
       </c>
       <c r="X273" t="n">
         <v>20</v>
@@ -29988,16 +29444,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K274" t="inlineStr">
-        <is>
-          <t>50 nos</t>
-        </is>
+      <c r="K274" t="n">
+        <v>4</v>
       </c>
       <c r="L274" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="M274" t="n">
-        <v>1000000</v>
+        <v>5984</v>
       </c>
       <c r="N274" t="n">
         <v>0</v>
@@ -30035,7 +29489,7 @@
         <v>0</v>
       </c>
       <c r="W274" t="n">
-        <v>1000000</v>
+        <v>5984</v>
       </c>
       <c r="X274" t="n">
         <v>15</v>
@@ -30096,16 +29550,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K275" t="inlineStr">
-        <is>
-          <t>26 nos</t>
-        </is>
+      <c r="K275" t="n">
+        <v>4</v>
       </c>
       <c r="L275" t="n">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="M275" t="n">
-        <v>117000</v>
+        <v>5813</v>
       </c>
       <c r="N275" t="n">
         <v>0</v>
@@ -30143,7 +29595,7 @@
         <v>0</v>
       </c>
       <c r="W275" t="n">
-        <v>117000</v>
+        <v>5813</v>
       </c>
       <c r="X275" t="n">
         <v>15</v>
@@ -30204,16 +29656,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K276" t="inlineStr">
-        <is>
-          <t>3 set</t>
-        </is>
+      <c r="K276" t="n">
+        <v>2</v>
       </c>
       <c r="L276" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M276" t="n">
-        <v>165000</v>
+        <v>5658</v>
       </c>
       <c r="N276" t="n">
         <v>0</v>
@@ -30251,7 +29701,7 @@
         <v>0</v>
       </c>
       <c r="W276" t="n">
-        <v>165000</v>
+        <v>5658</v>
       </c>
       <c r="X276" t="n">
         <v>15</v>
@@ -30312,16 +29762,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K277" t="inlineStr">
-        <is>
-          <t>1 nos</t>
-        </is>
+      <c r="K277" t="n">
+        <v>3</v>
       </c>
       <c r="L277" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M277" t="n">
-        <v>47500</v>
+        <v>5374</v>
       </c>
       <c r="N277" t="n">
         <v>0</v>
@@ -30359,7 +29807,7 @@
         <v>0</v>
       </c>
       <c r="W277" t="n">
-        <v>47500</v>
+        <v>5374</v>
       </c>
       <c r="X277" t="n">
         <v>15</v>
@@ -30420,16 +29868,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K278" t="inlineStr">
-        <is>
-          <t>1 nos</t>
-        </is>
+      <c r="K278" t="n">
+        <v>2</v>
       </c>
       <c r="L278" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M278" t="n">
-        <v>73500</v>
+        <v>5181</v>
       </c>
       <c r="N278" t="n">
         <v>0</v>
@@ -30467,7 +29913,7 @@
         <v>0</v>
       </c>
       <c r="W278" t="n">
-        <v>73500</v>
+        <v>5181</v>
       </c>
       <c r="X278" t="n">
         <v>15</v>
@@ -30528,16 +29974,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K279" t="inlineStr">
-        <is>
-          <t>4 nos</t>
-        </is>
+      <c r="K279" t="n">
+        <v>2</v>
       </c>
       <c r="L279" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="M279" t="n">
-        <v>50800</v>
+        <v>5444</v>
       </c>
       <c r="N279" t="n">
         <v>0</v>
@@ -30575,7 +30019,7 @@
         <v>0</v>
       </c>
       <c r="W279" t="n">
-        <v>50800</v>
+        <v>5444</v>
       </c>
       <c r="X279" t="n">
         <v>15</v>
@@ -30636,16 +30080,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K280" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K280" t="n">
+        <v>5</v>
       </c>
       <c r="L280" t="n">
         <v>2</v>
       </c>
       <c r="M280" t="n">
-        <v>47000</v>
+        <v>5271</v>
       </c>
       <c r="N280" t="n">
         <v>0</v>
@@ -30683,7 +30125,7 @@
         <v>0</v>
       </c>
       <c r="W280" t="n">
-        <v>47000</v>
+        <v>5271</v>
       </c>
       <c r="X280" t="n">
         <v>15</v>
@@ -30744,16 +30186,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K281" t="inlineStr">
-        <is>
-          <t>12 nos</t>
-        </is>
+      <c r="K281" t="n">
+        <v>2</v>
       </c>
       <c r="L281" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="M281" t="n">
-        <v>96000</v>
+        <v>5567</v>
       </c>
       <c r="N281" t="n">
         <v>0</v>
@@ -30791,7 +30231,7 @@
         <v>0</v>
       </c>
       <c r="W281" t="n">
-        <v>96000</v>
+        <v>5567</v>
       </c>
       <c r="X281" t="n">
         <v>15</v>
@@ -30852,16 +30292,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K282" t="inlineStr">
-        <is>
-          <t>192 sft</t>
-        </is>
+      <c r="K282" t="n">
+        <v>3</v>
       </c>
       <c r="L282" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M282" t="n">
-        <v>220800</v>
+        <v>5745</v>
       </c>
       <c r="N282" t="n">
         <v>0</v>
@@ -30899,7 +30337,7 @@
         <v>0</v>
       </c>
       <c r="W282" t="n">
-        <v>220800</v>
+        <v>5745</v>
       </c>
       <c r="X282" t="n">
         <v>15</v>
@@ -30960,16 +30398,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K283" t="inlineStr">
-        <is>
-          <t>1 pcs</t>
-        </is>
+      <c r="K283" t="n">
+        <v>4</v>
       </c>
       <c r="L283" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M283" t="n">
-        <v>65000</v>
+        <v>5773</v>
       </c>
       <c r="N283" t="n">
         <v>0</v>
@@ -31007,7 +30443,7 @@
         <v>0</v>
       </c>
       <c r="W283" t="n">
-        <v>65000</v>
+        <v>5773</v>
       </c>
       <c r="X283" t="n">
         <v>15</v>
@@ -31068,16 +30504,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K284" t="inlineStr">
-        <is>
-          <t>6 PCS</t>
-        </is>
+      <c r="K284" t="n">
+        <v>5</v>
       </c>
       <c r="L284" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="M284" t="n">
-        <v>87000</v>
+        <v>5829</v>
       </c>
       <c r="N284" t="n">
         <v>0</v>
@@ -31115,7 +30549,7 @@
         <v>0</v>
       </c>
       <c r="W284" t="n">
-        <v>87000</v>
+        <v>5829</v>
       </c>
       <c r="X284" t="n">
         <v>15</v>
@@ -31176,16 +30610,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K285" t="inlineStr">
-        <is>
-          <t>4 pcs</t>
-        </is>
+      <c r="K285" t="n">
+        <v>2</v>
       </c>
       <c r="L285" t="n">
         <v>4</v>
       </c>
       <c r="M285" t="n">
-        <v>140000</v>
+        <v>5781</v>
       </c>
       <c r="N285" t="n">
         <v>0</v>
@@ -31223,7 +30655,7 @@
         <v>0</v>
       </c>
       <c r="W285" t="n">
-        <v>140000</v>
+        <v>5781</v>
       </c>
       <c r="X285" t="n">
         <v>15</v>
@@ -31284,16 +30716,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K286" t="inlineStr">
-        <is>
-          <t>1 pcs</t>
-        </is>
+      <c r="K286" t="n">
+        <v>4</v>
       </c>
       <c r="L286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M286" t="n">
-        <v>95000</v>
+        <v>5188</v>
       </c>
       <c r="N286" t="n">
         <v>0</v>
@@ -31331,7 +30761,7 @@
         <v>0</v>
       </c>
       <c r="W286" t="n">
-        <v>95000</v>
+        <v>5188</v>
       </c>
       <c r="X286" t="n">
         <v>15</v>
@@ -31392,16 +30822,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K287" t="inlineStr">
-        <is>
-          <t>1 pcs</t>
-        </is>
+      <c r="K287" t="n">
+        <v>5</v>
       </c>
       <c r="L287" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M287" t="n">
-        <v>60000</v>
+        <v>5423</v>
       </c>
       <c r="N287" t="n">
         <v>0</v>
@@ -31439,7 +30867,7 @@
         <v>0</v>
       </c>
       <c r="W287" t="n">
-        <v>60000</v>
+        <v>5423</v>
       </c>
       <c r="X287" t="n">
         <v>15</v>
@@ -31500,16 +30928,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K288" t="inlineStr">
-        <is>
-          <t>50 pcs</t>
-        </is>
+      <c r="K288" t="n">
+        <v>5</v>
       </c>
       <c r="L288" t="n">
-        <v>50</v>
+        <v>3</v>
       </c>
       <c r="M288" t="n">
-        <v>422500</v>
+        <v>5050</v>
       </c>
       <c r="N288" t="n">
         <v>0</v>
@@ -31547,7 +30973,7 @@
         <v>0</v>
       </c>
       <c r="W288" t="n">
-        <v>422500</v>
+        <v>5050</v>
       </c>
       <c r="X288" t="n">
         <v>15</v>
@@ -31608,16 +31034,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K289" t="inlineStr">
-        <is>
-          <t>1 pcs</t>
-        </is>
+      <c r="K289" t="n">
+        <v>2</v>
       </c>
       <c r="L289" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M289" t="n">
-        <v>8450</v>
+        <v>5097</v>
       </c>
       <c r="N289" t="n">
         <v>0</v>
@@ -31655,7 +31079,7 @@
         <v>0</v>
       </c>
       <c r="W289" t="n">
-        <v>8450</v>
+        <v>5097</v>
       </c>
       <c r="X289" t="n">
         <v>15</v>
@@ -31716,16 +31140,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K290" t="inlineStr">
-        <is>
-          <t>8 pcs</t>
-        </is>
+      <c r="K290" t="n">
+        <v>3</v>
       </c>
       <c r="L290" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="M290" t="n">
-        <v>60000</v>
+        <v>5615</v>
       </c>
       <c r="N290" t="n">
         <v>0</v>
@@ -31763,7 +31185,7 @@
         <v>0</v>
       </c>
       <c r="W290" t="n">
-        <v>60000</v>
+        <v>5615</v>
       </c>
       <c r="X290" t="n">
         <v>15</v>
@@ -31824,16 +31246,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K291" t="inlineStr">
-        <is>
-          <t>36 sft</t>
-        </is>
+      <c r="K291" t="n">
+        <v>5</v>
       </c>
       <c r="L291" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="M291" t="n">
-        <v>23400</v>
+        <v>5236</v>
       </c>
       <c r="N291" t="n">
         <v>0</v>
@@ -31871,7 +31291,7 @@
         <v>0</v>
       </c>
       <c r="W291" t="n">
-        <v>23400</v>
+        <v>5236</v>
       </c>
       <c r="X291" t="n">
         <v>15</v>
@@ -31932,16 +31352,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K292" t="inlineStr">
-        <is>
-          <t>182.20 sft</t>
-        </is>
+      <c r="K292" t="n">
+        <v>4</v>
       </c>
       <c r="L292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M292" t="n">
-        <v>118430</v>
+        <v>5794</v>
       </c>
       <c r="N292" t="n">
         <v>0</v>
@@ -31979,7 +31397,7 @@
         <v>0</v>
       </c>
       <c r="W292" t="n">
-        <v>118430</v>
+        <v>5794</v>
       </c>
       <c r="X292" t="n">
         <v>15</v>
@@ -32040,16 +31458,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K293" t="inlineStr">
-        <is>
-          <t>13.75 SFT</t>
-        </is>
+      <c r="K293" t="n">
+        <v>4</v>
       </c>
       <c r="L293" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="M293" t="n">
-        <v>8937.5</v>
+        <v>5814</v>
       </c>
       <c r="N293" t="n">
         <v>0</v>
@@ -32087,7 +31503,7 @@
         <v>0</v>
       </c>
       <c r="W293" t="n">
-        <v>8937.5</v>
+        <v>5814</v>
       </c>
       <c r="X293" t="n">
         <v>15</v>
@@ -32148,16 +31564,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K294" t="inlineStr">
-        <is>
-          <t>50 PCS</t>
-        </is>
+      <c r="K294" t="n">
+        <v>4</v>
       </c>
       <c r="L294" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="M294" t="n">
-        <v>200000</v>
+        <v>5902</v>
       </c>
       <c r="N294" t="n">
         <v>0</v>
@@ -32195,7 +31609,7 @@
         <v>0</v>
       </c>
       <c r="W294" t="n">
-        <v>200000</v>
+        <v>5902</v>
       </c>
       <c r="X294" t="n">
         <v>15</v>
@@ -32256,16 +31670,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K295" t="inlineStr">
-        <is>
-          <t>4008 SFT</t>
-        </is>
+      <c r="K295" t="n">
+        <v>5</v>
       </c>
       <c r="L295" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="M295" t="n">
-        <v>1182360</v>
+        <v>5172</v>
       </c>
       <c r="N295" t="n">
         <v>0</v>
@@ -32303,7 +31715,7 @@
         <v>0</v>
       </c>
       <c r="W295" t="n">
-        <v>1182360</v>
+        <v>5172</v>
       </c>
       <c r="X295" t="n">
         <v>15</v>
@@ -32364,16 +31776,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K296" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="K296" t="n">
+        <v>4</v>
       </c>
       <c r="L296" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="M296" t="n">
-        <v>120000</v>
+        <v>5124</v>
       </c>
       <c r="N296" t="n">
         <v>0</v>
@@ -32411,7 +31821,7 @@
         <v>0</v>
       </c>
       <c r="W296" t="n">
-        <v>120000</v>
+        <v>5124</v>
       </c>
       <c r="X296" t="n">
         <v>15</v>
@@ -32472,16 +31882,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K297" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="K297" t="n">
+        <v>5</v>
       </c>
       <c r="L297" t="n">
         <v>4</v>
       </c>
       <c r="M297" t="n">
-        <v>78800</v>
+        <v>5865</v>
       </c>
       <c r="N297" t="n">
         <v>0</v>
@@ -32519,7 +31927,7 @@
         <v>0</v>
       </c>
       <c r="W297" t="n">
-        <v>78800</v>
+        <v>5865</v>
       </c>
       <c r="X297" t="n">
         <v>15</v>
@@ -32580,16 +31988,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K298" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="K298" t="n">
+        <v>3</v>
       </c>
       <c r="L298" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M298" t="n">
-        <v>50100</v>
+        <v>5547</v>
       </c>
       <c r="N298" t="n">
         <v>0</v>
@@ -32627,7 +32033,7 @@
         <v>0</v>
       </c>
       <c r="W298" t="n">
-        <v>50100</v>
+        <v>5547</v>
       </c>
       <c r="X298" t="n">
         <v>15</v>
@@ -32688,16 +32094,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K299" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="K299" t="n">
+        <v>3</v>
       </c>
       <c r="L299" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="M299" t="n">
-        <v>188000</v>
+        <v>5019</v>
       </c>
       <c r="N299" t="n">
         <v>0</v>
@@ -32735,7 +32139,7 @@
         <v>0</v>
       </c>
       <c r="W299" t="n">
-        <v>188000</v>
+        <v>5019</v>
       </c>
       <c r="X299" t="n">
         <v>15</v>
@@ -32796,16 +32200,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K300" t="inlineStr">
-        <is>
-          <t>1 nos</t>
-        </is>
+      <c r="K300" t="n">
+        <v>3</v>
       </c>
       <c r="L300" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="M300" t="n">
-        <v>45500</v>
+        <v>5946</v>
       </c>
       <c r="N300" t="n">
         <v>0</v>
@@ -32843,7 +32245,7 @@
         <v>0</v>
       </c>
       <c r="W300" t="n">
-        <v>45500</v>
+        <v>5946</v>
       </c>
       <c r="X300" t="n">
         <v>15</v>
@@ -32904,16 +32306,14 @@
           <t>0</t>
         </is>
       </c>
-      <c r="K301" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="K301" t="n">
+        <v>5</v>
       </c>
       <c r="L301" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="M301" t="n">
-        <v>120000</v>
+        <v>5477</v>
       </c>
       <c r="N301" t="n">
         <v>0</v>
@@ -32951,7 +32351,7 @@
         <v>0</v>
       </c>
       <c r="W301" t="n">
-        <v>120000</v>
+        <v>5477</v>
       </c>
       <c r="X301" t="n">
         <v>10</v>
